--- a/spring.xlsx
+++ b/spring.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JAVA\book\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\github\wl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="225" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="IOC" sheetId="1" r:id="rId1"/>
-    <sheet name="BeanRegistry" sheetId="5" r:id="rId2"/>
-    <sheet name="other" sheetId="4" r:id="rId3"/>
-    <sheet name="FactoryBean" sheetId="3" r:id="rId4"/>
-    <sheet name="Aware" sheetId="2" r:id="rId5"/>
-    <sheet name="MVC" sheetId="6" r:id="rId6"/>
+    <sheet name="invoke" sheetId="7" r:id="rId1"/>
+    <sheet name="IOC" sheetId="1" r:id="rId2"/>
+    <sheet name="BeanRegistry" sheetId="5" r:id="rId3"/>
+    <sheet name="other" sheetId="4" r:id="rId4"/>
+    <sheet name="FactoryBean" sheetId="3" r:id="rId5"/>
+    <sheet name="Aware" sheetId="2" r:id="rId6"/>
+    <sheet name="MVC" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,9 +29,138 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+  <si>
+    <t>Class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileSystemXmlApplicationContext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refresh()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contructor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbstractApplicationContext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obtainFreshBeanFactory()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refreshBeanFactory()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbstractRefreshableApplicationContext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createBeanFactory()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefaultListableBeanFactory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customizeBeanFactory(beanFactory)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loadBeanDefinitions(beanFactory)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getBeanFactory()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConfigurableListableBeanFactory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prepareBeanFactory(beanFactory)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postProcessBeanFactory(beanFactory)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invokeBeanFactoryPostProcessors(beanFactory)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>registerBeanPostProcessors(beanFactory)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initMessageSource()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initApplicationEventMulticaster()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onRefresh()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>registerListeners()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finishBeanFactoryInitialization(beanFactory)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finishRefresh()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>destroyBeans()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancelRefresh(ex)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resetCommonCaches()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prepareRefresh()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,20 +177,78 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -69,9 +257,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -110,7 +319,7 @@
         <xdr:cNvPr id="3" name="矩形: 剪去顶角 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D4C1C87-A8C9-40E1-8FF6-3FBDA8F5ADC4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D4C1C87-A8C9-40E1-8FF6-3FBDA8F5ADC4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -185,7 +394,7 @@
         <xdr:cNvPr id="15" name="矩形: 剪去顶角 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0A0FF47-3F5E-4B80-BD20-7F8DBFF971A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D0A0FF47-3F5E-4B80-BD20-7F8DBFF971A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -260,7 +469,7 @@
         <xdr:cNvPr id="16" name="矩形: 剪去顶角 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C89AA886-4968-4344-B131-B7DF4D9A76CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C89AA886-4968-4344-B131-B7DF4D9A76CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -334,7 +543,7 @@
         <xdr:cNvPr id="17" name="矩形: 剪去顶角 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{516D1AB6-78BC-47B9-A38B-640C374D47F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{516D1AB6-78BC-47B9-A38B-640C374D47F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -408,7 +617,7 @@
         <xdr:cNvPr id="30" name="直接箭头连接符 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB4EB606-CE96-48F5-A017-F6B6A9C61C32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB4EB606-CE96-48F5-A017-F6B6A9C61C32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -464,7 +673,7 @@
         <xdr:cNvPr id="33" name="直接箭头连接符 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD9CB335-5E4F-467B-B0D3-30D33011B8CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CD9CB335-5E4F-467B-B0D3-30D33011B8CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -520,7 +729,7 @@
         <xdr:cNvPr id="34" name="直接箭头连接符 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6274B23A-410D-4349-A24D-F3CE51D48CEA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6274B23A-410D-4349-A24D-F3CE51D48CEA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -576,7 +785,7 @@
         <xdr:cNvPr id="64" name="矩形: 剪去顶角 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6CBA805-E9FD-4EC6-8E6A-F199C5BB2F2B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B6CBA805-E9FD-4EC6-8E6A-F199C5BB2F2B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -650,7 +859,7 @@
         <xdr:cNvPr id="68" name="直接箭头连接符 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A103A99E-8881-4E75-AA3F-BB81DDFC0148}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A103A99E-8881-4E75-AA3F-BB81DDFC0148}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -706,7 +915,7 @@
         <xdr:cNvPr id="74" name="矩形: 剪去顶角 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A2B8A41-43AA-447F-8928-E2944A29A186}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A2B8A41-43AA-447F-8928-E2944A29A186}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -783,7 +992,7 @@
         <xdr:cNvPr id="75" name="直接箭头连接符 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEEE5A5F-7527-47AB-A05F-C8B28D657D76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EEEE5A5F-7527-47AB-A05F-C8B28D657D76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -839,7 +1048,7 @@
         <xdr:cNvPr id="78" name="直接箭头连接符 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CD230F6-94AA-43DE-91F3-2B1694F1BFE5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0CD230F6-94AA-43DE-91F3-2B1694F1BFE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -895,7 +1104,7 @@
         <xdr:cNvPr id="79" name="直接箭头连接符 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{024FEFB5-818D-48A2-8239-ABF8593AFA89}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{024FEFB5-818D-48A2-8239-ABF8593AFA89}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -951,7 +1160,7 @@
         <xdr:cNvPr id="93" name="矩形: 剪去顶角 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD0E62D1-0B84-474D-939D-E526B40D6846}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD0E62D1-0B84-474D-939D-E526B40D6846}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1025,7 +1234,7 @@
         <xdr:cNvPr id="94" name="直接箭头连接符 93">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A680446C-B4C0-4DD1-990B-5A2B5FF46CB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A680446C-B4C0-4DD1-990B-5A2B5FF46CB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1081,7 +1290,7 @@
         <xdr:cNvPr id="98" name="矩形: 剪去顶角 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0E222EA-3A60-4D85-B577-6AF2A6AF5717}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C0E222EA-3A60-4D85-B577-6AF2A6AF5717}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1155,7 +1364,7 @@
         <xdr:cNvPr id="99" name="直接箭头连接符 98">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54918266-DAFE-4DB5-A86F-59481F615AEF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{54918266-DAFE-4DB5-A86F-59481F615AEF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1211,7 +1420,7 @@
         <xdr:cNvPr id="102" name="直接箭头连接符 101">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3A3C0D1-52C1-4DAB-BBC0-762765394DA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F3A3C0D1-52C1-4DAB-BBC0-762765394DA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1267,7 +1476,7 @@
         <xdr:cNvPr id="110" name="矩形 109">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FCF475C-E6CE-449B-8E5A-890203C5E411}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7FCF475C-E6CE-449B-8E5A-890203C5E411}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1338,7 +1547,7 @@
         <xdr:cNvPr id="111" name="直接箭头连接符 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C798671A-E2EA-4916-9BFD-1B3FAFA848F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C798671A-E2EA-4916-9BFD-1B3FAFA848F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1394,7 +1603,7 @@
         <xdr:cNvPr id="115" name="直接箭头连接符 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F2E47CB-6158-4AD9-BFF0-C235CB2BE97C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F2E47CB-6158-4AD9-BFF0-C235CB2BE97C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1450,7 +1659,7 @@
         <xdr:cNvPr id="120" name="矩形 119">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E94C32DA-CEA1-4C0C-A924-5BF1EF6B3A0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E94C32DA-CEA1-4C0C-A924-5BF1EF6B3A0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1521,7 +1730,7 @@
         <xdr:cNvPr id="121" name="直接箭头连接符 120">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8422EA51-5901-43A3-BA50-C49D0AAD6292}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8422EA51-5901-43A3-BA50-C49D0AAD6292}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1577,7 +1786,7 @@
         <xdr:cNvPr id="63" name="图片 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2C0FC23-3791-482D-91E0-5AA7FDF7170D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2C0FC23-3791-482D-91E0-5AA7FDF7170D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1621,7 +1830,7 @@
         <xdr:cNvPr id="65" name="图片 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F7035A4-4C3A-479A-B05B-435553E5EAF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F7035A4-4C3A-479A-B05B-435553E5EAF1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1665,7 +1874,7 @@
         <xdr:cNvPr id="66" name="图片 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E2A2E53-C453-4871-8264-413B8F59AAF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E2A2E53-C453-4871-8264-413B8F59AAF9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1691,6 +1900,272 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>579581</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>65959</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="图片 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="27089100"/>
+          <a:ext cx="11552381" cy="5723809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>341858</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>142182</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="图片 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="923925" y="33175575"/>
+          <a:ext cx="8333333" cy="5542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>189711</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>18673</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="9001125"/>
+          <a:ext cx="6314286" cy="3019048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>513487</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>113489</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8696325" y="6315075"/>
+          <a:ext cx="6904762" cy="6485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>132476</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>27971</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="13030200"/>
+          <a:ext cx="6990476" cy="4828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>618124</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>161279</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="30822900"/>
+          <a:ext cx="8009524" cy="5171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>80051</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8401049" y="30813374"/>
+          <a:ext cx="9229725" cy="2699427"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1714,7 +2189,7 @@
         <xdr:cNvPr id="2" name="矩形: 剪去顶角 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA86175E-B6E2-4132-953C-52DDC73E1C1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BA86175E-B6E2-4132-953C-52DDC73E1C1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1794,7 +2269,7 @@
         <xdr:cNvPr id="2" name="流程图: 可选过程 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA489F67-CEBB-4A09-ACEB-D32F65C649C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA489F67-CEBB-4A09-ACEB-D32F65C649C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1868,7 +2343,7 @@
         <xdr:cNvPr id="3" name="矩形: 剪去顶角 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D33C49B0-2D2C-4573-9D57-3B481EA39F8D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D33C49B0-2D2C-4573-9D57-3B481EA39F8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1939,7 +2414,7 @@
         <xdr:cNvPr id="4" name="矩形: 剪去顶角 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9BA61AB-4BBE-4D33-8CAD-024EF27BBC6D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9BA61AB-4BBE-4D33-8CAD-024EF27BBC6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2010,7 +2485,7 @@
         <xdr:cNvPr id="5" name="矩形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B2C937-EBD3-438E-B500-434ED86B0235}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64B2C937-EBD3-438E-B500-434ED86B0235}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2081,7 +2556,7 @@
         <xdr:cNvPr id="6" name="矩形: 剪去顶角 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82127252-FD7A-45D2-AFEB-52C48440D583}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82127252-FD7A-45D2-AFEB-52C48440D583}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2155,7 +2630,7 @@
         <xdr:cNvPr id="7" name="矩形: 剪去顶角 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{676EFC04-0A90-49D3-9ACE-666280FC087B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{676EFC04-0A90-49D3-9ACE-666280FC087B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2229,7 +2704,7 @@
         <xdr:cNvPr id="8" name="矩形: 剪去顶角 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1C69AD3-B11A-43E6-A518-8EC868F9F3D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D1C69AD3-B11A-43E6-A518-8EC868F9F3D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2303,7 +2778,7 @@
         <xdr:cNvPr id="9" name="直接箭头连接符 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50A022B7-FAB1-404D-A13B-AEA10914BDF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{50A022B7-FAB1-404D-A13B-AEA10914BDF1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2359,7 +2834,7 @@
         <xdr:cNvPr id="10" name="矩形: 剪去顶角 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDD206B9-B7EF-4899-A313-BF1C57F6E362}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CDD206B9-B7EF-4899-A313-BF1C57F6E362}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2438,7 +2913,7 @@
         <xdr:cNvPr id="2" name="矩形: 剪去顶角 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03FE7E64-50D1-4FAE-B836-51CB64F204C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{03FE7E64-50D1-4FAE-B836-51CB64F204C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2512,7 +2987,7 @@
         <xdr:cNvPr id="3" name="矩形: 剪去顶角 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B77736E-5459-4263-97BF-97A370D923B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8B77736E-5459-4263-97BF-97A370D923B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2586,7 +3061,7 @@
         <xdr:cNvPr id="4" name="直接箭头连接符 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5BF3FFC-04F3-4B17-BB28-D6B1953FE230}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E5BF3FFC-04F3-4B17-BB28-D6B1953FE230}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2647,7 +3122,7 @@
         <xdr:cNvPr id="2" name="矩形: 剪去顶角 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E522362F-254A-45BA-9EA7-AA80E7B211BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E522362F-254A-45BA-9EA7-AA80E7B211BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2718,7 +3193,7 @@
         <xdr:cNvPr id="3" name="矩形: 剪去顶角 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D926EE8C-1257-406D-8B89-62E065925931}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D926EE8C-1257-406D-8B89-62E065925931}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2789,7 +3264,7 @@
         <xdr:cNvPr id="4" name="矩形: 剪去顶角 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2538275-4B10-4969-BDDE-8ABF806B41E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C2538275-4B10-4969-BDDE-8ABF806B41E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2860,7 +3335,7 @@
         <xdr:cNvPr id="5" name="矩形: 剪去顶角 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2C3BEAE-C28D-4C46-A7FF-06FAD2410EF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2C3BEAE-C28D-4C46-A7FF-06FAD2410EF9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2931,7 +3406,7 @@
         <xdr:cNvPr id="6" name="矩形: 剪去顶角 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77D1CE33-625E-403A-AE8A-E01BBD36D54C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{77D1CE33-625E-403A-AE8A-E01BBD36D54C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3002,7 +3477,7 @@
         <xdr:cNvPr id="7" name="直接箭头连接符 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{289FA419-EC4B-48A6-B540-34A73B24955F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{289FA419-EC4B-48A6-B540-34A73B24955F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3058,7 +3533,7 @@
         <xdr:cNvPr id="8" name="直接箭头连接符 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AE68520-BB30-40AD-B811-EE3B25895DE0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5AE68520-BB30-40AD-B811-EE3B25895DE0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3114,7 +3589,7 @@
         <xdr:cNvPr id="9" name="直接箭头连接符 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{465A6DE1-4580-45C9-91D6-858DC5419578}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{465A6DE1-4580-45C9-91D6-858DC5419578}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3170,7 +3645,7 @@
         <xdr:cNvPr id="10" name="直接箭头连接符 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A1C9038-4E55-4955-9879-7FD0FF014323}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A1C9038-4E55-4955-9879-7FD0FF014323}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3231,7 +3706,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C88FDA8-A424-45D0-BEC5-20568E3EBCDA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C88FDA8-A424-45D0-BEC5-20568E3EBCDA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3275,7 +3750,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EC91015-BF42-43A6-A36A-74470CC68069}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4EC91015-BF42-43A6-A36A-74470CC68069}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3319,7 +3794,7 @@
         <xdr:cNvPr id="4" name="矩形: 剪去顶角 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09C50829-A440-48C2-99B6-89482A99B559}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{09C50829-A440-48C2-99B6-89482A99B559}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3393,7 +3868,7 @@
         <xdr:cNvPr id="6" name="矩形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D4C7C9F-50CC-4A87-9644-860B94E9315E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D4C7C9F-50CC-4A87-9644-860B94E9315E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3464,7 +3939,7 @@
         <xdr:cNvPr id="8" name="直接箭头连接符 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDD58563-EF76-4117-9EE3-60C2B8D2BDED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DDD58563-EF76-4117-9EE3-60C2B8D2BDED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3520,7 +3995,7 @@
         <xdr:cNvPr id="9" name="直接箭头连接符 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD1A9B7E-B89C-4AB3-AE3A-D8B3991766E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD1A9B7E-B89C-4AB3-AE3A-D8B3991766E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3576,7 +4051,7 @@
         <xdr:cNvPr id="21" name="矩形 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B1D9C73-C7A9-490B-B204-7A7F99F606F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B1D9C73-C7A9-490B-B204-7A7F99F606F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3930,13 +4405,356 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="2" width="5.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="41.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="35" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="C5" s="6"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="C6" s="6"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="C7" s="6"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="C8" s="6"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="C9" s="6"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="C10" s="6"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="C11" s="6"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="C12" s="6"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="C13" s="6"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="C14" s="6"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="C15" s="6"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="C16" s="6"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17" s="6"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" s="6"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" s="5"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="C21" s="6"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22" s="6"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="C23" s="6"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="C24" s="5"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="C25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6">
+      <c r="C26" s="7"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="3:6">
+      <c r="C27" s="7"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="3:6">
+      <c r="C28" s="7"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="3:6">
+      <c r="C29" s="7"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="3:6">
+      <c r="C30" s="7"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="3:6">
+      <c r="C31" s="7"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="3:6">
+      <c r="C32" s="7"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="C33" s="7"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="3:6">
+      <c r="C34" s="7"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="3:6">
+      <c r="C35" s="7"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="3:6">
+      <c r="C36" s="7"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="3:6">
+      <c r="C37" s="7"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="3:6">
+      <c r="C38" s="7"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="3:6">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="3:6">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="C26:C38"/>
+    <mergeCell ref="C4:C19"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="T205" sqref="T205"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3945,7 +4763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3953,23 +4771,7 @@
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3982,10 +4784,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3998,10 +4800,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4013,14 +4815,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/spring.xlsx
+++ b/spring.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\github\wl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JAVA\work\github\wl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="225" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="225"/>
   </bookViews>
   <sheets>
-    <sheet name="invoke" sheetId="7" r:id="rId1"/>
-    <sheet name="IOC" sheetId="1" r:id="rId2"/>
-    <sheet name="BeanRegistry" sheetId="5" r:id="rId3"/>
-    <sheet name="other" sheetId="4" r:id="rId4"/>
-    <sheet name="FactoryBean" sheetId="3" r:id="rId5"/>
-    <sheet name="Aware" sheetId="2" r:id="rId6"/>
-    <sheet name="MVC" sheetId="6" r:id="rId7"/>
+    <sheet name="UML" sheetId="8" r:id="rId1"/>
+    <sheet name="invoke" sheetId="7" r:id="rId2"/>
+    <sheet name="IOC" sheetId="1" r:id="rId3"/>
+    <sheet name="BeanRegistry" sheetId="5" r:id="rId4"/>
+    <sheet name="other" sheetId="4" r:id="rId5"/>
+    <sheet name="FactoryBean" sheetId="3" r:id="rId6"/>
+    <sheet name="Aware" sheetId="2" r:id="rId7"/>
+    <sheet name="MVC" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -159,8 +160,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,10 +274,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -303,6 +304,4978 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形: 剪去顶角 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95E15875-D3FF-423C-81C3-8810878762FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="5267325"/>
+          <a:ext cx="1371600" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形: 圆角 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE72AFDD-F2C5-4459-A303-182244F8D972}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5314951" y="6581775"/>
+          <a:ext cx="1352550" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ApplicationContext</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C42014-EF19-4E90-A054-1B182F6B748A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="6010275"/>
+          <a:ext cx="1495425" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形: 圆角 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88B55E0F-9097-4C98-B3F8-05C544A730B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1152525" y="4876800"/>
+          <a:ext cx="1438275" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>EnvironmentCapable</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形: 圆角 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2295367-659C-4CFF-B01D-D94182207F14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5686426" y="3495675"/>
+          <a:ext cx="1428750" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ListableBeanFactory</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形: 圆角 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{899A0720-AB99-4722-BCDB-486EE642846D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7400925" y="3495675"/>
+          <a:ext cx="1647825" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>HierarchicalBeanFactory</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矩形: 圆角 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62C28AC4-7A6C-4636-A721-480688A5E5A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1409701" y="6410325"/>
+          <a:ext cx="1143000" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MessageSource</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矩形: 圆角 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{579E860A-DABF-4FED-A773-20942E9480F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876300" y="4276725"/>
+          <a:ext cx="1733550" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ApplicationEventPublisher</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="矩形: 圆角 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2099BF60-4FF9-44B0-B48E-C074393D4795}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15592425" y="4610100"/>
+          <a:ext cx="1714500" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ResourcePatternResolver</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直接箭头连接符 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E690217C-9601-4818-90B2-5E8C08D9F785}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2590800" y="6805613"/>
+          <a:ext cx="2724151" cy="1009650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直接箭头连接符 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F3A8038-1C17-45AF-8F60-51C4DC14CF99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5991226" y="3943350"/>
+          <a:ext cx="409575" cy="2638425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>681038</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直接箭头连接符 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70DE70DE-15EF-4A80-A976-676DB8D07C51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5991226" y="3943350"/>
+          <a:ext cx="2233612" cy="2638425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直接箭头连接符 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABC8E1E3-324F-46FD-B2E7-85ED9B86CE1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2552701" y="6548438"/>
+          <a:ext cx="2762250" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直接箭头连接符 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08391340-1786-4E40-9203-CEBAAFA94CE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="3"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2609850" y="6805613"/>
+          <a:ext cx="2705101" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直接箭头连接符 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C12DA565-88C0-432A-99E5-E5CC446BFA28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="1"/>
+          <a:endCxn id="3" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6667501" y="6805613"/>
+          <a:ext cx="8924924" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直接箭头连接符 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB151931-AD4E-4C5E-B8B0-537D2D01AA37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="9105900"/>
+          <a:ext cx="1552575" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="矩形: 圆角 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7553116D-0ACB-43B2-A0AA-D56C860F30EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15897225" y="5695950"/>
+          <a:ext cx="1171575" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ResourceLoader</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直接箭头连接符 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9D44829-8E29-4927-A9EC-419A44F2A93A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="47" idx="0"/>
+          <a:endCxn id="10" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="16449675" y="5057775"/>
+          <a:ext cx="33338" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="矩形: 圆角 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F5181FA-4789-4D49-973A-043585405490}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6610350" y="2362200"/>
+          <a:ext cx="1047750" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>BeanFactory</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="直接箭头连接符 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FDDFF03-EEF4-495C-B1A7-F058235446BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="52" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6400801" y="2809875"/>
+          <a:ext cx="733424" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>681038</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直接箭头连接符 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94942A3A-B5CC-4669-ADA5-E11A6A67B3B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="52" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7134225" y="2809875"/>
+          <a:ext cx="1090613" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="矩形: 圆角 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F1573FE-0BF4-4BF7-B106-D882C504064A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9667875" y="3505200"/>
+          <a:ext cx="1952625" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AutowireCapableBeanFactory</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="矩形: 圆角 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4258E007-4881-4255-8928-DBE5A568A05A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3886200" y="3533775"/>
+          <a:ext cx="1562100" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SimpleJndiBeanFactory</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直接箭头连接符 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF4AA2D7-6FE7-43D0-B613-3D9D61C5FD6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="52" idx="2"/>
+          <a:endCxn id="63" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4667250" y="2809875"/>
+          <a:ext cx="2466975" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="直接箭头连接符 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57E7A432-60E4-46D0-B1E3-4568C733834E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="52" idx="2"/>
+          <a:endCxn id="61" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7134225" y="2809875"/>
+          <a:ext cx="3509963" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="矩形: 圆角 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB6DC0C0-6D7B-479B-82A2-1294D7AAF38D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3581400" y="8191500"/>
+          <a:ext cx="2057400" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ConfigurableApplicationContext</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="矩形: 圆角 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0D5235B-69AB-4671-AD91-C8104CDF0668}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6924676" y="8134350"/>
+          <a:ext cx="1619250" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>WebApplicationContext</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="直接箭头连接符 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABA6332F-E664-44C1-91B7-E60D617D5B10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="90" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4610100" y="7029450"/>
+          <a:ext cx="1381126" cy="1162050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="直接箭头连接符 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D18C9002-6F7C-4895-8332-0CC2437255DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="91" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5991226" y="7029450"/>
+          <a:ext cx="1743075" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="矩形: 圆角 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0049CA95-814A-4FF0-A995-9F16D32930FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5372099" y="9163050"/>
+          <a:ext cx="2390775" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ConfigurableWebApplicationContext</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>395287</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="112" name="直接箭头连接符 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B970B05-9703-44FF-B80D-BB547DA8F08A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="91" idx="2"/>
+          <a:endCxn id="111" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6567487" y="8582025"/>
+          <a:ext cx="1166814" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>395287</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="116" name="直接箭头连接符 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E0AC417-D6C7-44E2-BEA7-061051A47456}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="90" idx="2"/>
+          <a:endCxn id="111" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4610100" y="8639175"/>
+          <a:ext cx="1957387" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="矩形: 圆角 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CC23C70-7B2A-4E2E-89A2-1AD7FB23E94B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1809751" y="5505450"/>
+          <a:ext cx="762000" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Lifecycle</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="130" name="直接箭头连接符 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE1C02BA-0971-453F-B2AD-37B6CAB4106C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="129" idx="3"/>
+          <a:endCxn id="90" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2571751" y="8415338"/>
+          <a:ext cx="1009649" cy="28575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="218" name="矩形 217">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E177C91F-F96D-4BD1-B03B-870DD329FF99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4943475" y="13230225"/>
+          <a:ext cx="2133600" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>FileSystemXmlApplicationContext</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="219" name="矩形: 剪去顶角 218">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94724472-07CE-47F6-B17F-EFFAC7A84B63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6343649" y="12925425"/>
+          <a:ext cx="2085975" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AbstractXmlApplicationContext</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="220" name="矩形: 剪去顶角 219">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A37ADD7-F3E5-4F32-9B31-012978051F82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5934075" y="7915275"/>
+          <a:ext cx="2905125" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AbstractRefreshableConfigApplicationContext</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>638176</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="221" name="矩形: 剪去顶角 220">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79D30B0C-B987-4274-804F-0727AC0267C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6124576" y="9324975"/>
+          <a:ext cx="2533650" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AbstractRefreshableApplicationContext</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="222" name="矩形: 剪去顶角 221">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D16DDF9-B3AB-4F9B-8528-EE84EDEAF2DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6429375" y="8220075"/>
+          <a:ext cx="1866900" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AbstractApplicationContext</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="223" name="矩形 222">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D82ED435-94BA-4E32-926D-B3C92B78E387}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6572250" y="7753350"/>
+          <a:ext cx="1543050" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DefaultResourceLoader</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="230" name="直接箭头连接符 229">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33D5D3B3-2D4E-4951-9740-5FB62884E8E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="47" idx="2"/>
+          <a:endCxn id="223" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7343775" y="6143625"/>
+          <a:ext cx="9139238" cy="1609725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="245" name="矩形: 圆角 244">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{510C1918-1A03-4A8E-B10B-630CD3E0C9E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1295399" y="7924800"/>
+          <a:ext cx="1152525" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DisposableBean</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="246" name="直接箭头连接符 245">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22D06859-3300-4872-8929-BA139A9F03E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="245" idx="3"/>
+          <a:endCxn id="222" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2447924" y="8148638"/>
+          <a:ext cx="3981451" cy="1814512"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="249" name="直接箭头连接符 248">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ED65F91-C01C-4C1A-9B92-1AF54ABC1BFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="90" idx="2"/>
+          <a:endCxn id="222" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4610100" y="8639175"/>
+          <a:ext cx="1819275" cy="3314700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="253" name="直接箭头连接符 252">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C47B99CC-FBCC-4EA7-BB7E-CE5F355E2D6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="223" idx="2"/>
+          <a:endCxn id="222" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7343775" y="8353425"/>
+          <a:ext cx="19050" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="263" name="直接箭头连接符 262">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B718375-DA74-470A-991A-FC4446F97A94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="222" idx="1"/>
+          <a:endCxn id="221" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7362825" y="10258425"/>
+          <a:ext cx="28576" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>528638</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="266" name="直接箭头连接符 265">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A8A1D98-90F8-44ED-9779-692D487B9F3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="221" idx="1"/>
+          <a:endCxn id="220" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7386638" y="11363325"/>
+          <a:ext cx="4763" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="269" name="矩形: 圆角 268">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DC55EEC-ADA0-4E2C-A444-F6734282D33F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1295400" y="9658350"/>
+          <a:ext cx="1247775" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>BeanNameAware</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="270" name="直接箭头连接符 269">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77045E4E-0DA0-4043-86C8-91F5EA1585B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="269" idx="3"/>
+          <a:endCxn id="220" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2543175" y="9882188"/>
+          <a:ext cx="3390900" cy="2309812"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="273" name="矩形: 圆角 272">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C6BA6A9-2B58-458E-8833-95B3B8093E44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1600201" y="8772525"/>
+          <a:ext cx="628650" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Aware</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>547688</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="275" name="直接箭头连接符 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67E95CA3-0D71-4171-A97E-DFC00994C260}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="273" idx="2"/>
+          <a:endCxn id="269" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1914526" y="9220200"/>
+          <a:ext cx="4762" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="279" name="矩形: 圆角 278">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29DE0293-D941-4990-B5BC-42F38D4085A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1343026" y="10601325"/>
+          <a:ext cx="1123950" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>InitializingBean</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="280" name="直接箭头连接符 279">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A73D1B61-428A-476C-9DFC-517C9306D970}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="279" idx="3"/>
+          <a:endCxn id="220" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2466976" y="10825163"/>
+          <a:ext cx="3467099" cy="1366837"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>528637</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>528638</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="286" name="直接箭头连接符 285">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A2C0EEC-B9C2-4920-8BE6-C06019815892}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="220" idx="1"/>
+          <a:endCxn id="219" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7386637" y="12487275"/>
+          <a:ext cx="1" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>528637</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="290" name="直接箭头连接符 289">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71687FD3-5A55-49A7-8AD4-EE4F72C1A158}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="219" idx="1"/>
+          <a:endCxn id="218" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6010275" y="12792075"/>
+          <a:ext cx="1376362" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="307" name="矩形 306">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0DAB50E-B184-487D-8CC0-12E6B0821AB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8639175" y="13239750"/>
+          <a:ext cx="2047875" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ClassPathXmlApplicationContext</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>528637</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>61913</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="308" name="直接箭头连接符 307">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8A9AC07-4D5C-4291-A93D-4FAE300002B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="219" idx="1"/>
+          <a:endCxn id="307" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7386637" y="12792075"/>
+          <a:ext cx="2276476" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="349" name="矩形: 剪去顶角 348">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D005BAE-B7C7-45F4-8CAC-532CA08CBCED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12887325" y="6191250"/>
+          <a:ext cx="2476500" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AbstractAutowireCapableBeanFactory</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>681038</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="351" name="直接箭头连接符 350">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC9E6F73-9A5C-4249-A3F0-B7CFC3A747EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="501" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6400801" y="3943350"/>
+          <a:ext cx="1824037" cy="1800225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>681038</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="354" name="直接箭头连接符 353">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F77B0B39-580C-4052-BA80-82EF2F997560}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="61" idx="2"/>
+          <a:endCxn id="501" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8224838" y="3952875"/>
+          <a:ext cx="2419350" cy="1790700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="357" name="矩形: 圆角 356">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0CF8657-FBE9-4CDD-B60C-D6BCB06DA218}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13392149" y="3829050"/>
+          <a:ext cx="1514475" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SingletonBeanRegistry</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="386" name="矩形: 圆角 385">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C0D6949-4AEC-413C-B37F-DF8FC4460078}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9639300" y="4829176"/>
+          <a:ext cx="1952625" cy="228599"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ConfigurableBeanFactory</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>681038</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="387" name="直接箭头连接符 386">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{847580BC-7DBC-4F4C-8DF4-D2E263145EEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="386" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8224838" y="3943350"/>
+          <a:ext cx="2390775" cy="885826"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>433387</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="390" name="直接箭头连接符 389">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2F54EF4-C21E-4994-970C-51CCEE198312}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="357" idx="2"/>
+          <a:endCxn id="386" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10615613" y="4105275"/>
+          <a:ext cx="3533774" cy="723901"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>681038</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="424" name="直接箭头连接符 423">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38BE21D3-7362-4403-9468-9D5B64C54F49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="386" idx="2"/>
+          <a:endCxn id="501" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8224838" y="5057775"/>
+          <a:ext cx="2390775" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="481" name="直接箭头连接符 480">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2FC89DA-5B16-4969-8375-F3528B01A691}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="61" idx="2"/>
+          <a:endCxn id="349" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10644188" y="3952875"/>
+          <a:ext cx="2243137" cy="2400300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="501" name="矩形: 圆角 500">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{114DFEE6-6A41-45A4-AFBC-AB0C4953BFE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7162800" y="5743575"/>
+          <a:ext cx="2124075" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ConfigurableListableBeanFactory</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="542" name="矩形: 剪去顶角 541">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AACA730A-4E51-4329-9DF4-E497476487DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13382625" y="5495925"/>
+          <a:ext cx="1495425" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AbstractBeanFactory</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="549" name="矩形: 圆角 548">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A8C7A5A-9B5A-48D6-B14F-1E50204DCA32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15887700" y="2914650"/>
+          <a:ext cx="1038225" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AliasRegistry</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="551" name="矩形 550">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F30B862D-22E8-487B-8D4B-CCE0F0F104AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15811500" y="3505200"/>
+          <a:ext cx="1323975" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SimpleAliasRegistry</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="552" name="矩形 551">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{215158FE-1407-4446-8A80-C678C35471FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15573376" y="4219575"/>
+          <a:ext cx="1885950" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DefaultSingletonBeanRegistry</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>14288</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="553" name="直接箭头连接符 552">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6CF9298-D9E5-4837-B30B-28BFE43ABD84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="551" idx="2"/>
+          <a:endCxn id="552" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16473488" y="3838575"/>
+          <a:ext cx="42863" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>633413</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>14288</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="559" name="直接箭头连接符 558">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA2CE6AC-3634-4527-A850-1C2713725801}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="549" idx="2"/>
+          <a:endCxn id="551" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16406813" y="3190875"/>
+          <a:ext cx="66675" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>433387</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="568" name="直接箭头连接符 567">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F97DACE-3A39-4DA4-B31B-91651A9A19E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="357" idx="2"/>
+          <a:endCxn id="552" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14149387" y="4105275"/>
+          <a:ext cx="1423989" cy="280988"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="573" name="矩形: 剪去顶角 572">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62A4178C-02B3-411F-B40C-D386AA75CC92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15582901" y="4914900"/>
+          <a:ext cx="1866900" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>FactoryBeanRegistrySupport</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="574" name="直接箭头连接符 573">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{442C9B50-8A48-4713-9AAF-B3B6A163F89E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="552" idx="2"/>
+          <a:endCxn id="573" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16516351" y="4552950"/>
+          <a:ext cx="0" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>414338</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="579" name="直接箭头连接符 578">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64830A96-C14E-4C0E-8D0D-8F8312937299}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="573" idx="1"/>
+          <a:endCxn id="542" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14130338" y="5238750"/>
+          <a:ext cx="2386013" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="603" name="直接箭头连接符 602">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{830AFAB3-9958-4492-9766-DBA981BDF65D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="386" idx="2"/>
+          <a:endCxn id="542" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10615613" y="5057775"/>
+          <a:ext cx="2767012" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>414338</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="622" name="直接箭头连接符 621">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62F32B22-58AF-4276-99A9-7093856CD2A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="542" idx="1"/>
+          <a:endCxn id="349" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14125575" y="5819775"/>
+          <a:ext cx="4763" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -319,7 +5292,7 @@
         <xdr:cNvPr id="3" name="矩形: 剪去顶角 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D4C1C87-A8C9-40E1-8FF6-3FBDA8F5ADC4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -394,7 +5367,7 @@
         <xdr:cNvPr id="15" name="矩形: 剪去顶角 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D0A0FF47-3F5E-4B80-BD20-7F8DBFF971A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -469,7 +5442,7 @@
         <xdr:cNvPr id="16" name="矩形: 剪去顶角 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C89AA886-4968-4344-B131-B7DF4D9A76CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -543,7 +5516,7 @@
         <xdr:cNvPr id="17" name="矩形: 剪去顶角 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{516D1AB6-78BC-47B9-A38B-640C374D47F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -617,7 +5590,7 @@
         <xdr:cNvPr id="30" name="直接箭头连接符 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB4EB606-CE96-48F5-A017-F6B6A9C61C32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -673,7 +5646,7 @@
         <xdr:cNvPr id="33" name="直接箭头连接符 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CD9CB335-5E4F-467B-B0D3-30D33011B8CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -729,7 +5702,7 @@
         <xdr:cNvPr id="34" name="直接箭头连接符 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6274B23A-410D-4349-A24D-F3CE51D48CEA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -785,7 +5758,7 @@
         <xdr:cNvPr id="64" name="矩形: 剪去顶角 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B6CBA805-E9FD-4EC6-8E6A-F199C5BB2F2B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -859,7 +5832,7 @@
         <xdr:cNvPr id="68" name="直接箭头连接符 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A103A99E-8881-4E75-AA3F-BB81DDFC0148}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000044000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -915,7 +5888,7 @@
         <xdr:cNvPr id="74" name="矩形: 剪去顶角 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A2B8A41-43AA-447F-8928-E2944A29A186}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -992,7 +5965,7 @@
         <xdr:cNvPr id="75" name="直接箭头连接符 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EEEE5A5F-7527-47AB-A05F-C8B28D657D76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1048,7 +6021,7 @@
         <xdr:cNvPr id="78" name="直接箭头连接符 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0CD230F6-94AA-43DE-91F3-2B1694F1BFE5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1104,7 +6077,7 @@
         <xdr:cNvPr id="79" name="直接箭头连接符 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{024FEFB5-818D-48A2-8239-ABF8593AFA89}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1160,7 +6133,7 @@
         <xdr:cNvPr id="93" name="矩形: 剪去顶角 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD0E62D1-0B84-474D-939D-E526B40D6846}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1234,7 +6207,7 @@
         <xdr:cNvPr id="94" name="直接箭头连接符 93">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A680446C-B4C0-4DD1-990B-5A2B5FF46CB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1290,7 +6263,7 @@
         <xdr:cNvPr id="98" name="矩形: 剪去顶角 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C0E222EA-3A60-4D85-B577-6AF2A6AF5717}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000062000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1364,7 +6337,7 @@
         <xdr:cNvPr id="99" name="直接箭头连接符 98">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{54918266-DAFE-4DB5-A86F-59481F615AEF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000063000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1420,7 +6393,7 @@
         <xdr:cNvPr id="102" name="直接箭头连接符 101">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F3A3C0D1-52C1-4DAB-BBC0-762765394DA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000066000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1476,7 +6449,7 @@
         <xdr:cNvPr id="110" name="矩形 109">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7FCF475C-E6CE-449B-8E5A-890203C5E411}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1547,7 +6520,7 @@
         <xdr:cNvPr id="111" name="直接箭头连接符 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C798671A-E2EA-4916-9BFD-1B3FAFA848F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1603,7 +6576,7 @@
         <xdr:cNvPr id="115" name="直接箭头连接符 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F2E47CB-6158-4AD9-BFF0-C235CB2BE97C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000073000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1659,7 +6632,7 @@
         <xdr:cNvPr id="120" name="矩形 119">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E94C32DA-CEA1-4C0C-A924-5BF1EF6B3A0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000078000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1730,7 +6703,7 @@
         <xdr:cNvPr id="121" name="直接箭头连接符 120">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8422EA51-5901-43A3-BA50-C49D0AAD6292}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000079000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1786,7 +6759,7 @@
         <xdr:cNvPr id="63" name="图片 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2C0FC23-3791-482D-91E0-5AA7FDF7170D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1830,7 +6803,7 @@
         <xdr:cNvPr id="65" name="图片 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F7035A4-4C3A-479A-B05B-435553E5EAF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000041000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1874,7 +6847,7 @@
         <xdr:cNvPr id="66" name="图片 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E2A2E53-C453-4871-8264-413B8F59AAF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1915,7 +6888,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="图片 30"/>
+        <xdr:cNvPr id="31" name="图片 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1953,7 +6932,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="图片 31"/>
+        <xdr:cNvPr id="32" name="图片 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1991,7 +6976,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2029,7 +7020,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2067,7 +7064,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2105,7 +7108,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2143,7 +7152,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2169,7 +7184,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2189,7 +7204,7 @@
         <xdr:cNvPr id="2" name="矩形: 剪去顶角 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BA86175E-B6E2-4132-953C-52DDC73E1C1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2249,7 +7264,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2269,7 +7284,7 @@
         <xdr:cNvPr id="2" name="流程图: 可选过程 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA489F67-CEBB-4A09-ACEB-D32F65C649C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2343,7 +7358,7 @@
         <xdr:cNvPr id="3" name="矩形: 剪去顶角 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D33C49B0-2D2C-4573-9D57-3B481EA39F8D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2414,7 +7429,7 @@
         <xdr:cNvPr id="4" name="矩形: 剪去顶角 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9BA61AB-4BBE-4D33-8CAD-024EF27BBC6D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2485,7 +7500,7 @@
         <xdr:cNvPr id="5" name="矩形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64B2C937-EBD3-438E-B500-434ED86B0235}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2556,7 +7571,7 @@
         <xdr:cNvPr id="6" name="矩形: 剪去顶角 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82127252-FD7A-45D2-AFEB-52C48440D583}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2630,7 +7645,7 @@
         <xdr:cNvPr id="7" name="矩形: 剪去顶角 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{676EFC04-0A90-49D3-9ACE-666280FC087B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2704,7 +7719,7 @@
         <xdr:cNvPr id="8" name="矩形: 剪去顶角 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D1C69AD3-B11A-43E6-A518-8EC868F9F3D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2778,7 +7793,7 @@
         <xdr:cNvPr id="9" name="直接箭头连接符 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{50A022B7-FAB1-404D-A13B-AEA10914BDF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2834,7 +7849,7 @@
         <xdr:cNvPr id="10" name="矩形: 剪去顶角 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CDD206B9-B7EF-4899-A313-BF1C57F6E362}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2893,7 +7908,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2913,7 +7928,7 @@
         <xdr:cNvPr id="2" name="矩形: 剪去顶角 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{03FE7E64-50D1-4FAE-B836-51CB64F204C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2987,7 +8002,7 @@
         <xdr:cNvPr id="3" name="矩形: 剪去顶角 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8B77736E-5459-4263-97BF-97A370D923B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3061,7 +8076,7 @@
         <xdr:cNvPr id="4" name="直接箭头连接符 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E5BF3FFC-04F3-4B17-BB28-D6B1953FE230}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3102,7 +8117,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3122,7 +8137,7 @@
         <xdr:cNvPr id="2" name="矩形: 剪去顶角 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E522362F-254A-45BA-9EA7-AA80E7B211BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3193,7 +8208,7 @@
         <xdr:cNvPr id="3" name="矩形: 剪去顶角 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D926EE8C-1257-406D-8B89-62E065925931}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3264,7 +8279,7 @@
         <xdr:cNvPr id="4" name="矩形: 剪去顶角 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C2538275-4B10-4969-BDDE-8ABF806B41E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3335,7 +8350,7 @@
         <xdr:cNvPr id="5" name="矩形: 剪去顶角 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2C3BEAE-C28D-4C46-A7FF-06FAD2410EF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3406,7 +8421,7 @@
         <xdr:cNvPr id="6" name="矩形: 剪去顶角 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{77D1CE33-625E-403A-AE8A-E01BBD36D54C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3477,7 +8492,7 @@
         <xdr:cNvPr id="7" name="直接箭头连接符 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{289FA419-EC4B-48A6-B540-34A73B24955F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3533,7 +8548,7 @@
         <xdr:cNvPr id="8" name="直接箭头连接符 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5AE68520-BB30-40AD-B811-EE3B25895DE0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3589,7 +8604,7 @@
         <xdr:cNvPr id="9" name="直接箭头连接符 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{465A6DE1-4580-45C9-91D6-858DC5419578}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3645,7 +8660,7 @@
         <xdr:cNvPr id="10" name="直接箭头连接符 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A1C9038-4E55-4955-9879-7FD0FF014323}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3686,7 +8701,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3706,7 +8721,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C88FDA8-A424-45D0-BEC5-20568E3EBCDA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3750,7 +8765,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4EC91015-BF42-43A6-A36A-74470CC68069}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3794,7 +8809,7 @@
         <xdr:cNvPr id="4" name="矩形: 剪去顶角 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{09C50829-A440-48C2-99B6-89482A99B559}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3868,7 +8883,7 @@
         <xdr:cNvPr id="6" name="矩形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D4C7C9F-50CC-4A87-9644-860B94E9315E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3939,7 +8954,7 @@
         <xdr:cNvPr id="8" name="直接箭头连接符 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DDD58563-EF76-4117-9EE3-60C2B8D2BDED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3995,7 +9010,7 @@
         <xdr:cNvPr id="9" name="直接箭头连接符 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD1A9B7E-B89C-4AB3-AE3A-D8B3991766E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4051,7 +9066,7 @@
         <xdr:cNvPr id="21" name="矩形 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B1D9C73-C7A9-490B-B204-7A7F99F606F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4405,13 +9420,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="5.75" style="3" customWidth="1"/>
     <col min="3" max="3" width="41.625" style="3" bestFit="1" customWidth="1"/>
@@ -4421,7 +9453,7 @@
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
@@ -4438,7 +9470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -4451,7 +9483,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -4464,16 +9496,16 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="2:6">
-      <c r="C5" s="6"/>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C5" s="5"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="2:6">
-      <c r="C6" s="6"/>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C6" s="5"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
         <v>6</v>
@@ -4482,111 +9514,111 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
-      <c r="C7" s="6"/>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C7" s="5"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="2:6">
-      <c r="C8" s="6"/>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C8" s="5"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="2:6">
-      <c r="C9" s="6"/>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C9" s="5"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="2:6">
-      <c r="C10" s="6"/>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C10" s="5"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="2:6">
-      <c r="C11" s="6"/>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C11" s="5"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="2:6">
-      <c r="C12" s="6"/>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C12" s="5"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="2:6">
-      <c r="C13" s="6"/>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C13" s="5"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="2:6">
-      <c r="C14" s="6"/>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C14" s="5"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="2:6">
-      <c r="C15" s="6"/>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C15" s="5"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="2:6">
-      <c r="C16" s="6"/>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C16" s="5"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="3:6">
-      <c r="C17" s="6"/>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C17" s="5"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="3:6">
-      <c r="C18" s="6"/>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C18" s="5"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="3:6">
-      <c r="C19" s="5"/>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C19" s="6"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="3:6">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C20" s="4" t="s">
         <v>8</v>
       </c>
@@ -4596,8 +9628,8 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="3:6">
-      <c r="C21" s="6"/>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C21" s="5"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
         <v>14</v>
@@ -4606,8 +9638,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="3:6">
-      <c r="C22" s="6"/>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C22" s="5"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
         <v>9</v>
@@ -4616,23 +9648,23 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="3:6">
-      <c r="C23" s="6"/>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C23" s="5"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="3:6">
-      <c r="C24" s="5"/>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C24" s="6"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="3:6">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
@@ -4644,91 +9676,91 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="3:6">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C26" s="7"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="3:6">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C27" s="7"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="3:6">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C28" s="7"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="3:6">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C29" s="7"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="3:6">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C30" s="7"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="3:6">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C31" s="7"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="3:6">
+    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C32" s="7"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="3:6">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C33" s="7"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="3:6">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C34" s="7"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="3:6">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C35" s="7"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="3:6">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C36" s="7"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="3:6">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C37" s="7"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="3:6">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C38" s="7"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="3:6">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="3:6">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -4746,15 +9778,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="T205" sqref="T205"/>
+    <sheetView topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="P204" sqref="P204"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4763,7 +9795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4771,23 +9803,7 @@
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4800,10 +9816,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4816,10 +9832,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4831,11 +9847,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/spring.xlsx
+++ b/spring.xlsx
@@ -364,16 +364,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>514351</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -388,8 +388,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5314951" y="6581775"/>
-          <a:ext cx="1352550" cy="447675"/>
+          <a:off x="4524376" y="8172450"/>
+          <a:ext cx="1352550" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -495,16 +495,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -519,8 +519,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1152525" y="4876800"/>
-          <a:ext cx="1438275" cy="447675"/>
+          <a:off x="2171700" y="7591425"/>
+          <a:ext cx="1438275" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -566,16 +566,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>200026</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>257176</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>638176</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -590,8 +590,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5686426" y="3495675"/>
-          <a:ext cx="1428750" cy="447675"/>
+          <a:off x="4010026" y="3733800"/>
+          <a:ext cx="1428750" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -637,16 +637,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -661,8 +661,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7400925" y="3495675"/>
-          <a:ext cx="1647825" cy="447675"/>
+          <a:off x="5762625" y="3743326"/>
+          <a:ext cx="1647825" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -708,16 +708,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -732,8 +732,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1409701" y="6410325"/>
-          <a:ext cx="1143000" cy="276225"/>
+          <a:off x="3771901" y="7496176"/>
+          <a:ext cx="1143000" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -779,16 +779,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -803,8 +803,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="876300" y="4276725"/>
-          <a:ext cx="1733550" cy="447675"/>
+          <a:off x="5410200" y="7448551"/>
+          <a:ext cx="1714500" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -850,16 +850,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -874,8 +874,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15592425" y="4610100"/>
-          <a:ext cx="1714500" cy="447675"/>
+          <a:off x="7677150" y="7467600"/>
+          <a:ext cx="1714500" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -921,16 +921,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>109538</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>147638</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>514351</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>33338</xdr:rowOff>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -942,14 +942,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="3"/>
-          <a:endCxn id="3" idx="1"/>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2590800" y="6805613"/>
-          <a:ext cx="2724151" cy="1009650"/>
+        <a:xfrm>
+          <a:off x="2890838" y="7867650"/>
+          <a:ext cx="2309813" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -977,16 +977,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>504826</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1003,9 +1003,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5991226" y="3943350"/>
-          <a:ext cx="409575" cy="2638425"/>
+        <a:xfrm>
+          <a:off x="4724401" y="3971925"/>
+          <a:ext cx="476250" cy="4200525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1033,16 +1033,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>504826</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>681038</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1054,14 +1054,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="2"/>
+          <a:stCxn id="7" idx="1"/>
           <a:endCxn id="3" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5991226" y="3943350"/>
-          <a:ext cx="2233612" cy="2638425"/>
+          <a:off x="5200651" y="3876676"/>
+          <a:ext cx="561974" cy="4295774"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1089,16 +1089,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>33338</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>514351</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>109538</xdr:rowOff>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1110,14 +1110,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="3"/>
-          <a:endCxn id="3" idx="1"/>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2552701" y="6548438"/>
-          <a:ext cx="2762250" cy="257175"/>
+          <a:off x="4343401" y="7762876"/>
+          <a:ext cx="857250" cy="409574"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1145,16 +1145,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>109538</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>514351</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>157163</xdr:rowOff>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1166,14 +1166,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="9" idx="3"/>
-          <a:endCxn id="3" idx="1"/>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2609850" y="6805613"/>
-          <a:ext cx="2705101" cy="409575"/>
+        <a:xfrm flipH="1">
+          <a:off x="5200651" y="7715251"/>
+          <a:ext cx="1066799" cy="457199"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1201,16 +1201,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>109538</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1222,14 +1222,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="10" idx="1"/>
-          <a:endCxn id="3" idx="3"/>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6667501" y="6805613"/>
-          <a:ext cx="8924924" cy="742950"/>
+        <a:xfrm flipH="1">
+          <a:off x="5200651" y="7715250"/>
+          <a:ext cx="3333749" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1310,16 +1310,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1334,8 +1334,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15897225" y="5695950"/>
-          <a:ext cx="1171575" cy="447675"/>
+          <a:off x="7943850" y="9058276"/>
+          <a:ext cx="1171575" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1381,16 +1381,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>300038</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>23813</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1407,9 +1407,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="16449675" y="5057775"/>
-          <a:ext cx="33338" cy="638175"/>
+        <a:xfrm flipV="1">
+          <a:off x="8529638" y="7715250"/>
+          <a:ext cx="4762" cy="1343026"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1438,15 +1438,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1461,8 +1461,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6610350" y="2362200"/>
-          <a:ext cx="1047750" cy="447675"/>
+          <a:off x="6324600" y="2971800"/>
+          <a:ext cx="1047750" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1508,16 +1508,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1535,8 +1535,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6400801" y="2809875"/>
-          <a:ext cx="733424" cy="685800"/>
+          <a:off x="4724401" y="3257550"/>
+          <a:ext cx="2124074" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1564,16 +1564,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>681038</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>414338</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1590,9 +1590,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7134225" y="2809875"/>
-          <a:ext cx="1090613" cy="685800"/>
+        <a:xfrm flipH="1">
+          <a:off x="6586538" y="3257550"/>
+          <a:ext cx="261937" cy="485776"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1620,16 +1620,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1644,8 +1644,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9667875" y="3505200"/>
-          <a:ext cx="1952625" cy="447675"/>
+          <a:off x="7639050" y="3743325"/>
+          <a:ext cx="1952625" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1691,14 +1691,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1715,8 +1715,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3886200" y="3533775"/>
-          <a:ext cx="1562100" cy="447675"/>
+          <a:off x="2066925" y="3724275"/>
+          <a:ext cx="1562100" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1762,16 +1762,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1789,8 +1789,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4667250" y="2809875"/>
-          <a:ext cx="2466975" cy="723900"/>
+          <a:off x="2847975" y="3257550"/>
+          <a:ext cx="4000500" cy="466725"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1818,16 +1818,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>357188</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>385763</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1845,8 +1845,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7134225" y="2809875"/>
-          <a:ext cx="3509963" cy="695325"/>
+          <a:off x="6848475" y="3257550"/>
+          <a:ext cx="1766888" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1874,16 +1874,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1898,8 +1898,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3581400" y="8191500"/>
-          <a:ext cx="2057400" cy="447675"/>
+          <a:off x="3200400" y="9058275"/>
+          <a:ext cx="2057400" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1945,16 +1945,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>314326</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>638176</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1969,8 +1969,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6924676" y="8134350"/>
-          <a:ext cx="1619250" cy="447675"/>
+          <a:off x="5876926" y="9029700"/>
+          <a:ext cx="1619250" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2017,15 +2017,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>504826</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2043,8 +2043,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4610100" y="7029450"/>
-          <a:ext cx="1381126" cy="1162050"/>
+          <a:off x="4229100" y="8429625"/>
+          <a:ext cx="971551" cy="628650"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2072,16 +2072,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>504826</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2099,8 +2099,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5991226" y="7029450"/>
-          <a:ext cx="1743075" cy="1104900"/>
+          <a:off x="5200651" y="8429625"/>
+          <a:ext cx="1485900" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2128,16 +2128,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>219074</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2152,8 +2152,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5372099" y="9163050"/>
-          <a:ext cx="2390775" cy="447675"/>
+          <a:off x="4676775" y="9639300"/>
+          <a:ext cx="2324100" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2199,16 +2199,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>395287</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2226,8 +2226,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6567487" y="8582025"/>
-          <a:ext cx="1166814" cy="581025"/>
+          <a:off x="5838825" y="9286875"/>
+          <a:ext cx="847726" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2256,15 +2256,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>395287</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2282,8 +2282,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4610100" y="8639175"/>
-          <a:ext cx="1957387" cy="523875"/>
+          <a:off x="4229100" y="9277350"/>
+          <a:ext cx="1609725" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2313,14 +2313,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>438151</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>514351</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2335,8 +2335,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1809751" y="5505450"/>
-          <a:ext cx="762000" cy="447675"/>
+          <a:off x="1809751" y="9067800"/>
+          <a:ext cx="762000" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2384,14 +2384,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>514351</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2409,8 +2409,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2571751" y="8415338"/>
-          <a:ext cx="1009649" cy="28575"/>
+          <a:off x="2571751" y="9167813"/>
+          <a:ext cx="628649" cy="28575"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2438,16 +2438,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2462,8 +2462,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4943475" y="13230225"/>
-          <a:ext cx="2133600" cy="600075"/>
+          <a:off x="3590925" y="13811251"/>
+          <a:ext cx="2133600" cy="228599"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2512,16 +2512,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2536,8 +2536,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6343649" y="12925425"/>
-          <a:ext cx="2085975" cy="590550"/>
+          <a:off x="4791074" y="13001625"/>
+          <a:ext cx="2085975" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="snip2SameRect">
           <a:avLst/>
@@ -2583,16 +2583,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2607,8 +2607,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5934075" y="7915275"/>
-          <a:ext cx="2905125" cy="590550"/>
+          <a:off x="4362450" y="12382500"/>
+          <a:ext cx="2905125" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="snip2SameRect">
           <a:avLst/>
@@ -2654,16 +2654,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>638176</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>428626</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2678,8 +2678,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6124576" y="9324975"/>
-          <a:ext cx="2533650" cy="590550"/>
+          <a:off x="4524376" y="11763375"/>
+          <a:ext cx="2533650" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="snip2SameRect">
           <a:avLst/>
@@ -2725,16 +2725,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2749,8 +2749,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6429375" y="8220075"/>
-          <a:ext cx="1866900" cy="590550"/>
+          <a:off x="4829175" y="11125200"/>
+          <a:ext cx="1866900" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="snip2SameRect">
           <a:avLst/>
@@ -2796,16 +2796,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2820,8 +2820,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6572250" y="7753350"/>
-          <a:ext cx="1543050" cy="600075"/>
+          <a:off x="4991100" y="10467976"/>
+          <a:ext cx="1543050" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2867,16 +2867,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>23813</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>300038</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2894,8 +2894,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7343775" y="6143625"/>
-          <a:ext cx="9139238" cy="1609725"/>
+          <a:off x="5762625" y="9324976"/>
+          <a:ext cx="2767013" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2923,16 +2923,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>390524</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2947,8 +2947,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1295399" y="7924800"/>
-          <a:ext cx="1152525" cy="447675"/>
+          <a:off x="1476374" y="10953750"/>
+          <a:ext cx="1152525" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2995,15 +2995,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>390524</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>4763</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3021,8 +3021,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2447924" y="8148638"/>
-          <a:ext cx="3981451" cy="1814512"/>
+          <a:off x="2628899" y="11053763"/>
+          <a:ext cx="2200276" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3051,15 +3051,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3077,8 +3077,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4610100" y="8639175"/>
-          <a:ext cx="1819275" cy="3314700"/>
+          <a:off x="4229100" y="9277350"/>
+          <a:ext cx="600075" cy="1976438"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3106,16 +3106,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3133,8 +3133,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7343775" y="8353425"/>
-          <a:ext cx="19050" cy="590550"/>
+          <a:off x="5762625" y="10677526"/>
+          <a:ext cx="0" cy="447674"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3162,16 +3162,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533401</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3189,8 +3189,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7362825" y="10258425"/>
-          <a:ext cx="28576" cy="514350"/>
+          <a:off x="5762625" y="11382375"/>
+          <a:ext cx="28576" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3218,16 +3218,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>528638</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533401</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3244,9 +3244,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7386638" y="11363325"/>
-          <a:ext cx="4763" cy="533400"/>
+        <a:xfrm>
+          <a:off x="5791201" y="12030075"/>
+          <a:ext cx="23812" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3275,15 +3275,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3298,8 +3298,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1295400" y="9658350"/>
-          <a:ext cx="1247775" cy="447675"/>
+          <a:off x="1323975" y="11991976"/>
+          <a:ext cx="1247775" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3346,15 +3346,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>109538</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3372,8 +3372,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2543175" y="9882188"/>
-          <a:ext cx="3390900" cy="2309812"/>
+          <a:off x="2571750" y="12106276"/>
+          <a:ext cx="1790700" cy="395287"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3402,15 +3402,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3425,8 +3425,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1600201" y="8772525"/>
-          <a:ext cx="628650" cy="447675"/>
+          <a:off x="1638301" y="11468101"/>
+          <a:ext cx="628650" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3473,15 +3473,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>542926</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>576263</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>547688</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3498,9 +3498,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1914526" y="9220200"/>
-          <a:ext cx="4762" cy="438150"/>
+        <a:xfrm flipH="1">
+          <a:off x="1947863" y="11677651"/>
+          <a:ext cx="4763" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3531,13 +3531,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>657226</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>409576</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3552,8 +3552,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1343026" y="10601325"/>
-          <a:ext cx="1123950" cy="447675"/>
+          <a:off x="1343026" y="12592051"/>
+          <a:ext cx="1123950" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3601,14 +3601,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>147638</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3625,9 +3625,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2466976" y="10825163"/>
-          <a:ext cx="3467099" cy="1366837"/>
+        <a:xfrm flipV="1">
+          <a:off x="2466976" y="12501563"/>
+          <a:ext cx="1895474" cy="214313"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3655,16 +3655,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>528637</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>528638</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3681,9 +3681,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7386637" y="12487275"/>
-          <a:ext cx="1" cy="438150"/>
+        <a:xfrm>
+          <a:off x="5815013" y="12620625"/>
+          <a:ext cx="19049" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3711,16 +3711,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>528637</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3738,8 +3738,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6010275" y="12792075"/>
-          <a:ext cx="1376362" cy="438150"/>
+          <a:off x="4657725" y="13211175"/>
+          <a:ext cx="1176337" cy="600076"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3767,16 +3767,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3791,8 +3791,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8639175" y="13239750"/>
-          <a:ext cx="2047875" cy="600075"/>
+          <a:off x="6124575" y="13773151"/>
+          <a:ext cx="2047875" cy="257174"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3841,16 +3841,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>528637</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>61913</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>290513</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3868,8 +3868,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7386637" y="12792075"/>
-          <a:ext cx="2276476" cy="447675"/>
+          <a:off x="5834062" y="13211175"/>
+          <a:ext cx="1314451" cy="561976"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3897,16 +3897,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3921,8 +3921,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12887325" y="6191250"/>
-          <a:ext cx="2476500" cy="323850"/>
+          <a:off x="11953875" y="5991225"/>
+          <a:ext cx="2428875" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="snip2SameRect">
           <a:avLst/>
@@ -3968,16 +3968,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>681038</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>42863</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3995,8 +3995,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6400801" y="3943350"/>
-          <a:ext cx="1824037" cy="1800225"/>
+          <a:off x="4724401" y="3971925"/>
+          <a:ext cx="2176462" cy="1628775"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4024,16 +4024,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>681038</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>357188</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>42863</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>385763</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4051,8 +4051,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8224838" y="3952875"/>
-          <a:ext cx="2419350" cy="1790700"/>
+          <a:off x="6900863" y="4019550"/>
+          <a:ext cx="1714500" cy="1581150"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4080,16 +4080,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>361949</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>504824</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4104,7 +4104,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13392149" y="3829050"/>
+          <a:off x="10182224" y="3905250"/>
           <a:ext cx="1514475" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4151,16 +4151,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4175,7 +4175,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9639300" y="4829176"/>
+          <a:off x="5772150" y="4448176"/>
           <a:ext cx="1952625" cy="228599"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4222,16 +4222,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>681038</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>328613</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>414338</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>576263</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4249,8 +4249,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8224838" y="3943350"/>
-          <a:ext cx="2390775" cy="885826"/>
+          <a:off x="6586538" y="4010026"/>
+          <a:ext cx="161925" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4278,16 +4278,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>328613</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>576263</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>433387</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4299,14 +4299,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="357" idx="2"/>
+          <a:stCxn id="357" idx="1"/>
           <a:endCxn id="386" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="10615613" y="4105275"/>
-          <a:ext cx="3533774" cy="723901"/>
+          <a:off x="6748463" y="4043363"/>
+          <a:ext cx="3433761" cy="404813"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4334,16 +4334,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>681038</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>576263</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>42863</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>328613</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4360,9 +4360,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="8224838" y="5057775"/>
-          <a:ext cx="2390775" cy="685800"/>
+        <a:xfrm>
+          <a:off x="6748463" y="4676775"/>
+          <a:ext cx="152400" cy="923925"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4390,16 +4390,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>357188</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>385763</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4417,8 +4417,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10644188" y="3952875"/>
-          <a:ext cx="2243137" cy="2400300"/>
+          <a:off x="8615363" y="4019550"/>
+          <a:ext cx="3338512" cy="2133600"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4446,16 +4446,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4470,7 +4470,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7162800" y="5743575"/>
+          <a:off x="5838825" y="5600700"/>
           <a:ext cx="2124075" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4518,16 +4518,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4542,7 +4542,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13382625" y="5495925"/>
+          <a:off x="12420600" y="5343525"/>
           <a:ext cx="1495425" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="snip2SameRect">
@@ -4589,16 +4589,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4613,7 +4613,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15887700" y="2914650"/>
+          <a:off x="13696950" y="2943225"/>
           <a:ext cx="1038225" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4660,16 +4660,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4684,7 +4684,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15811500" y="3505200"/>
+          <a:off x="12496800" y="3457575"/>
           <a:ext cx="1323975" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4734,16 +4734,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>485776</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>314326</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4758,8 +4758,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15573376" y="4219575"/>
-          <a:ext cx="1885950" cy="333375"/>
+          <a:off x="12211050" y="4114800"/>
+          <a:ext cx="1904999" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4808,16 +4808,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>14288</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>128588</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4835,8 +4835,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16473488" y="3838575"/>
-          <a:ext cx="42863" cy="381000"/>
+          <a:off x="13158788" y="3790950"/>
+          <a:ext cx="4762" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4864,16 +4864,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>633413</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>128588</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>14288</xdr:colOff>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>500063</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4890,9 +4890,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16406813" y="3190875"/>
-          <a:ext cx="66675" cy="314325"/>
+        <a:xfrm flipH="1">
+          <a:off x="13158788" y="3219450"/>
+          <a:ext cx="1057275" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4920,16 +4920,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>433387</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>485776</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>42863</xdr:rowOff>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4941,14 +4941,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="357" idx="2"/>
+          <a:stCxn id="357" idx="3"/>
           <a:endCxn id="552" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14149387" y="4105275"/>
-          <a:ext cx="1423989" cy="280988"/>
+          <a:off x="11696699" y="4043363"/>
+          <a:ext cx="514351" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4976,15 +4976,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>495301</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>28</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5000,7 +5000,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15582901" y="4914900"/>
+          <a:off x="12230101" y="4733925"/>
           <a:ext cx="1866900" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="snip2SameRect">
@@ -5047,15 +5047,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5074,8 +5074,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16516351" y="4552950"/>
-          <a:ext cx="0" cy="361950"/>
+          <a:off x="13163550" y="4448175"/>
+          <a:ext cx="1" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5103,16 +5103,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>414338</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>138113</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5129,9 +5129,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="14130338" y="5238750"/>
-          <a:ext cx="2386013" cy="257175"/>
+        <a:xfrm>
+          <a:off x="13163551" y="5057775"/>
+          <a:ext cx="4762" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5159,16 +5159,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>328613</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5180,14 +5180,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="386" idx="2"/>
+          <a:stCxn id="386" idx="3"/>
           <a:endCxn id="542" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10615613" y="5057775"/>
-          <a:ext cx="2767012" cy="600075"/>
+          <a:off x="7724775" y="4562476"/>
+          <a:ext cx="4695825" cy="942974"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5215,16 +5215,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>414338</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>138113</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>138113</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5241,9 +5241,381 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13168313" y="5667375"/>
+          <a:ext cx="0" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>638176</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="700" name="矩形 699">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F10523B5-8C9B-4766-9B60-E8F9220BFACF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12296776" y="6629400"/>
+          <a:ext cx="1771650" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DefaultListableBeanFactory</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>42863</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>638176</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="707" name="直接箭头连接符 706">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC3263DC-3213-43CD-BD8B-83C13CA7C27C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="501" idx="2"/>
+          <a:endCxn id="700" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6900863" y="5886450"/>
+          <a:ext cx="5395913" cy="909638"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>138113</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="710" name="直接箭头连接符 709">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B08C601F-1658-4085-BECB-81C2174A999B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="349" idx="1"/>
+          <a:endCxn id="700" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13168313" y="6315075"/>
+          <a:ext cx="14288" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="716" name="矩形 715">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C64CBC02-62F0-4206-8511-5988FF2059F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14706601" y="5991225"/>
+          <a:ext cx="1562100" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>BeanDefinitionRegistry</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>500063</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="718" name="直接箭头连接符 717">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9897452B-AD63-417A-B037-D49C165F84AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="549" idx="2"/>
+          <a:endCxn id="716" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14216063" y="3219450"/>
+          <a:ext cx="1271588" cy="2771775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="726" name="直接箭头连接符 725">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{667A3055-5446-4FAD-BE39-1CB32A2D0587}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="716" idx="2"/>
+          <a:endCxn id="700" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="14125575" y="5819775"/>
-          <a:ext cx="4763" cy="371475"/>
+          <a:off x="14068426" y="6324600"/>
+          <a:ext cx="1419225" cy="471488"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9422,8 +9794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/spring.xlsx
+++ b/spring.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JAVA\work\github\wl\"/>
@@ -306,13 +306,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -364,16 +364,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>409576</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>390526</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -388,12 +388,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4524376" y="8172450"/>
+          <a:off x="4972051" y="8543925"/>
           <a:ext cx="1352550" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -437,13 +440,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -525,6 +528,9 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -550,7 +556,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -558,7 +564,11 @@
             </a:rPr>
             <a:t>EnvironmentCapable</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -637,16 +647,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -661,7 +671,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5762625" y="3743326"/>
+          <a:off x="6181725" y="3714751"/>
           <a:ext cx="1647825" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -738,6 +748,9 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -763,7 +776,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -771,7 +784,11 @@
             </a:rPr>
             <a:t>MessageSource</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -779,16 +796,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -803,12 +820,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5410200" y="7448551"/>
+          <a:off x="5924550" y="7524751"/>
           <a:ext cx="1714500" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -834,7 +854,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -842,7 +862,11 @@
             </a:rPr>
             <a:t>ApplicationEventPublisher</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -851,15 +875,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -874,12 +898,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7677150" y="7467600"/>
+          <a:off x="8086725" y="7696200"/>
           <a:ext cx="1714500" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -927,10 +954,10 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>400051</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -949,7 +976,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2890838" y="7867650"/>
-          <a:ext cx="2309813" cy="304800"/>
+          <a:ext cx="2757488" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -983,10 +1010,10 @@
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>400051</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1005,7 +1032,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4724401" y="3971925"/>
-          <a:ext cx="476250" cy="4200525"/>
+          <a:ext cx="923925" cy="4572000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1033,16 +1060,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>400051</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1060,8 +1087,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5200651" y="3876676"/>
-          <a:ext cx="561974" cy="4295774"/>
+          <a:off x="5648326" y="3848101"/>
+          <a:ext cx="533399" cy="4695824"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1095,10 +1122,10 @@
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>400051</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1117,7 +1144,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4343401" y="7762876"/>
-          <a:ext cx="857250" cy="409574"/>
+          <a:ext cx="1304925" cy="781049"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1145,16 +1172,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>400051</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1172,8 +1199,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5200651" y="7715251"/>
-          <a:ext cx="1066799" cy="457199"/>
+          <a:off x="5648326" y="7791451"/>
+          <a:ext cx="1133474" cy="752474"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1201,16 +1228,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>400051</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1228,8 +1255,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5200651" y="7715250"/>
-          <a:ext cx="3333749" cy="457200"/>
+          <a:off x="5648326" y="7943850"/>
+          <a:ext cx="3295649" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1259,13 +1286,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1310,16 +1337,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1334,12 +1361,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7943850" y="9058276"/>
+          <a:off x="9601200" y="7115176"/>
           <a:ext cx="1171575" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1381,72 +1411,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>300038</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="直接箭头连接符 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9D44829-8E29-4927-A9EC-419A44F2A93A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="47" idx="0"/>
-          <a:endCxn id="10" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8529638" y="7715250"/>
-          <a:ext cx="4762" cy="1343026"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1461,7 +1435,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6324600" y="2971800"/>
+          <a:off x="5514975" y="3019425"/>
           <a:ext cx="1047750" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1511,11 +1485,11 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>609601</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1535,8 +1509,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4724401" y="3257550"/>
-          <a:ext cx="2124074" cy="476250"/>
+          <a:off x="4724401" y="3305175"/>
+          <a:ext cx="1314449" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1564,16 +1538,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>414338</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>147638</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1590,9 +1564,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6586538" y="3257550"/>
-          <a:ext cx="261937" cy="485776"/>
+        <a:xfrm>
+          <a:off x="6038850" y="3305175"/>
+          <a:ext cx="966788" cy="409576"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1620,16 +1594,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1644,7 +1618,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7639050" y="3743325"/>
+          <a:off x="8334375" y="3724275"/>
           <a:ext cx="1952625" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1765,11 +1739,11 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -1789,8 +1763,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2847975" y="3257550"/>
-          <a:ext cx="4000500" cy="466725"/>
+          <a:off x="2847975" y="3305175"/>
+          <a:ext cx="3190875" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1818,16 +1792,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>385763</xdr:colOff>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>395288</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1845,8 +1819,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6848475" y="3257550"/>
-          <a:ext cx="1766888" cy="485775"/>
+          <a:off x="6038850" y="3305175"/>
+          <a:ext cx="3271838" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1874,16 +1848,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1898,12 +1872,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3200400" y="9058275"/>
+          <a:off x="4619625" y="8963025"/>
           <a:ext cx="2057400" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1945,16 +1922,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>390526</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>638176</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1969,12 +1946,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5876926" y="9029700"/>
+          <a:off x="10306051" y="8791575"/>
           <a:ext cx="1619250" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2016,16 +1996,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>400051</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2043,8 +2023,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4229100" y="8429625"/>
-          <a:ext cx="971551" cy="628650"/>
+          <a:off x="5648325" y="8801100"/>
+          <a:ext cx="1" cy="161925"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2072,72 +2052,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>400051</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>514351</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="95" name="直接箭头连接符 94">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D18C9002-6F7C-4895-8332-0CC2437255DB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="2"/>
-          <a:endCxn id="91" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5200651" y="8429625"/>
-          <a:ext cx="1485900" cy="600075"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2152,12 +2076,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4676775" y="9639300"/>
+          <a:off x="11306175" y="9696450"/>
           <a:ext cx="2324100" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2199,128 +2126,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>514351</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="112" name="直接箭头连接符 111">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B970B05-9703-44FF-B80D-BB547DA8F08A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="91" idx="2"/>
-          <a:endCxn id="111" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5838825" y="9286875"/>
-          <a:ext cx="847726" cy="352425"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="116" name="直接箭头连接符 115">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E0AC417-D6C7-44E2-BEA7-061051A47456}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="90" idx="2"/>
-          <a:endCxn id="111" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4229100" y="9277350"/>
-          <a:ext cx="1609725" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>438151</xdr:colOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581026</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>514351</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2335,12 +2150,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1809751" y="9067800"/>
+          <a:off x="1876426" y="8915400"/>
           <a:ext cx="762000" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2366,7 +2184,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2374,7 +2192,11 @@
             </a:rPr>
             <a:t>Lifecycle</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2383,15 +2205,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>514351</xdr:colOff>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>147638</xdr:rowOff>
+      <xdr:rowOff>23813</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2408,9 +2230,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2571751" y="9167813"/>
-          <a:ext cx="628649" cy="28575"/>
+        <a:xfrm>
+          <a:off x="2638426" y="9043988"/>
+          <a:ext cx="1981199" cy="28575"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2438,16 +2260,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2462,14 +2284,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3590925" y="13811251"/>
+          <a:off x="1647825" y="12372976"/>
           <a:ext cx="2133600" cy="228599"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent1"/>
+          <a:srgbClr val="C00000"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -2512,16 +2334,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>676274</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2536,12 +2358,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4791074" y="13001625"/>
+          <a:off x="3219449" y="11668125"/>
           <a:ext cx="2085975" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="snip2SameRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2583,16 +2408,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2607,12 +2432,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4362450" y="12382500"/>
+          <a:off x="2828925" y="11106150"/>
           <a:ext cx="2905125" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="snip2SameRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2654,15 +2482,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>409576</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>200026</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2678,12 +2506,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4524376" y="11763375"/>
+          <a:off x="3019426" y="10496550"/>
           <a:ext cx="2533650" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="snip2SameRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2725,16 +2556,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2749,12 +2580,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4829175" y="11125200"/>
+          <a:off x="3362325" y="10020300"/>
           <a:ext cx="1866900" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="snip2SameRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2796,16 +2630,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2820,12 +2654,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4991100" y="10467976"/>
+          <a:off x="8143875" y="8963026"/>
           <a:ext cx="1543050" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2851,7 +2688,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2859,7 +2696,11 @@
             </a:rPr>
             <a:t>DefaultResourceLoader</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2867,72 +2708,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>300038</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="230" name="直接箭头连接符 229">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33D5D3B3-2D4E-4951-9740-5FB62884E8E2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="47" idx="2"/>
-          <a:endCxn id="223" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5762625" y="9324976"/>
-          <a:ext cx="2767013" cy="1143000"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="3175">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2947,12 +2732,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1476374" y="10953750"/>
+          <a:off x="1552574" y="10277475"/>
           <a:ext cx="1152525" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2978,7 +2766,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2986,7 +2774,11 @@
             </a:rPr>
             <a:t>DisposableBean</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2995,15 +2787,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>14288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>33338</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3020,9 +2812,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2628899" y="11053763"/>
-          <a:ext cx="2200276" cy="200025"/>
+        <a:xfrm flipV="1">
+          <a:off x="2705099" y="10148888"/>
+          <a:ext cx="657226" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3051,126 +2843,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>33338</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="249" name="直接箭头连接符 248">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ED65F91-C01C-4C1A-9B92-1AF54ABC1BFC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="90" idx="2"/>
-          <a:endCxn id="222" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4229100" y="9277350"/>
-          <a:ext cx="600075" cy="1976438"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="253" name="直接箭头连接符 252">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C47B99CC-FBCC-4EA7-BB7E-CE5F355E2D6E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="223" idx="2"/>
-          <a:endCxn id="222" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5762625" y="10677526"/>
-          <a:ext cx="0" cy="447674"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3188,9 +2868,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5762625" y="11382375"/>
-          <a:ext cx="28576" cy="381000"/>
+        <a:xfrm flipH="1">
+          <a:off x="4286251" y="10277475"/>
+          <a:ext cx="9524" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3218,16 +2898,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>328613</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3244,9 +2924,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5791201" y="12030075"/>
-          <a:ext cx="23812" cy="352425"/>
+        <a:xfrm flipH="1">
+          <a:off x="4281488" y="10763250"/>
+          <a:ext cx="4763" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3275,15 +2955,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3298,12 +2978,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1323975" y="11991976"/>
+          <a:off x="1019175" y="11191876"/>
           <a:ext cx="1247775" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3329,7 +3012,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3337,7 +3020,11 @@
             </a:rPr>
             <a:t>BeanNameAware</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3346,15 +3033,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3371,9 +3058,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2571750" y="12106276"/>
-          <a:ext cx="1790700" cy="395287"/>
+        <a:xfrm flipV="1">
+          <a:off x="2266950" y="11225213"/>
+          <a:ext cx="561975" cy="80963"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3402,15 +3089,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>209551</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3425,12 +3112,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1638301" y="11468101"/>
+          <a:off x="1457326" y="10687051"/>
           <a:ext cx="628650" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3456,7 +3146,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3464,7 +3154,11 @@
             </a:rPr>
             <a:t>Aware</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3473,15 +3167,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>576263</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:colOff>271463</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>581026</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3499,8 +3193,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1947863" y="11677651"/>
-          <a:ext cx="4763" cy="314325"/>
+          <a:off x="1643063" y="10896601"/>
+          <a:ext cx="128588" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3529,15 +3223,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>657226</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>409576</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3552,12 +3246,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1343026" y="12592051"/>
+          <a:off x="1114426" y="11601451"/>
           <a:ext cx="1123950" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3583,7 +3280,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3591,7 +3288,11 @@
             </a:rPr>
             <a:t>InitializingBean</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3600,15 +3301,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>409576</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3626,8 +3327,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2466976" y="12501563"/>
-          <a:ext cx="1895474" cy="214313"/>
+          <a:off x="2238376" y="11225213"/>
+          <a:ext cx="590549" cy="500063"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3655,16 +3356,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>328613</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>347662</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3681,9 +3382,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5815013" y="12620625"/>
-          <a:ext cx="19049" cy="381000"/>
+        <a:xfrm flipH="1">
+          <a:off x="4262437" y="11344275"/>
+          <a:ext cx="19051" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3711,16 +3412,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>347662</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3738,8 +3439,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4657725" y="13211175"/>
-          <a:ext cx="1176337" cy="600076"/>
+          <a:off x="2714625" y="11877675"/>
+          <a:ext cx="1547812" cy="495301"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3767,16 +3468,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3791,14 +3492,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6124575" y="13773151"/>
+          <a:off x="4010025" y="12344401"/>
           <a:ext cx="2047875" cy="257174"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent1"/>
+          <a:srgbClr val="C00000"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -3841,16 +3542,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>347662</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>290513</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>233363</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3868,8 +3569,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5834062" y="13211175"/>
-          <a:ext cx="1314451" cy="561976"/>
+          <a:off x="4262437" y="11877675"/>
+          <a:ext cx="771526" cy="466726"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3898,15 +3599,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3921,7 +3622,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11953875" y="5991225"/>
+          <a:off x="11991975" y="6315075"/>
           <a:ext cx="2428875" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="snip2SameRect">
@@ -3975,9 +3676,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>42863</xdr:colOff>
+      <xdr:colOff>147638</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3996,7 +3697,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4724401" y="3971925"/>
-          <a:ext cx="2176462" cy="1628775"/>
+          <a:ext cx="2281237" cy="1609725"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4025,15 +3726,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>42863</xdr:colOff>
+      <xdr:colOff>147638</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>385763</xdr:colOff>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>395288</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4051,8 +3752,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6900863" y="4019550"/>
-          <a:ext cx="1714500" cy="1581150"/>
+          <a:off x="7005638" y="4000500"/>
+          <a:ext cx="2305050" cy="1581150"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4080,16 +3781,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4104,12 +3805,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10182224" y="3905250"/>
+          <a:off x="10306049" y="4105275"/>
           <a:ext cx="1514475" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4152,15 +3856,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4175,7 +3879,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5772150" y="4448176"/>
+          <a:off x="6029325" y="4476751"/>
           <a:ext cx="1952625" cy="228599"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4222,16 +3926,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>414338</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>147638</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>576263</xdr:colOff>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>147638</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4249,8 +3953,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6586538" y="4010026"/>
-          <a:ext cx="161925" cy="438150"/>
+          <a:off x="7005638" y="3981451"/>
+          <a:ext cx="0" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4278,72 +3982,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>576263</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>61913</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="390" name="直接箭头连接符 389">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2F54EF4-C21E-4994-970C-51CCEE198312}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="357" idx="1"/>
-          <a:endCxn id="386" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6748463" y="4043363"/>
-          <a:ext cx="3433761" cy="404813"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>576263</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>147638</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>147638</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>42863</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4361,8 +4009,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6748463" y="4676775"/>
-          <a:ext cx="152400" cy="923925"/>
+          <a:off x="7005638" y="4705350"/>
+          <a:ext cx="0" cy="876300"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4390,72 +4038,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>385763</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="481" name="直接箭头连接符 480">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2FC89DA-5B16-4969-8375-F3528B01A691}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="61" idx="2"/>
-          <a:endCxn id="349" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8615363" y="4019550"/>
-          <a:ext cx="3338512" cy="2133600"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:colOff>523875</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4470,7 +4062,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5838825" y="5600700"/>
+          <a:off x="5943600" y="5581650"/>
           <a:ext cx="2124075" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4519,15 +4111,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4542,7 +4134,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12420600" y="5343525"/>
+          <a:off x="12449175" y="5657850"/>
           <a:ext cx="1495425" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="snip2SameRect">
@@ -4589,16 +4181,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4613,12 +4205,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13696950" y="2943225"/>
+          <a:off x="14097000" y="3267075"/>
           <a:ext cx="1038225" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4661,15 +4256,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4684,14 +4279,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12496800" y="3457575"/>
+          <a:off x="12525375" y="3771900"/>
           <a:ext cx="1323975" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent1"/>
+          <a:srgbClr val="7030A0"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -4735,15 +4330,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>400049</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4758,14 +4353,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12211050" y="4114800"/>
+          <a:off x="12239625" y="4429125"/>
           <a:ext cx="1904999" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent1"/>
+          <a:srgbClr val="7030A0"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -4809,15 +4404,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>128588</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>157163</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4835,7 +4430,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13158788" y="3790950"/>
+          <a:off x="13187363" y="4105275"/>
           <a:ext cx="4762" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4864,72 +4459,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>128588</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>500063</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="559" name="直接箭头连接符 558">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA2CE6AC-3634-4527-A850-1C2713725801}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="549" idx="2"/>
-          <a:endCxn id="551" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="13158788" y="3219450"/>
-          <a:ext cx="1057275" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>61913</xdr:rowOff>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4947,8 +4486,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11696699" y="4043363"/>
-          <a:ext cx="514351" cy="238125"/>
+          <a:off x="11820524" y="4243388"/>
+          <a:ext cx="419101" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4977,15 +4516,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>571501</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5000,12 +4539,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12230101" y="4733925"/>
+          <a:off x="12258676" y="5048250"/>
           <a:ext cx="1866900" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="snip2SameRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -5031,7 +4573,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -5039,7 +4581,11 @@
             </a:rPr>
             <a:t>FactoryBeanRegistrySupport</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5048,15 +4594,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>133351</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5074,7 +4620,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13163550" y="4448175"/>
+          <a:off x="13192125" y="4762500"/>
           <a:ext cx="1" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5104,15 +4650,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>133351</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>138113</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5130,7 +4676,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13163551" y="5057775"/>
+          <a:off x="13192126" y="5372100"/>
           <a:ext cx="4762" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5159,72 +4705,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="603" name="直接箭头连接符 602">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{830AFAB3-9958-4492-9766-DBA981BDF65D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="386" idx="3"/>
-          <a:endCxn id="542" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7724775" y="4562476"/>
-          <a:ext cx="4695825" cy="942974"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>138113</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>138113</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>176213</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5242,8 +4732,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13168313" y="5667375"/>
-          <a:ext cx="0" cy="323850"/>
+          <a:off x="13196888" y="5981700"/>
+          <a:ext cx="9525" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5272,15 +4762,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>638176</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>352426</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5295,7 +4785,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12296776" y="6629400"/>
+          <a:off x="12325351" y="6858000"/>
           <a:ext cx="1771650" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5345,23 +4835,493 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>42863</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>638176</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>176213</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>100013</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="707" name="直接箭头连接符 706">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC3263DC-3213-43CD-BD8B-83C13CA7C27C}"/>
+        <xdr:cNvPr id="710" name="直接箭头连接符 709">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B08C601F-1658-4085-BECB-81C2174A999B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="349" idx="1"/>
+          <a:endCxn id="700" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13206413" y="6638925"/>
+          <a:ext cx="4763" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="矩形 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03D29434-B28F-4D4B-8264-F5816F57329B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12611099" y="7410450"/>
+          <a:ext cx="1190625" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" strike="sngStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>XmlBeanFactory</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="100" name="直接箭头连接符 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{160D43F7-DA12-49FD-8059-9CA72F8135B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="700" idx="2"/>
+          <a:endCxn id="99" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13206412" y="7191375"/>
+          <a:ext cx="4764" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="连接符: 肘形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F58112E7-6539-4791-B2EF-C03CFA481B94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="549" idx="3"/>
+          <a:endCxn id="589" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15135225" y="3405188"/>
+          <a:ext cx="171450" cy="1014412"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>157164</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="113" name="连接符: 肘形 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47A2A9A2-6F00-4AA3-8C73-69C0E7B442BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="549" idx="1"/>
+          <a:endCxn id="551" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="13187364" y="3405188"/>
+          <a:ext cx="909637" cy="366712"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>381002</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="117" name="连接符: 肘形 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BB859DD-60DD-4B4E-874D-A9344EE149BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="589" idx="1"/>
+          <a:endCxn id="700" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="14097002" y="4557712"/>
+          <a:ext cx="438149" cy="2466975"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="123" name="连接符: 肘形 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{562516C3-329D-40E7-A2A0-AD33184EE97A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="386" idx="3"/>
+          <a:endCxn id="542" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7981950" y="4591051"/>
+          <a:ext cx="4467225" cy="1228724"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>395287</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="127" name="连接符: 肘形 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CFAF20E-6C0F-4D8C-AEEC-F1DA471400D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="61" idx="2"/>
+          <a:endCxn id="349" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="9413081" y="3898106"/>
+          <a:ext cx="2476500" cy="2681287"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="131" name="连接符: 肘形 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09AB82BF-37A5-4236-AE69-B215E52804AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5371,11 +5331,11 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6900863" y="5886450"/>
-          <a:ext cx="5395913" cy="909638"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="9086850" y="3786187"/>
+          <a:ext cx="1157288" cy="5319713"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
@@ -5401,37 +5361,37 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>138113</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>147639</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="710" name="直接箭头连接符 709">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B08C601F-1658-4085-BECB-81C2174A999B}"/>
+        <xdr:cNvPr id="147" name="连接符: 肘形 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD867E60-C32E-43D8-B3EC-6628ECEFB94B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="349" idx="1"/>
-          <a:endCxn id="700" idx="0"/>
+          <a:stCxn id="357" idx="1"/>
+          <a:endCxn id="386" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13168313" y="6315075"/>
-          <a:ext cx="14288" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="7005639" y="4243387"/>
+          <a:ext cx="3300411" cy="233363"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
@@ -5457,23 +5417,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="716" name="矩形 715">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C64CBC02-62F0-4206-8511-5988FF2059F1}"/>
+        <xdr:cNvPr id="188" name="矩形 187">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D7E9829-11FC-4669-9374-A949FEE04777}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5481,14 +5441,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14706601" y="5991225"/>
-          <a:ext cx="1562100" cy="333375"/>
+          <a:off x="8296276" y="10487025"/>
+          <a:ext cx="1733550" cy="257174"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent1"/>
+          <a:srgbClr val="C00000"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -5521,6 +5481,1173 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+            <a:t>GenericApplicationContext</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="225" name="矩形: 圆角 224">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8BA5493-E4F9-48CD-BBE0-563AF8386534}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14058900" y="13277850"/>
+          <a:ext cx="1695450" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AnnotationConfigRegistry</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="226" name="连接符: 肘形 225">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D60FCDF-F077-4EF9-BDA9-AE3DC591BD28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="222" idx="0"/>
+          <a:endCxn id="188" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5229225" y="10148888"/>
+          <a:ext cx="3933826" cy="338137"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="228" name="矩形 227">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A319D03F-AA84-4A1C-9F9F-B840482162ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10410825" y="11077575"/>
+          <a:ext cx="2324100" cy="257174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AnnotationConfigApplicationContext</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="233" name="矩形 232">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF748A6C-F28A-40DE-8B31-146FF0534336}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10353675" y="11791950"/>
+          <a:ext cx="2324100" cy="257174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GenericGroovyApplicationContext</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="240" name="矩形 239">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3603F5EC-67B9-4EF5-91BF-2D0340014A0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14039850" y="12087225"/>
+          <a:ext cx="2324100" cy="257174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GenericWebApplicationContext</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="241" name="矩形 240">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA3A36EA-5FDF-4876-A9B5-E932B7D4FAD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10572750" y="12249150"/>
+          <a:ext cx="1981200" cy="257174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GenericXmlApplicationContext</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="242" name="矩形 241">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9BAD16E-6625-4FCE-ADEE-6E408F8C7B4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10744200" y="12706350"/>
+          <a:ext cx="1647825" cy="257174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>StaticApplicationContext</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="250" name="连接符: 肘形 249">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A3E03DF-D2C8-42D0-80CB-C76E1C65ADE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="188" idx="3"/>
+          <a:endCxn id="240" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10029826" y="10615612"/>
+          <a:ext cx="5172074" cy="1471613"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="252" name="矩形: 圆角 251">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40624122-1CC3-4C66-9904-7D729F712A3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16182975" y="11477625"/>
+          <a:ext cx="1066800" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ThemeSource</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>123827</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="261" name="连接符: 肘形 260">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C57F1F3-0E6A-4C70-9C15-8E2E58272A0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="223" idx="2"/>
+          <a:endCxn id="222" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6181726" y="7286626"/>
+          <a:ext cx="847724" cy="4619625"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="337" name="连接符: 肘形 336">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{080E2180-B080-411A-AE0C-24498AABA715}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="91" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6324601" y="8672513"/>
+          <a:ext cx="4791075" cy="119062"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="367" name="连接符: 肘形 366">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13DCB2BC-D546-4357-8767-01F5AA8E5569}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="90" idx="1"/>
+          <a:endCxn id="222" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="3362325" y="9072562"/>
+          <a:ext cx="1257300" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 118182"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>142877</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>585788</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="391" name="连接符: 肘形 390">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEA0B285-C4D0-4F46-B711-DE3F78366BED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="47" idx="2"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9408320" y="6917532"/>
+          <a:ext cx="314324" cy="1243013"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>585788</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="394" name="连接符: 肘形 393">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F3CE202-27AF-40FB-B5FB-BD68ABE0E30B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="47" idx="2"/>
+          <a:endCxn id="223" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="8760619" y="7536657"/>
+          <a:ext cx="1581150" cy="1271588"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="406" name="连接符: 肘形 405">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E82F0260-29CB-4911-8FD4-46B432F5CDC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="90" idx="2"/>
+          <a:endCxn id="111" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="8801100" y="6029325"/>
+          <a:ext cx="514350" cy="6819900"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="448" name="连接符: 肘形 447">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5735BC96-1F0D-4189-9B8A-943F993EB278}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="225" idx="0"/>
+          <a:endCxn id="228" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="12784931" y="11156156"/>
+          <a:ext cx="2071688" cy="2171700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>428627</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="482" name="连接符: 肘形 481">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0500474E-6C82-4A8C-99F3-039CAF55ABA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="589" idx="2"/>
+          <a:endCxn id="188" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9708358" y="5017294"/>
+          <a:ext cx="5919787" cy="5276849"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="589" name="矩形: 圆角 588">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73A362AC-12A5-42CE-999B-DAF270DD25E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14535150" y="4419600"/>
+          <a:ext cx="1543050" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>BeanDefinitionRegistry</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
@@ -5531,37 +6658,111 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="596" name="矩形 595">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B84F864E-1E10-4B07-BA5F-DCF58683E3E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15801975" y="10677525"/>
+          <a:ext cx="1895475" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SimpleBeanDefinitionRegistry</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>500063</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>400051</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>290513</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="718" name="直接箭头连接符 717">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9897452B-AD63-417A-B037-D49C165F84AB}"/>
+        <xdr:cNvPr id="597" name="连接符: 肘形 596">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2064D1C1-8194-44CF-93FC-77EB76DA6970}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="549" idx="2"/>
-          <a:endCxn id="716" idx="0"/>
+          <a:stCxn id="551" idx="3"/>
+          <a:endCxn id="596" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14216063" y="3219450"/>
-          <a:ext cx="1271588" cy="2771775"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+          <a:off x="13849350" y="3938588"/>
+          <a:ext cx="2900363" cy="6738937"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
@@ -5587,38 +6788,1127 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>352426</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>400051</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>100013</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="726" name="直接箭头连接符 725">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{667A3055-5446-4FAD-BE39-1CB32A2D0587}"/>
+        <xdr:cNvPr id="602" name="连接符: 肘形 601">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C94F17D-AA1F-4B40-8903-692FEA854653}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="716" idx="2"/>
-          <a:endCxn id="700" idx="3"/>
+          <a:stCxn id="589" idx="2"/>
+          <a:endCxn id="596" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="12480131" y="7522369"/>
+          <a:ext cx="6148388" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="720" name="矩形 719">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B3C9C6B-E054-40BB-B341-356CC8E94D7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8867774" y="13601700"/>
+          <a:ext cx="2590801" cy="257174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AnnotationConfigWebApplicationContext</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>223838</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="741" name="连接符: 肘形 740">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6E120D3-7585-4D17-BA48-CDDF1F688AFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="220" idx="0"/>
+          <a:endCxn id="978" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5734050" y="11225213"/>
+          <a:ext cx="2033588" cy="261936"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="745" name="连接符: 肘形 744">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49D8C179-7DCB-4DEF-93B8-134E12646861}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="252" idx="1"/>
+          <a:endCxn id="978" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="9163051" y="11606212"/>
+          <a:ext cx="7019925" cy="9526"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="753" name="连接符: 肘形 752">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0CC3950-49CA-4D95-B541-CA7425085B86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="111" idx="1"/>
+          <a:endCxn id="978" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="9163051" y="9825038"/>
+          <a:ext cx="2143125" cy="1781174"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="767" name="连接符: 肘形 766">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E3DB9EC-7436-401F-8A31-CD7376880DA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="91" idx="2"/>
+          <a:endCxn id="111" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="11468100" y="8696325"/>
+          <a:ext cx="647700" cy="1352549"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="781" name="连接符: 肘形 780">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73A5726B-01F7-4273-97D0-0277E3745149}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="252" idx="2"/>
+          <a:endCxn id="240" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="16309182" y="11808619"/>
+          <a:ext cx="461962" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="932" name="直接箭头连接符 931">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2D9BCAB-1534-45AD-B9D9-F1EA010A1B61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="188" idx="3"/>
+          <a:endCxn id="228" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10029826" y="10615612"/>
+          <a:ext cx="1543049" cy="461963"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="935" name="直接箭头连接符 934">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27BA2BFA-3C04-4963-94A0-70F9C3CC62AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="188" idx="2"/>
+          <a:endCxn id="233" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9163051" y="10744199"/>
+          <a:ext cx="2352674" cy="1047751"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>595313</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="936" name="直接箭头连接符 935">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{026F5925-BB5C-40C7-B521-D8D56FBC37BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="188" idx="2"/>
+          <a:endCxn id="242" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9163051" y="10744199"/>
+          <a:ext cx="2405062" cy="1962151"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="940" name="直接箭头连接符 939">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A64617A5-EB54-4F9B-9782-158F37CB426D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="188" idx="2"/>
+          <a:endCxn id="241" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9163051" y="10744199"/>
+          <a:ext cx="2400299" cy="1504951"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="978" name="矩形: 剪去顶角 977">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E11BD511-5FC1-4AAE-B0BC-568B42F38CAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6372225" y="11487149"/>
+          <a:ext cx="2790825" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AbstractRefreshableWebApplicationContext</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="1020" name="直接箭头连接符 1019">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0451AA8-E439-4B80-B1FB-195FF96E2607}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="111" idx="2"/>
+          <a:endCxn id="240" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12468225" y="9953625"/>
+          <a:ext cx="1571625" cy="2262187"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="矩形 1025">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D237414-6FB4-4515-A139-BDC68DD1120B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4695826" y="13620750"/>
+          <a:ext cx="2000250" cy="257174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GroovyWebApplicationContext</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1027" name="矩形 1026">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AABD083-AC0B-4F56-9468-CBB183B885F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="13630275"/>
+          <a:ext cx="1790701" cy="257174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>XmlWebApplicationContext</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>223838</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="1028" name="直接箭头连接符 1027">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F44C233-3DA2-46AA-9831-B80220012B10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="978" idx="1"/>
+          <a:endCxn id="720" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7767638" y="11725274"/>
+          <a:ext cx="2395537" cy="1876426"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>223838</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="1031" name="直接箭头连接符 1030">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E4805B7-D22B-47FE-ADD7-682D67E30D27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="978" idx="1"/>
+          <a:endCxn id="1026" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="14068426" y="6324600"/>
-          <a:ext cx="1419225" cy="471488"/>
+          <a:off x="5695951" y="11725274"/>
+          <a:ext cx="2071687" cy="1895476"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>223838</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="1034" name="直接箭头连接符 1033">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33A70A0D-6E1B-41D7-86C4-E31F6AB227E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="978" idx="1"/>
+          <a:endCxn id="1027" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7753351" y="11725274"/>
+          <a:ext cx="14287" cy="1905001"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="1051" name="连接符: 肘形 1050">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E4011E0-0F52-4E07-BF35-40F0CD74A30D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="225" idx="1"/>
+          <a:endCxn id="720" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="11458576" y="13415963"/>
+          <a:ext cx="2600325" cy="314324"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -9780,7 +12070,44 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+      <a:lstStyle>
+        <a:defPPr algn="ctr">
+          <a:defRPr sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:defRPr>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
@@ -9794,8 +12121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="Q43" sqref="Q43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="P83" sqref="P83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/spring.xlsx
+++ b/spring.xlsx
@@ -875,15 +875,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -898,7 +898,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8086725" y="7696200"/>
+          <a:off x="7848600" y="7581900"/>
           <a:ext cx="1714500" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1231,11 +1231,11 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>161926</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -1255,8 +1255,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5648326" y="7943850"/>
-          <a:ext cx="3295649" cy="600075"/>
+          <a:off x="5648326" y="7829550"/>
+          <a:ext cx="3057524" cy="714375"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1338,13 +1338,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
@@ -1361,7 +1361,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9601200" y="7115176"/>
+          <a:off x="9696450" y="7115176"/>
           <a:ext cx="1171575" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1922,16 +1922,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1946,7 +1946,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10306051" y="8791575"/>
+          <a:off x="8801101" y="9010650"/>
           <a:ext cx="1619250" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2053,15 +2053,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2076,7 +2076,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11306175" y="9696450"/>
+          <a:off x="11182350" y="9906000"/>
           <a:ext cx="2324100" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2630,15 +2630,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2654,14 +2654,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8143875" y="8963026"/>
+          <a:off x="6886575" y="9144001"/>
           <a:ext cx="1543050" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFC000"/>
+          <a:srgbClr val="00B050"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -2688,7 +2688,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2698,7 +2698,7 @@
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
             <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -5770,15 +5770,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5793,7 +5793,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14039850" y="12087225"/>
+          <a:off x="13954125" y="12077700"/>
           <a:ext cx="2324100" cy="257174"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5998,9 +5998,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6019,7 +6019,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10029826" y="10615612"/>
-          <a:ext cx="5172074" cy="1471613"/>
+          <a:ext cx="5086349" cy="1462088"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -6047,16 +6047,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6071,7 +6071,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16182975" y="11477625"/>
+          <a:off x="17097375" y="10734675"/>
           <a:ext cx="1066800" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -6126,15 +6126,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>123827</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6152,8 +6152,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="6181726" y="7286626"/>
-          <a:ext cx="847724" cy="4619625"/>
+          <a:off x="5643564" y="8005763"/>
+          <a:ext cx="666749" cy="3362325"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -6189,10 +6189,10 @@
       <xdr:rowOff>166688</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>142876</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6211,7 +6211,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6324601" y="8672513"/>
-          <a:ext cx="4791075" cy="119062"/>
+          <a:ext cx="3286125" cy="338137"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -6297,16 +6297,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>142877</xdr:rowOff>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>585788</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6318,19 +6318,17 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="47" idx="2"/>
+          <a:stCxn id="47" idx="1"/>
           <a:endCxn id="10" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="9408320" y="6917532"/>
-          <a:ext cx="314324" cy="1243013"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="8705850" y="7248526"/>
+          <a:ext cx="990600" cy="333374"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -6355,16 +6353,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>585788</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:colOff>681039</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6382,8 +6380,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="8760619" y="7536657"/>
-          <a:ext cx="1581150" cy="1271588"/>
+          <a:off x="8089107" y="6950869"/>
+          <a:ext cx="1762125" cy="2624138"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -6414,15 +6412,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>161924</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6440,8 +6438,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="8801100" y="6029325"/>
-          <a:ext cx="514350" cy="6819900"/>
+          <a:off x="8634412" y="6196012"/>
+          <a:ext cx="723900" cy="6696075"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -6659,15 +6657,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6682,7 +6680,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15801975" y="10677525"/>
+          <a:off x="16230600" y="9315450"/>
           <a:ext cx="1895475" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6738,10 +6736,10 @@
       <xdr:rowOff>138113</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>290513</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>33338</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6760,7 +6758,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13849350" y="3938588"/>
-          <a:ext cx="2900363" cy="6738937"/>
+          <a:ext cx="3328988" cy="5376862"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -6791,13 +6789,13 @@
       <xdr:col>22</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6815,8 +6813,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="12480131" y="7522369"/>
-          <a:ext cx="6148388" cy="495300"/>
+          <a:off x="13375481" y="6627018"/>
+          <a:ext cx="4786313" cy="923925"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -6976,14 +6974,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>638176</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>409576</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7000,9 +6998,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="9163051" y="11606212"/>
-          <a:ext cx="7019925" cy="9526"/>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="9163051" y="10872788"/>
+          <a:ext cx="7934325" cy="733424"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -7033,13 +7031,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>52388</xdr:rowOff>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>333376</xdr:colOff>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
@@ -7059,8 +7057,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="9163051" y="9825038"/>
-          <a:ext cx="2143125" cy="1781174"/>
+          <a:off x="9163050" y="10034588"/>
+          <a:ext cx="2019300" cy="1571624"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -7090,16 +7088,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>90488</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7111,19 +7109,17 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="91" idx="2"/>
+          <a:stCxn id="91" idx="3"/>
           <a:endCxn id="111" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="11468100" y="8696325"/>
-          <a:ext cx="647700" cy="1352549"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
+        <a:xfrm>
+          <a:off x="10420351" y="9139238"/>
+          <a:ext cx="1924049" cy="766762"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -7149,15 +7145,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:rowOff>80961</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7175,8 +7171,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="16309182" y="11808619"/>
-          <a:ext cx="461962" cy="352425"/>
+          <a:off x="16356807" y="10932318"/>
+          <a:ext cx="1195387" cy="1352550"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -7504,15 +7500,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7530,8 +7526,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12468225" y="9953625"/>
-          <a:ext cx="1571625" cy="2262187"/>
+          <a:off x="12344400" y="10163175"/>
+          <a:ext cx="1609725" cy="2043112"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -12121,8 +12117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="P83" sqref="P83"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C34" workbookViewId="0">
+      <selection activeCell="R45" sqref="R45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/spring.xlsx
+++ b/spring.xlsx
@@ -13,13 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="UML" sheetId="8" r:id="rId1"/>
-    <sheet name="invoke" sheetId="7" r:id="rId2"/>
-    <sheet name="IOC" sheetId="1" r:id="rId3"/>
-    <sheet name="BeanRegistry" sheetId="5" r:id="rId4"/>
-    <sheet name="other" sheetId="4" r:id="rId5"/>
-    <sheet name="FactoryBean" sheetId="3" r:id="rId6"/>
-    <sheet name="Aware" sheetId="2" r:id="rId7"/>
-    <sheet name="MVC" sheetId="6" r:id="rId8"/>
+    <sheet name="UML-READER" sheetId="9" r:id="rId2"/>
+    <sheet name="invoke" sheetId="7" r:id="rId3"/>
+    <sheet name="IOC" sheetId="1" r:id="rId4"/>
+    <sheet name="BeanRegistry" sheetId="5" r:id="rId5"/>
+    <sheet name="other" sheetId="4" r:id="rId6"/>
+    <sheet name="FactoryBean" sheetId="3" r:id="rId7"/>
+    <sheet name="Aware" sheetId="2" r:id="rId8"/>
+    <sheet name="MVC" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -364,16 +365,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -388,7 +389,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4972051" y="8543925"/>
+          <a:off x="6286501" y="8134350"/>
           <a:ext cx="1352550" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -498,16 +499,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -522,7 +523,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2171700" y="7591425"/>
+          <a:off x="5019675" y="7362825"/>
           <a:ext cx="1438275" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -576,16 +577,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>581026</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>638176</xdr:colOff>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -600,7 +601,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4010026" y="3733800"/>
+          <a:off x="5210176" y="3686175"/>
           <a:ext cx="1428750" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -647,16 +648,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -671,7 +672,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6181725" y="3714751"/>
+          <a:off x="7362825" y="3676651"/>
           <a:ext cx="1647825" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -718,16 +719,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>342901</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -742,7 +743,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3771901" y="7496176"/>
+          <a:off x="7362826" y="7362826"/>
           <a:ext cx="1143000" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -796,16 +797,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -820,7 +821,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5924550" y="7524751"/>
+          <a:off x="8686800" y="7372351"/>
           <a:ext cx="1714500" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -874,15 +875,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -898,7 +899,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7848600" y="7581900"/>
+          <a:off x="3067050" y="7400925"/>
           <a:ext cx="1714500" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -948,16 +949,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>147638</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:colOff>252413</xdr:colOff>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -975,8 +976,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2890838" y="7867650"/>
-          <a:ext cx="2757488" cy="676275"/>
+          <a:off x="5738813" y="7639050"/>
+          <a:ext cx="1223963" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1004,16 +1005,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>609601</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
       <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1031,8 +1032,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4724401" y="3971925"/>
-          <a:ext cx="923925" cy="4572000"/>
+          <a:off x="5924551" y="3924300"/>
+          <a:ext cx="1038225" cy="4210050"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1060,72 +1061,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直接箭头连接符 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70DE70DE-15EF-4A80-A976-676DB8D07C51}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="1"/>
-          <a:endCxn id="3" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5648326" y="3848101"/>
-          <a:ext cx="533399" cy="4695824"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1142,9 +1087,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4343401" y="7762876"/>
-          <a:ext cx="1304925" cy="781049"/>
+        <a:xfrm flipH="1">
+          <a:off x="6962776" y="7629526"/>
+          <a:ext cx="971550" cy="504824"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1172,16 +1117,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1199,8 +1144,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5648326" y="7791451"/>
-          <a:ext cx="1133474" cy="752474"/>
+          <a:off x="6962776" y="7639051"/>
+          <a:ext cx="2581274" cy="495299"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1228,16 +1173,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1254,9 +1199,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5648326" y="7829550"/>
-          <a:ext cx="3057524" cy="714375"/>
+        <a:xfrm>
+          <a:off x="3924300" y="7648575"/>
+          <a:ext cx="3038476" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1337,16 +1282,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1361,7 +1306,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9696450" y="7115176"/>
+          <a:off x="1466850" y="6858001"/>
           <a:ext cx="1171575" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1411,14 +1356,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -1435,7 +1380,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5514975" y="3019425"/>
+          <a:off x="6505575" y="3019425"/>
           <a:ext cx="1047750" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1482,16 +1427,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>609601</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1509,8 +1454,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4724401" y="3305175"/>
-          <a:ext cx="1314449" cy="428625"/>
+          <a:off x="5924551" y="3305175"/>
+          <a:ext cx="1104899" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1538,16 +1483,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>147638</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>642938</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1565,8 +1510,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6038850" y="3305175"/>
-          <a:ext cx="966788" cy="409576"/>
+          <a:off x="7029450" y="3305175"/>
+          <a:ext cx="1157288" cy="371476"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1594,16 +1539,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1618,7 +1563,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8334375" y="3724275"/>
+          <a:off x="9220200" y="3667125"/>
           <a:ext cx="1952625" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1665,16 +1610,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1689,7 +1634,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2066925" y="3724275"/>
+          <a:off x="3238500" y="3714750"/>
           <a:ext cx="1562100" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1736,16 +1681,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1763,8 +1708,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2847975" y="3305175"/>
-          <a:ext cx="3190875" cy="419100"/>
+          <a:off x="4019550" y="3305175"/>
+          <a:ext cx="3009900" cy="409575"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1792,16 +1737,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>395288</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>595313</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1819,8 +1764,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6038850" y="3305175"/>
-          <a:ext cx="3271838" cy="419100"/>
+          <a:off x="7029450" y="3305175"/>
+          <a:ext cx="3167063" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1849,15 +1794,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1872,7 +1817,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4619625" y="8963025"/>
+          <a:off x="4600575" y="8801100"/>
           <a:ext cx="2057400" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1923,15 +1868,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>571501</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>133351</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1946,7 +1891,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8801101" y="9010650"/>
+          <a:off x="8439151" y="8801100"/>
           <a:ext cx="1619250" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1996,72 +1941,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="92" name="直接箭头连接符 91">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABA6332F-E664-44C1-91B7-E60D617D5B10}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="2"/>
-          <a:endCxn id="90" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5648325" y="8801100"/>
-          <a:ext cx="1" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2076,7 +1965,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11182350" y="9906000"/>
+          <a:off x="6362700" y="9667875"/>
           <a:ext cx="2324100" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2127,15 +2016,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>504826</xdr:colOff>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>581026</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2150,7 +2039,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1876426" y="8915400"/>
+          <a:off x="1562101" y="8772525"/>
           <a:ext cx="762000" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2205,15 +2094,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>581026</xdr:colOff>
+      <xdr:colOff>266701</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>176213</xdr:rowOff>
+      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2231,8 +2120,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2638426" y="9043988"/>
-          <a:ext cx="1981199" cy="28575"/>
+          <a:off x="2324101" y="8901113"/>
+          <a:ext cx="2276474" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2261,15 +2150,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2284,7 +2173,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1647825" y="12372976"/>
+          <a:off x="1657350" y="12144376"/>
           <a:ext cx="2133600" cy="228599"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2335,15 +2224,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
+      <xdr:colOff>276224</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>504824</xdr:colOff>
+      <xdr:colOff>304799</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2358,7 +2247,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3219449" y="11668125"/>
+          <a:off x="3019424" y="11610975"/>
           <a:ext cx="2085975" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="snip2SameRect">
@@ -2408,16 +2297,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2432,7 +2321,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2828925" y="11106150"/>
+          <a:off x="2619375" y="11001375"/>
           <a:ext cx="2905125" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="snip2SameRect">
@@ -2483,15 +2372,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>276226</xdr:colOff>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2506,7 +2395,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3019426" y="10496550"/>
+          <a:off x="2800351" y="10296525"/>
           <a:ext cx="2533650" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="snip2SameRect">
@@ -2557,14 +2446,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2580,7 +2469,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3362325" y="10020300"/>
+          <a:off x="3133725" y="9658350"/>
           <a:ext cx="1866900" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="snip2SameRect">
@@ -2630,16 +2519,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2654,7 +2543,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6886575" y="9144001"/>
+          <a:off x="3295650" y="9239251"/>
           <a:ext cx="1543050" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2708,16 +2597,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>647699</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2732,7 +2621,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1552574" y="10277475"/>
+          <a:off x="1190624" y="9677400"/>
           <a:ext cx="1152525" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2787,15 +2676,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>647699</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>14288</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>61913</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2812,9 +2701,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2705099" y="10148888"/>
-          <a:ext cx="657226" cy="228600"/>
+        <a:xfrm>
+          <a:off x="2343149" y="9777413"/>
+          <a:ext cx="790576" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2842,16 +2731,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>171451</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>638176</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2868,9 +2757,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4286251" y="10277475"/>
-          <a:ext cx="9524" cy="219075"/>
+        <a:xfrm>
+          <a:off x="4067175" y="9915525"/>
+          <a:ext cx="1" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2898,16 +2787,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>166688</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>638176</xdr:colOff>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>642938</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2924,9 +2813,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4281488" y="10763250"/>
-          <a:ext cx="4763" cy="342900"/>
+        <a:xfrm>
+          <a:off x="4067176" y="10563225"/>
+          <a:ext cx="4762" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2955,15 +2844,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2978,7 +2867,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1019175" y="11191876"/>
+          <a:off x="1028700" y="10791826"/>
           <a:ext cx="1247775" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3033,15 +2922,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>4763</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3058,9 +2947,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2266950" y="11225213"/>
-          <a:ext cx="561975" cy="80963"/>
+        <a:xfrm>
+          <a:off x="2276475" y="10906126"/>
+          <a:ext cx="342900" cy="214312"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3088,16 +2977,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3112,7 +3001,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1457326" y="10687051"/>
+          <a:off x="1343026" y="10277476"/>
           <a:ext cx="628650" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3167,15 +3056,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>271463</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:colOff>280988</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>400051</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3193,8 +3082,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1643063" y="10896601"/>
-          <a:ext cx="128588" cy="295275"/>
+          <a:off x="1652588" y="10487026"/>
+          <a:ext cx="4763" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3224,14 +3113,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>428626</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>180976</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3246,7 +3135,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1114426" y="11601451"/>
+          <a:off x="1114426" y="11277601"/>
           <a:ext cx="1123950" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3302,14 +3191,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>180976</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>4763</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3327,8 +3216,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2238376" y="11225213"/>
-          <a:ext cx="590549" cy="500063"/>
+          <a:off x="2238376" y="11120438"/>
+          <a:ext cx="380999" cy="280988"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3356,16 +3245,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>147637</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>633412</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>166688</xdr:colOff>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>642938</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3383,8 +3272,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4262437" y="11344275"/>
-          <a:ext cx="19051" cy="323850"/>
+          <a:off x="4062412" y="11239500"/>
+          <a:ext cx="9526" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3413,15 +3302,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>147637</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>633412</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3439,8 +3328,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2714625" y="11877675"/>
-          <a:ext cx="1547812" cy="495301"/>
+          <a:off x="2724150" y="11820525"/>
+          <a:ext cx="1338262" cy="323851"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3469,15 +3358,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3492,7 +3381,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4010025" y="12344401"/>
+          <a:off x="4019550" y="12134851"/>
           <a:ext cx="2047875" cy="257174"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3542,16 +3431,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>147637</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>633412</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>233363</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:colOff>242888</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3569,8 +3458,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4262437" y="11877675"/>
-          <a:ext cx="771526" cy="466726"/>
+          <a:off x="4062412" y="11820525"/>
+          <a:ext cx="981076" cy="314326"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3669,14 +3558,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>609601</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>147638</xdr:colOff>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -3696,8 +3585,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4724401" y="3971925"/>
-          <a:ext cx="2281237" cy="1609725"/>
+          <a:off x="5924551" y="3924300"/>
+          <a:ext cx="2309812" cy="1657350"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3725,14 +3614,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>147638</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>395288</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>595313</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -3752,8 +3641,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7005638" y="4000500"/>
-          <a:ext cx="2305050" cy="1581150"/>
+          <a:off x="8234363" y="3943350"/>
+          <a:ext cx="1962150" cy="1638300"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3855,16 +3744,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3879,7 +3768,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6029325" y="4476751"/>
+          <a:off x="7219950" y="4505326"/>
           <a:ext cx="1952625" cy="228599"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3926,16 +3815,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>147638</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>147638</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>642938</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>652463</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3953,8 +3842,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7005638" y="3981451"/>
-          <a:ext cx="0" cy="495300"/>
+          <a:off x="8186738" y="3943351"/>
+          <a:ext cx="9525" cy="561975"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3982,14 +3871,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>147638</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>652463</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>147638</xdr:colOff>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -4009,8 +3898,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7005638" y="4705350"/>
-          <a:ext cx="0" cy="876300"/>
+          <a:off x="8196263" y="4733925"/>
+          <a:ext cx="38100" cy="847725"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4038,14 +3927,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -4062,7 +3951,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="5581650"/>
+          <a:off x="7172325" y="5581650"/>
           <a:ext cx="2124075" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -5028,9 +4917,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:colOff>657225</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5049,7 +4938,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15135225" y="3405188"/>
-          <a:ext cx="171450" cy="1014412"/>
+          <a:ext cx="609600" cy="1033462"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5136,11 +5025,11 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>381002</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>133351</xdr:colOff>
+      <xdr:colOff>571501</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
@@ -5160,8 +5049,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="14097002" y="4557712"/>
-          <a:ext cx="438149" cy="2466975"/>
+          <a:off x="14097002" y="4576762"/>
+          <a:ext cx="876299" cy="2447925"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5191,10 +5080,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
@@ -5218,8 +5107,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7981950" y="4591051"/>
-          <a:ext cx="4467225" cy="1228724"/>
+          <a:off x="9172575" y="4619626"/>
+          <a:ext cx="3276600" cy="1200149"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5249,14 +5138,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>395287</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>595313</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -5276,8 +5165,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="9413081" y="3898106"/>
-          <a:ext cx="2476500" cy="2681287"/>
+          <a:off x="9827419" y="4312444"/>
+          <a:ext cx="2533650" cy="1795462"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5305,14 +5194,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>147637</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:colOff>666751</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>147638</xdr:rowOff>
     </xdr:to>
@@ -5332,8 +5221,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="9086850" y="3786187"/>
-          <a:ext cx="1157288" cy="5319713"/>
+          <a:off x="9701213" y="4400550"/>
+          <a:ext cx="1157288" cy="4090988"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5361,16 +5250,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>147639</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>652463</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:rowOff>80963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>19049</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5388,8 +5277,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="7005639" y="4243387"/>
-          <a:ext cx="3300411" cy="233363"/>
+          <a:off x="8196263" y="4243388"/>
+          <a:ext cx="2109786" cy="261938"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5417,16 +5306,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>428626</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5441,7 +5330,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8296276" y="10487025"/>
+          <a:off x="11630026" y="10277475"/>
           <a:ext cx="1733550" cy="257174"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5491,16 +5380,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5515,7 +5404,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14058900" y="13277850"/>
+          <a:off x="11334750" y="12706350"/>
           <a:ext cx="1695450" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -5565,16 +5454,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5586,17 +5475,19 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="222" idx="0"/>
+          <a:stCxn id="222" idx="1"/>
           <a:endCxn id="188" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5229225" y="10148888"/>
-          <a:ext cx="3933826" cy="338137"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="8101013" y="5881687"/>
+          <a:ext cx="361950" cy="8429626"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -5621,16 +5512,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5645,7 +5536,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10410825" y="11077575"/>
+          <a:off x="13744575" y="11506200"/>
           <a:ext cx="2324100" cy="257174"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5695,16 +5586,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5719,7 +5610,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10353675" y="11791950"/>
+          <a:off x="12430125" y="11144250"/>
           <a:ext cx="2324100" cy="257174"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5769,16 +5660,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5793,8 +5684,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13954125" y="12077700"/>
-          <a:ext cx="2324100" cy="257174"/>
+          <a:off x="17668875" y="10696575"/>
+          <a:ext cx="2000250" cy="257174"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5843,16 +5734,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5867,7 +5758,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10572750" y="12249150"/>
+          <a:off x="11125200" y="11487150"/>
           <a:ext cx="1981200" cy="257174"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5918,15 +5809,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5941,7 +5832,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10744200" y="12706350"/>
+          <a:off x="10363200" y="10982325"/>
           <a:ext cx="1647825" cy="257174"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5991,16 +5882,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>428626</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6018,8 +5909,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10029826" y="10615612"/>
-          <a:ext cx="5086349" cy="1462088"/>
+          <a:off x="13363576" y="10406062"/>
+          <a:ext cx="5305424" cy="290513"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -6047,16 +5938,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6071,7 +5962,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17097375" y="10734675"/>
+          <a:off x="10210800" y="9210675"/>
           <a:ext cx="1066800" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -6125,74 +6016,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>180976</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="261" name="连接符: 肘形 260">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C57F1F3-0E6A-4C70-9C15-8E2E58272A0E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="223" idx="2"/>
-          <a:endCxn id="222" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="5643564" y="8005763"/>
-          <a:ext cx="666749" cy="3362325"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6210,8 +6043,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6324601" y="8672513"/>
-          <a:ext cx="3286125" cy="338137"/>
+          <a:off x="7639051" y="8262938"/>
+          <a:ext cx="1609725" cy="538162"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -6239,15 +6072,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6260,19 +6093,17 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="90" idx="1"/>
-          <a:endCxn id="222" idx="2"/>
+          <a:stCxn id="90" idx="2"/>
+          <a:endCxn id="222" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="3362325" y="9072562"/>
-          <a:ext cx="1257300" cy="1076325"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 118182"/>
-          </a:avLst>
+        <a:xfrm rot="5400000">
+          <a:off x="4931569" y="9089231"/>
+          <a:ext cx="766763" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -6297,15 +6128,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>681038</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>41</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6318,17 +6149,19 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="47" idx="1"/>
+          <a:stCxn id="47" idx="2"/>
           <a:endCxn id="10" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="8705850" y="7248526"/>
-          <a:ext cx="990600" cy="333374"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2850357" y="6326982"/>
+          <a:ext cx="276224" cy="1871662"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -6353,16 +6186,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>681039</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>681037</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6379,9 +6212,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="8089107" y="6950869"/>
-          <a:ext cx="1762125" cy="2624138"/>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2002631" y="7174707"/>
+          <a:ext cx="2114550" cy="2014537"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -6412,15 +6245,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6438,8 +6271,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="8634412" y="6196012"/>
-          <a:ext cx="723900" cy="6696075"/>
+          <a:off x="6253162" y="8396287"/>
+          <a:ext cx="647700" cy="1895475"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -6469,16 +6302,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6490,17 +6323,19 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="225" idx="0"/>
-          <a:endCxn id="228" idx="3"/>
+          <a:stCxn id="225" idx="3"/>
+          <a:endCxn id="228" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipV="1">
-          <a:off x="12784931" y="11156156"/>
-          <a:ext cx="2071688" cy="2171700"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
+        <a:xfrm flipV="1">
+          <a:off x="13030200" y="11634787"/>
+          <a:ext cx="714375" cy="1209676"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -6525,16 +6360,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>428627</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>219076</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6546,17 +6381,19 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="589" idx="2"/>
+          <a:stCxn id="589" idx="3"/>
           <a:endCxn id="188" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="9708358" y="5017294"/>
-          <a:ext cx="5919787" cy="5276849"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
+        <a:xfrm flipH="1">
+          <a:off x="13363576" y="4576763"/>
+          <a:ext cx="3152774" cy="5829299"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -7251"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -6582,15 +6419,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6605,7 +6442,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14535150" y="4419600"/>
+          <a:off x="14973300" y="4438650"/>
           <a:ext cx="1543050" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -6656,16 +6493,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6680,7 +6517,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16230600" y="9315450"/>
+          <a:off x="17068800" y="5924550"/>
           <a:ext cx="1895475" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6736,10 +6573,10 @@
       <xdr:rowOff>138113</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>33338</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>185738</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6758,7 +6595,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13849350" y="3938588"/>
-          <a:ext cx="3328988" cy="5376862"/>
+          <a:ext cx="4167188" cy="1985962"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -6787,15 +6624,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6813,8 +6650,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="13375481" y="6627018"/>
-          <a:ext cx="4786313" cy="923925"/>
+          <a:off x="15718631" y="4741068"/>
+          <a:ext cx="1376363" cy="1323975"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -6842,16 +6679,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>638174</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6866,7 +6703,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8867774" y="13601700"/>
+          <a:off x="7953374" y="12715875"/>
           <a:ext cx="2590801" cy="257174"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6917,15 +6754,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>4763</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>223838</xdr:colOff>
+      <xdr:colOff>119063</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6943,8 +6780,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5734050" y="11225213"/>
-          <a:ext cx="2033588" cy="261936"/>
+          <a:off x="5524500" y="11120438"/>
+          <a:ext cx="2138363" cy="328611"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -6973,15 +6810,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>638176</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6993,14 +6830,128 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="252" idx="1"/>
+          <a:stCxn id="252" idx="2"/>
           <a:endCxn id="978" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="8860632" y="9684544"/>
+          <a:ext cx="2081212" cy="1685925"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="753" name="连接符: 肘形 752">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0CC3950-49CA-4D95-B541-CA7425085B86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="111" idx="1"/>
+          <a:endCxn id="978" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="9163051" y="10872788"/>
-          <a:ext cx="7934325" cy="733424"/>
+          <a:off x="6267450" y="9796462"/>
+          <a:ext cx="95250" cy="1771649"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 340000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="767" name="连接符: 肘形 766">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E3DB9EC-7436-401F-8A31-CD7376880DA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="91" idx="2"/>
+          <a:endCxn id="111" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="8081963" y="8501062"/>
+          <a:ext cx="609600" cy="1724026"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -7030,35 +6981,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>80963</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="753" name="连接符: 肘形 752">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0CC3950-49CA-4D95-B541-CA7425085B86}"/>
+        <xdr:cNvPr id="781" name="连接符: 肘形 780">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73A5726B-01F7-4273-97D0-0277E3745149}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="111" idx="1"/>
-          <a:endCxn id="978" idx="0"/>
+          <a:stCxn id="252" idx="3"/>
+          <a:endCxn id="240" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="9163050" y="10034588"/>
-          <a:ext cx="2019300" cy="1571624"/>
+        <a:xfrm>
+          <a:off x="11277600" y="9348788"/>
+          <a:ext cx="6391275" cy="1476374"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -7088,352 +7039,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>133351</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="767" name="连接符: 肘形 766">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E3DB9EC-7436-401F-8A31-CD7376880DA3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="91" idx="3"/>
-          <a:endCxn id="111" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10420351" y="9139238"/>
-          <a:ext cx="1924049" cy="766762"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>504826</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>485776</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>80961</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="781" name="连接符: 肘形 780">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73A5726B-01F7-4273-97D0-0277E3745149}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="252" idx="2"/>
-          <a:endCxn id="240" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="16356807" y="10932318"/>
-          <a:ext cx="1195387" cy="1352550"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>428626</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="932" name="直接箭头连接符 931">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2D9BCAB-1534-45AD-B9D9-F1EA010A1B61}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="188" idx="3"/>
-          <a:endCxn id="228" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10029826" y="10615612"/>
-          <a:ext cx="1543049" cy="461963"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="935" name="直接箭头连接符 934">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27BA2BFA-3C04-4963-94A0-70F9C3CC62AB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="188" idx="2"/>
-          <a:endCxn id="233" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9163051" y="10744199"/>
-          <a:ext cx="2352674" cy="1047751"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>595313</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="936" name="直接箭头连接符 935">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{026F5925-BB5C-40C7-B521-D8D56FBC37BD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="188" idx="2"/>
-          <a:endCxn id="242" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9163051" y="10744199"/>
-          <a:ext cx="2405062" cy="1962151"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="940" name="直接箭头连接符 939">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A64617A5-EB54-4F9B-9782-158F37CB426D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="188" idx="2"/>
-          <a:endCxn id="241" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9163051" y="10744199"/>
-          <a:ext cx="2400299" cy="1504951"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7448,7 +7063,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6372225" y="11487149"/>
+          <a:off x="6267450" y="11449049"/>
           <a:ext cx="2790825" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="snip2SameRect">
@@ -7499,72 +7114,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="1020" name="直接箭头连接符 1019">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0451AA8-E439-4B80-B1FB-195FF96E2607}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="111" idx="2"/>
-          <a:endCxn id="240" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12344400" y="10163175"/>
-          <a:ext cx="1609725" cy="2043112"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>581026</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>523876</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7579,7 +7138,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4695826" y="13620750"/>
+          <a:off x="5057776" y="12687300"/>
           <a:ext cx="2000250" cy="257174"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7629,16 +7188,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>419101</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7653,7 +7212,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6858000" y="13630275"/>
+          <a:off x="6753225" y="12353925"/>
           <a:ext cx="1790701" cy="257174"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7704,15 +7263,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>223838</xdr:colOff>
+      <xdr:colOff>119063</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7730,8 +7289,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7767638" y="11725274"/>
-          <a:ext cx="2395537" cy="1876426"/>
+          <a:off x="7662863" y="11687174"/>
+          <a:ext cx="1585912" cy="1028701"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7760,15 +7319,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>209551</xdr:colOff>
+      <xdr:colOff>571501</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>223838</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>119063</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7786,8 +7345,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5695951" y="11725274"/>
-          <a:ext cx="2071687" cy="1895476"/>
+          <a:off x="6057901" y="11687174"/>
+          <a:ext cx="1604962" cy="1000126"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7816,15 +7375,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>209551</xdr:colOff>
+      <xdr:colOff>104776</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>223838</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>119063</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7842,8 +7401,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7753351" y="11725274"/>
-          <a:ext cx="14287" cy="1905001"/>
+          <a:off x="7648576" y="11687174"/>
+          <a:ext cx="14287" cy="666751"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7871,16 +7430,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>485776</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>342901</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>176214</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7897,9 +7456,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="11458576" y="13415963"/>
-          <a:ext cx="2600325" cy="314324"/>
+        <a:xfrm rot="10800000">
+          <a:off x="10544176" y="12844463"/>
+          <a:ext cx="790575" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -7927,10 +7486,1575 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="201" name="连接符: 肘形 200">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D58D035A-FAFD-4849-BCC8-D93FE49DE051}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="111" idx="3"/>
+          <a:endCxn id="240" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8686800" y="9796463"/>
+          <a:ext cx="10982325" cy="1028699"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 102082"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="402" name="连接符: 肘形 401">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9009441-C310-4F71-9362-397702574D20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="1"/>
+          <a:endCxn id="90" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5629275" y="8262938"/>
+          <a:ext cx="657226" cy="538162"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104777</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="449" name="连接符: 肘形 448">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DF6E693-A783-450E-989F-835E71B8DBA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="1"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="6962777" y="3810000"/>
+          <a:ext cx="400049" cy="4324349"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="658" name="直接箭头连接符 657">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD15B26A-1F7D-42CA-8915-7B1200F63988}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="223" idx="2"/>
+          <a:endCxn id="222" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4067175" y="9448801"/>
+          <a:ext cx="0" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="779" name="矩形 778">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{958E6F2E-0767-40EA-B35F-0A52E6111261}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17583149" y="11315700"/>
+          <a:ext cx="2181225" cy="257174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>EmbeddedWebApplicationContext</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>157162</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="780" name="直接箭头连接符 779">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F5ED019-38FE-41DB-990E-B9746FD33617}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="240" idx="2"/>
+          <a:endCxn id="779" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18669000" y="10953749"/>
+          <a:ext cx="4762" cy="361951"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="860" name="矩形 859">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F1EC7A3-32F6-4C43-8C32-1E12E21E524F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15773400" y="12049125"/>
+          <a:ext cx="3171825" cy="257174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AnnotationConfigEmbeddedWebApplicationContext</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="861" name="矩形 860">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A412B61-788A-46E5-A0F6-838F5E455516}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19173825" y="12058650"/>
+          <a:ext cx="2428875" cy="257174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>XmlEmbeddedWebApplicationContext</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>214313</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>157162</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="862" name="直接箭头连接符 861">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{013F1B8C-7AB5-49D3-B2A8-D0C941C5E3A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="779" idx="2"/>
+          <a:endCxn id="860" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="17359313" y="11572874"/>
+          <a:ext cx="1314449" cy="476251"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>157162</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>500063</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="865" name="直接箭头连接符 864">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92A9413F-188F-4F88-8A94-3A0DF23ECBD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="779" idx="2"/>
+          <a:endCxn id="861" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18673762" y="11572874"/>
+          <a:ext cx="1714501" cy="485776"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1106" name="矩形 1105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48C96752-B2A5-418E-AC12-999970161EA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9877426" y="12049125"/>
+          <a:ext cx="1885950" cy="257174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>StaticWebApplicationContext</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>152402</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="1130" name="连接符: 肘形 1129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26F7C6D8-D993-4D25-A477-C5D6B9D37427}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="228" idx="0"/>
+          <a:endCxn id="188" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="13215938" y="9815513"/>
+          <a:ext cx="971551" cy="2409824"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>214313</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="1152" name="直接箭头连接符 1151">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B02CF89-6DF0-492C-A781-632AC5905992}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="242" idx="2"/>
+          <a:endCxn id="1106" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10820401" y="11239499"/>
+          <a:ext cx="366712" cy="809626"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="1191" name="连接符: 肘形 1190">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D35FD0-9157-4269-8BE7-5DF243004B5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="111" idx="3"/>
+          <a:endCxn id="1106" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8686800" y="9796463"/>
+          <a:ext cx="1190626" cy="2381249"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="1204" name="连接符: 肘形 1203">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37710F1B-B18D-4949-AE31-C3695BAF53A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="252" idx="1"/>
+          <a:endCxn id="1106" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="9877426" y="9348788"/>
+          <a:ext cx="333374" cy="2828924"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 168572"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>214313</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="1515" name="连接符: 肘形 1514">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8896EF20-8F81-4B00-A2BB-A396E704E556}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="242" idx="0"/>
+          <a:endCxn id="188" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="11120438" y="10472738"/>
+          <a:ext cx="576263" cy="442913"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="1518" name="连接符: 肘形 1517">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C5B3E91-C676-4BAA-A6C0-000059927418}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="241" idx="0"/>
+          <a:endCxn id="188" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="11830050" y="10820400"/>
+          <a:ext cx="952501" cy="381001"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>152402</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="1532" name="连接符: 肘形 1531">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{443C47DC-2101-400F-9A3E-B09D739AEE95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="233" idx="0"/>
+          <a:endCxn id="188" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="12739688" y="10291763"/>
+          <a:ext cx="609601" cy="1095374"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形: 圆角 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E207A3F5-3AA1-48F7-BCAA-83A2784E1EB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1447800" y="504825"/>
+          <a:ext cx="1447800" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>EnvironmentCapable</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形: 圆角 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17D5C442-2879-4C83-8F9C-A7DC11BF09AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3371850" y="533400"/>
+          <a:ext cx="1524000" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>BeanDefinitionReader</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形: 剪去顶角 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26444FA5-FEA2-4E8F-97A1-94D2343B0E39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057401" y="1266825"/>
+          <a:ext cx="1962150" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AbstractBeanDefinitionReader</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="连接符: 肘形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67D115E1-1518-4688-95C3-2027474E9F7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="4" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3348038" y="481013"/>
+          <a:ext cx="476250" cy="1095374"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295277</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="连接符: 肘形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4D5C1F3-0B25-4327-AF2E-B306E242452D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="4" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2352676" y="581024"/>
+          <a:ext cx="504825" cy="866776"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="矩形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C690A0E7-A9BF-4478-83AC-7C0F2478EFDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2181225" y="1838325"/>
+          <a:ext cx="1685925" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>XmlBeanDefinitionReader</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>280988</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直接箭头连接符 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B47DFB1-32DB-4ED8-B243-BFB71982B0B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="1"/>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3024188" y="1504950"/>
+          <a:ext cx="14288" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9842,7 +10966,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9922,7 +11046,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10566,7 +11690,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10775,7 +11899,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11359,7 +12483,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -12117,8 +13241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C34" workbookViewId="0">
-      <selection activeCell="R45" sqref="R45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="S48" sqref="S48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12131,6 +13255,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F40"/>
   <sheetViews>
@@ -12473,7 +13613,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -12490,7 +13630,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -12506,7 +13646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -12522,7 +13662,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -12538,7 +13678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -12554,7 +13694,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/spring.xlsx
+++ b/spring.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JAVA\work\github\wl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\github\wl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="225" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UML" sheetId="8" r:id="rId1"/>
-    <sheet name="UML-READER" sheetId="9" r:id="rId2"/>
-    <sheet name="invoke" sheetId="7" r:id="rId3"/>
-    <sheet name="IOC" sheetId="1" r:id="rId4"/>
-    <sheet name="BeanRegistry" sheetId="5" r:id="rId5"/>
-    <sheet name="other" sheetId="4" r:id="rId6"/>
-    <sheet name="FactoryBean" sheetId="3" r:id="rId7"/>
-    <sheet name="Aware" sheetId="2" r:id="rId8"/>
-    <sheet name="MVC" sheetId="6" r:id="rId9"/>
+    <sheet name="UML-thread" sheetId="10" r:id="rId2"/>
+    <sheet name="UML-READER" sheetId="9" r:id="rId3"/>
+    <sheet name="invoke" sheetId="7" r:id="rId4"/>
+    <sheet name="IOC" sheetId="1" r:id="rId5"/>
+    <sheet name="BeanRegistry" sheetId="5" r:id="rId6"/>
+    <sheet name="other" sheetId="4" r:id="rId7"/>
+    <sheet name="FactoryBean" sheetId="3" r:id="rId8"/>
+    <sheet name="Aware" sheetId="2" r:id="rId9"/>
+    <sheet name="MVC" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -161,8 +162,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,7 +322,7 @@
         <xdr:cNvPr id="2" name="矩形: 剪去顶角 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95E15875-D3FF-423C-81C3-8810878762FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95E15875-D3FF-423C-81C3-8810878762FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -381,7 +382,7 @@
         <xdr:cNvPr id="3" name="矩形: 圆角 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE72AFDD-F2C5-4459-A303-182244F8D972}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE72AFDD-F2C5-4459-A303-182244F8D972}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -455,7 +456,7 @@
         <xdr:cNvPr id="4" name="矩形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C42014-EF19-4E90-A054-1B182F6B748A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49C42014-EF19-4E90-A054-1B182F6B748A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -515,7 +516,7 @@
         <xdr:cNvPr id="5" name="矩形: 圆角 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88B55E0F-9097-4C98-B3F8-05C544A730B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{88B55E0F-9097-4C98-B3F8-05C544A730B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -593,7 +594,7 @@
         <xdr:cNvPr id="6" name="矩形: 圆角 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2295367-659C-4CFF-B01D-D94182207F14}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2295367-659C-4CFF-B01D-D94182207F14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -664,7 +665,7 @@
         <xdr:cNvPr id="7" name="矩形: 圆角 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{899A0720-AB99-4722-BCDB-486EE642846D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{899A0720-AB99-4722-BCDB-486EE642846D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -735,7 +736,7 @@
         <xdr:cNvPr id="8" name="矩形: 圆角 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62C28AC4-7A6C-4636-A721-480688A5E5A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{62C28AC4-7A6C-4636-A721-480688A5E5A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -813,7 +814,7 @@
         <xdr:cNvPr id="9" name="矩形: 圆角 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{579E860A-DABF-4FED-A773-20942E9480F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{579E860A-DABF-4FED-A773-20942E9480F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -891,7 +892,7 @@
         <xdr:cNvPr id="10" name="矩形: 圆角 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2099BF60-4FF9-44B0-B48E-C074393D4795}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2099BF60-4FF9-44B0-B48E-C074393D4795}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -965,7 +966,7 @@
         <xdr:cNvPr id="12" name="直接箭头连接符 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E690217C-9601-4818-90B2-5E8C08D9F785}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E690217C-9601-4818-90B2-5E8C08D9F785}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1021,7 +1022,7 @@
         <xdr:cNvPr id="13" name="直接箭头连接符 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F3A8038-1C17-45AF-8F60-51C4DC14CF99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2F3A8038-1C17-45AF-8F60-51C4DC14CF99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1077,7 +1078,7 @@
         <xdr:cNvPr id="17" name="直接箭头连接符 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABC8E1E3-324F-46FD-B2E7-85ED9B86CE1E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ABC8E1E3-324F-46FD-B2E7-85ED9B86CE1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1133,7 +1134,7 @@
         <xdr:cNvPr id="18" name="直接箭头连接符 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08391340-1786-4E40-9203-CEBAAFA94CE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{08391340-1786-4E40-9203-CEBAAFA94CE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1189,7 +1190,7 @@
         <xdr:cNvPr id="19" name="直接箭头连接符 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C12DA565-88C0-432A-99E5-E5CC446BFA28}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C12DA565-88C0-432A-99E5-E5CC446BFA28}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1245,7 +1246,7 @@
         <xdr:cNvPr id="20" name="直接箭头连接符 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB151931-AD4E-4C5E-B8B0-537D2D01AA37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DB151931-AD4E-4C5E-B8B0-537D2D01AA37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1298,7 +1299,7 @@
         <xdr:cNvPr id="47" name="矩形: 圆角 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7553116D-0ACB-43B2-A0AA-D56C860F30EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7553116D-0ACB-43B2-A0AA-D56C860F30EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1372,7 +1373,7 @@
         <xdr:cNvPr id="52" name="矩形: 圆角 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F5181FA-4789-4D49-973A-043585405490}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8F5181FA-4789-4D49-973A-043585405490}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1443,7 +1444,7 @@
         <xdr:cNvPr id="54" name="直接箭头连接符 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FDDFF03-EEF4-495C-B1A7-F058235446BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7FDDFF03-EEF4-495C-B1A7-F058235446BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1499,7 +1500,7 @@
         <xdr:cNvPr id="57" name="直接箭头连接符 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94942A3A-B5CC-4669-ADA5-E11A6A67B3B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{94942A3A-B5CC-4669-ADA5-E11A6A67B3B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1555,7 +1556,7 @@
         <xdr:cNvPr id="61" name="矩形: 圆角 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F1573FE-0BF4-4BF7-B106-D882C504064A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F1573FE-0BF4-4BF7-B106-D882C504064A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1626,7 +1627,7 @@
         <xdr:cNvPr id="63" name="矩形: 圆角 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4258E007-4881-4255-8928-DBE5A568A05A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4258E007-4881-4255-8928-DBE5A568A05A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1697,7 +1698,7 @@
         <xdr:cNvPr id="64" name="直接箭头连接符 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF4AA2D7-6FE7-43D0-B613-3D9D61C5FD6A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF4AA2D7-6FE7-43D0-B613-3D9D61C5FD6A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1753,7 +1754,7 @@
         <xdr:cNvPr id="67" name="直接箭头连接符 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57E7A432-60E4-46D0-B1E3-4568C733834E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{57E7A432-60E4-46D0-B1E3-4568C733834E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1809,7 +1810,7 @@
         <xdr:cNvPr id="90" name="矩形: 圆角 89">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB6DC0C0-6D7B-479B-82A2-1294D7AAF38D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AB6DC0C0-6D7B-479B-82A2-1294D7AAF38D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1883,7 +1884,7 @@
         <xdr:cNvPr id="91" name="矩形: 圆角 90">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0D5235B-69AB-4671-AD91-C8104CDF0668}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E0D5235B-69AB-4671-AD91-C8104CDF0668}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1957,7 +1958,7 @@
         <xdr:cNvPr id="111" name="矩形: 圆角 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0049CA95-814A-4FF0-A995-9F16D32930FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0049CA95-814A-4FF0-A995-9F16D32930FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2031,7 +2032,7 @@
         <xdr:cNvPr id="129" name="矩形: 圆角 128">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CC23C70-7B2A-4E2E-89A2-1AD7FB23E94B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1CC23C70-7B2A-4E2E-89A2-1AD7FB23E94B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2109,7 +2110,7 @@
         <xdr:cNvPr id="130" name="直接箭头连接符 129">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE1C02BA-0971-453F-B2AD-37B6CAB4106C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE1C02BA-0971-453F-B2AD-37B6CAB4106C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2165,7 +2166,7 @@
         <xdr:cNvPr id="218" name="矩形 217">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E177C91F-F96D-4BD1-B03B-870DD329FF99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E177C91F-F96D-4BD1-B03B-870DD329FF99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2239,7 +2240,7 @@
         <xdr:cNvPr id="219" name="矩形: 剪去顶角 218">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94724472-07CE-47F6-B17F-EFFAC7A84B63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{94724472-07CE-47F6-B17F-EFFAC7A84B63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2313,7 +2314,7 @@
         <xdr:cNvPr id="220" name="矩形: 剪去顶角 219">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A37ADD7-F3E5-4F32-9B31-012978051F82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2A37ADD7-F3E5-4F32-9B31-012978051F82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2387,7 +2388,7 @@
         <xdr:cNvPr id="221" name="矩形: 剪去顶角 220">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79D30B0C-B987-4274-804F-0727AC0267C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79D30B0C-B987-4274-804F-0727AC0267C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2461,7 +2462,7 @@
         <xdr:cNvPr id="222" name="矩形: 剪去顶角 221">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D16DDF9-B3AB-4F9B-8528-EE84EDEAF2DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D16DDF9-B3AB-4F9B-8528-EE84EDEAF2DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2535,7 +2536,7 @@
         <xdr:cNvPr id="223" name="矩形 222">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D82ED435-94BA-4E32-926D-B3C92B78E387}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D82ED435-94BA-4E32-926D-B3C92B78E387}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2613,7 +2614,7 @@
         <xdr:cNvPr id="245" name="矩形: 圆角 244">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{510C1918-1A03-4A8E-B10B-630CD3E0C9E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{510C1918-1A03-4A8E-B10B-630CD3E0C9E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2691,7 +2692,7 @@
         <xdr:cNvPr id="246" name="直接箭头连接符 245">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22D06859-3300-4872-8929-BA139A9F03E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{22D06859-3300-4872-8929-BA139A9F03E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2747,7 +2748,7 @@
         <xdr:cNvPr id="263" name="直接箭头连接符 262">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B718375-DA74-470A-991A-FC4446F97A94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B718375-DA74-470A-991A-FC4446F97A94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2803,7 +2804,7 @@
         <xdr:cNvPr id="266" name="直接箭头连接符 265">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A8A1D98-90F8-44ED-9779-692D487B9F3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A8A1D98-90F8-44ED-9779-692D487B9F3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2859,7 +2860,7 @@
         <xdr:cNvPr id="269" name="矩形: 圆角 268">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DC55EEC-ADA0-4E2C-A444-F6734282D33F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4DC55EEC-ADA0-4E2C-A444-F6734282D33F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2937,7 +2938,7 @@
         <xdr:cNvPr id="270" name="直接箭头连接符 269">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77045E4E-0DA0-4043-86C8-91F5EA1585B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{77045E4E-0DA0-4043-86C8-91F5EA1585B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2993,7 +2994,7 @@
         <xdr:cNvPr id="273" name="矩形: 圆角 272">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C6BA6A9-2B58-458E-8833-95B3B8093E44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C6BA6A9-2B58-458E-8833-95B3B8093E44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3071,7 +3072,7 @@
         <xdr:cNvPr id="275" name="直接箭头连接符 274">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67E95CA3-0D71-4171-A97E-DFC00994C260}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{67E95CA3-0D71-4171-A97E-DFC00994C260}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3127,7 +3128,7 @@
         <xdr:cNvPr id="279" name="矩形: 圆角 278">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29DE0293-D941-4990-B5BC-42F38D4085A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29DE0293-D941-4990-B5BC-42F38D4085A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3205,7 +3206,7 @@
         <xdr:cNvPr id="280" name="直接箭头连接符 279">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A73D1B61-428A-476C-9DFC-517C9306D970}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A73D1B61-428A-476C-9DFC-517C9306D970}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3261,7 +3262,7 @@
         <xdr:cNvPr id="286" name="直接箭头连接符 285">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A2C0EEC-B9C2-4920-8BE6-C06019815892}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A2C0EEC-B9C2-4920-8BE6-C06019815892}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3317,7 +3318,7 @@
         <xdr:cNvPr id="290" name="直接箭头连接符 289">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71687FD3-5A55-49A7-8AD4-EE4F72C1A158}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{71687FD3-5A55-49A7-8AD4-EE4F72C1A158}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3373,7 +3374,7 @@
         <xdr:cNvPr id="307" name="矩形 306">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0DAB50E-B184-487D-8CC0-12E6B0821AB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0DAB50E-B184-487D-8CC0-12E6B0821AB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3447,7 +3448,7 @@
         <xdr:cNvPr id="308" name="直接箭头连接符 307">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8A9AC07-4D5C-4291-A93D-4FAE300002B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F8A9AC07-4D5C-4291-A93D-4FAE300002B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3503,7 +3504,7 @@
         <xdr:cNvPr id="349" name="矩形: 剪去顶角 348">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D005BAE-B7C7-45F4-8CAC-532CA08CBCED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D005BAE-B7C7-45F4-8CAC-532CA08CBCED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3574,7 +3575,7 @@
         <xdr:cNvPr id="351" name="直接箭头连接符 350">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC9E6F73-9A5C-4249-A3F0-B7CFC3A747EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BC9E6F73-9A5C-4249-A3F0-B7CFC3A747EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3630,7 +3631,7 @@
         <xdr:cNvPr id="354" name="直接箭头连接符 353">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F77B0B39-580C-4052-BA80-82EF2F997560}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F77B0B39-580C-4052-BA80-82EF2F997560}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3686,7 +3687,7 @@
         <xdr:cNvPr id="357" name="矩形: 圆角 356">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0CF8657-FBE9-4CDD-B60C-D6BCB06DA218}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0CF8657-FBE9-4CDD-B60C-D6BCB06DA218}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3760,7 +3761,7 @@
         <xdr:cNvPr id="386" name="矩形: 圆角 385">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C0D6949-4AEC-413C-B37F-DF8FC4460078}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7C0D6949-4AEC-413C-B37F-DF8FC4460078}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3831,7 +3832,7 @@
         <xdr:cNvPr id="387" name="直接箭头连接符 386">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{847580BC-7DBC-4F4C-8DF4-D2E263145EEA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{847580BC-7DBC-4F4C-8DF4-D2E263145EEA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3887,7 +3888,7 @@
         <xdr:cNvPr id="424" name="直接箭头连接符 423">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38BE21D3-7362-4403-9468-9D5B64C54F49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{38BE21D3-7362-4403-9468-9D5B64C54F49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3943,7 +3944,7 @@
         <xdr:cNvPr id="501" name="矩形: 圆角 500">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{114DFEE6-6A41-45A4-AFBC-AB0C4953BFE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{114DFEE6-6A41-45A4-AFBC-AB0C4953BFE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4015,7 +4016,7 @@
         <xdr:cNvPr id="542" name="矩形: 剪去顶角 541">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AACA730A-4E51-4329-9DF4-E497476487DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AACA730A-4E51-4329-9DF4-E497476487DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4086,7 +4087,7 @@
         <xdr:cNvPr id="549" name="矩形: 圆角 548">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A8C7A5A-9B5A-48D6-B14F-1E50204DCA32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A8C7A5A-9B5A-48D6-B14F-1E50204DCA32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4160,7 +4161,7 @@
         <xdr:cNvPr id="551" name="矩形 550">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F30B862D-22E8-487B-8D4B-CCE0F0F104AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F30B862D-22E8-487B-8D4B-CCE0F0F104AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4234,7 +4235,7 @@
         <xdr:cNvPr id="552" name="矩形 551">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{215158FE-1407-4446-8A80-C678C35471FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{215158FE-1407-4446-8A80-C678C35471FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4308,7 +4309,7 @@
         <xdr:cNvPr id="553" name="直接箭头连接符 552">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6CF9298-D9E5-4837-B30B-28BFE43ABD84}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6CF9298-D9E5-4837-B30B-28BFE43ABD84}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4364,7 +4365,7 @@
         <xdr:cNvPr id="568" name="直接箭头连接符 567">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F97DACE-3A39-4DA4-B31B-91651A9A19E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7F97DACE-3A39-4DA4-B31B-91651A9A19E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4420,7 +4421,7 @@
         <xdr:cNvPr id="573" name="矩形: 剪去顶角 572">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62A4178C-02B3-411F-B40C-D386AA75CC92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{62A4178C-02B3-411F-B40C-D386AA75CC92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4498,7 +4499,7 @@
         <xdr:cNvPr id="574" name="直接箭头连接符 573">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{442C9B50-8A48-4713-9AAF-B3B6A163F89E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{442C9B50-8A48-4713-9AAF-B3B6A163F89E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4554,7 +4555,7 @@
         <xdr:cNvPr id="579" name="直接箭头连接符 578">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64830A96-C14E-4C0E-8D0D-8F8312937299}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64830A96-C14E-4C0E-8D0D-8F8312937299}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4610,7 +4611,7 @@
         <xdr:cNvPr id="622" name="直接箭头连接符 621">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62F32B22-58AF-4276-99A9-7093856CD2A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{62F32B22-58AF-4276-99A9-7093856CD2A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4666,7 +4667,7 @@
         <xdr:cNvPr id="700" name="矩形 699">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F10523B5-8C9B-4766-9B60-E8F9220BFACF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F10523B5-8C9B-4766-9B60-E8F9220BFACF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4740,7 +4741,7 @@
         <xdr:cNvPr id="710" name="直接箭头连接符 709">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B08C601F-1658-4085-BECB-81C2174A999B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B08C601F-1658-4085-BECB-81C2174A999B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4796,7 +4797,7 @@
         <xdr:cNvPr id="99" name="矩形 98">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03D29434-B28F-4D4B-8264-F5816F57329B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{03D29434-B28F-4D4B-8264-F5816F57329B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4870,7 +4871,7 @@
         <xdr:cNvPr id="100" name="直接箭头连接符 99">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{160D43F7-DA12-49FD-8059-9CA72F8135B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{160D43F7-DA12-49FD-8059-9CA72F8135B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4926,7 +4927,7 @@
         <xdr:cNvPr id="34" name="连接符: 肘形 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F58112E7-6539-4791-B2EF-C03CFA481B94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F58112E7-6539-4791-B2EF-C03CFA481B94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4982,7 +4983,7 @@
         <xdr:cNvPr id="113" name="连接符: 肘形 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47A2A9A2-6F00-4AA3-8C73-69C0E7B442BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47A2A9A2-6F00-4AA3-8C73-69C0E7B442BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5038,7 +5039,7 @@
         <xdr:cNvPr id="117" name="连接符: 肘形 116">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BB859DD-60DD-4B4E-874D-A9344EE149BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3BB859DD-60DD-4B4E-874D-A9344EE149BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5096,7 +5097,7 @@
         <xdr:cNvPr id="123" name="连接符: 肘形 122">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{562516C3-329D-40E7-A2A0-AD33184EE97A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{562516C3-329D-40E7-A2A0-AD33184EE97A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5154,7 +5155,7 @@
         <xdr:cNvPr id="127" name="连接符: 肘形 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CFAF20E-6C0F-4D8C-AEEC-F1DA471400D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8CFAF20E-6C0F-4D8C-AEEC-F1DA471400D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5210,7 +5211,7 @@
         <xdr:cNvPr id="131" name="连接符: 肘形 130">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09AB82BF-37A5-4236-AE69-B215E52804AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{09AB82BF-37A5-4236-AE69-B215E52804AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5266,7 +5267,7 @@
         <xdr:cNvPr id="147" name="连接符: 肘形 146">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD867E60-C32E-43D8-B3EC-6628ECEFB94B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD867E60-C32E-43D8-B3EC-6628ECEFB94B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5322,7 +5323,7 @@
         <xdr:cNvPr id="188" name="矩形 187">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D7E9829-11FC-4669-9374-A949FEE04777}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D7E9829-11FC-4669-9374-A949FEE04777}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5396,7 +5397,7 @@
         <xdr:cNvPr id="225" name="矩形: 圆角 224">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8BA5493-E4F9-48CD-BBE0-563AF8386534}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D8BA5493-E4F9-48CD-BBE0-563AF8386534}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5470,7 +5471,7 @@
         <xdr:cNvPr id="226" name="连接符: 肘形 225">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D60FCDF-F077-4EF9-BDA9-AE3DC591BD28}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D60FCDF-F077-4EF9-BDA9-AE3DC591BD28}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5528,7 +5529,7 @@
         <xdr:cNvPr id="228" name="矩形 227">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A319D03F-AA84-4A1C-9F9F-B840482162ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A319D03F-AA84-4A1C-9F9F-B840482162ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5602,7 +5603,7 @@
         <xdr:cNvPr id="233" name="矩形 232">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF748A6C-F28A-40DE-8B31-146FF0534336}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF748A6C-F28A-40DE-8B31-146FF0534336}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5676,7 +5677,7 @@
         <xdr:cNvPr id="240" name="矩形 239">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3603F5EC-67B9-4EF5-91BF-2D0340014A0B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3603F5EC-67B9-4EF5-91BF-2D0340014A0B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5750,7 +5751,7 @@
         <xdr:cNvPr id="241" name="矩形 240">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA3A36EA-5FDF-4876-A9B5-E932B7D4FAD3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA3A36EA-5FDF-4876-A9B5-E932B7D4FAD3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5824,7 +5825,7 @@
         <xdr:cNvPr id="242" name="矩形 241">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9BAD16E-6625-4FCE-ADEE-6E408F8C7B4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D9BAD16E-6625-4FCE-ADEE-6E408F8C7B4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5898,7 +5899,7 @@
         <xdr:cNvPr id="250" name="连接符: 肘形 249">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A3E03DF-D2C8-42D0-80CB-C76E1C65ADE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2A3E03DF-D2C8-42D0-80CB-C76E1C65ADE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5954,7 +5955,7 @@
         <xdr:cNvPr id="252" name="矩形: 圆角 251">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40624122-1CC3-4C66-9904-7D729F712A3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{40624122-1CC3-4C66-9904-7D729F712A3F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6032,7 +6033,7 @@
         <xdr:cNvPr id="337" name="连接符: 肘形 336">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{080E2180-B080-411A-AE0C-24498AABA715}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{080E2180-B080-411A-AE0C-24498AABA715}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6088,7 +6089,7 @@
         <xdr:cNvPr id="367" name="连接符: 肘形 366">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13DCB2BC-D546-4357-8767-01F5AA8E5569}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{13DCB2BC-D546-4357-8767-01F5AA8E5569}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6144,7 +6145,7 @@
         <xdr:cNvPr id="391" name="连接符: 肘形 390">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEA0B285-C4D0-4F46-B711-DE3F78366BED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEA0B285-C4D0-4F46-B711-DE3F78366BED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6202,7 +6203,7 @@
         <xdr:cNvPr id="394" name="连接符: 肘形 393">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F3CE202-27AF-40FB-B5FB-BD68ABE0E30B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F3CE202-27AF-40FB-B5FB-BD68ABE0E30B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6260,7 +6261,7 @@
         <xdr:cNvPr id="406" name="连接符: 肘形 405">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E82F0260-29CB-4911-8FD4-46B432F5CDC7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E82F0260-29CB-4911-8FD4-46B432F5CDC7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6318,7 +6319,7 @@
         <xdr:cNvPr id="448" name="连接符: 肘形 447">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5735BC96-1F0D-4189-9B8A-943F993EB278}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5735BC96-1F0D-4189-9B8A-943F993EB278}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6376,7 +6377,7 @@
         <xdr:cNvPr id="482" name="连接符: 肘形 481">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0500474E-6C82-4A8C-99F3-039CAF55ABA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0500474E-6C82-4A8C-99F3-039CAF55ABA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6434,7 +6435,7 @@
         <xdr:cNvPr id="589" name="矩形: 圆角 588">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73A362AC-12A5-42CE-999B-DAF270DD25E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73A362AC-12A5-42CE-999B-DAF270DD25E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6509,7 +6510,7 @@
         <xdr:cNvPr id="596" name="矩形 595">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B84F864E-1E10-4B07-BA5F-DCF58683E3E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B84F864E-1E10-4B07-BA5F-DCF58683E3E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6583,7 +6584,7 @@
         <xdr:cNvPr id="597" name="连接符: 肘形 596">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2064D1C1-8194-44CF-93FC-77EB76DA6970}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2064D1C1-8194-44CF-93FC-77EB76DA6970}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6639,7 +6640,7 @@
         <xdr:cNvPr id="602" name="连接符: 肘形 601">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C94F17D-AA1F-4B40-8903-692FEA854653}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C94F17D-AA1F-4B40-8903-692FEA854653}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6695,7 +6696,7 @@
         <xdr:cNvPr id="720" name="矩形 719">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B3C9C6B-E054-40BB-B341-356CC8E94D7D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7B3C9C6B-E054-40BB-B341-356CC8E94D7D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6769,7 +6770,7 @@
         <xdr:cNvPr id="741" name="连接符: 肘形 740">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6E120D3-7585-4D17-BA48-CDDF1F688AFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6E120D3-7585-4D17-BA48-CDDF1F688AFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6825,7 +6826,7 @@
         <xdr:cNvPr id="745" name="连接符: 肘形 744">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49D8C179-7DCB-4DEF-93B8-134E12646861}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49D8C179-7DCB-4DEF-93B8-134E12646861}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6881,7 +6882,7 @@
         <xdr:cNvPr id="753" name="连接符: 肘形 752">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0CC3950-49CA-4D95-B541-CA7425085B86}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B0CC3950-49CA-4D95-B541-CA7425085B86}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6939,7 +6940,7 @@
         <xdr:cNvPr id="767" name="连接符: 肘形 766">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E3DB9EC-7436-401F-8A31-CD7376880DA3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E3DB9EC-7436-401F-8A31-CD7376880DA3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6997,7 +6998,7 @@
         <xdr:cNvPr id="781" name="连接符: 肘形 780">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73A5726B-01F7-4273-97D0-0277E3745149}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73A5726B-01F7-4273-97D0-0277E3745149}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7055,7 +7056,7 @@
         <xdr:cNvPr id="978" name="矩形: 剪去顶角 977">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E11BD511-5FC1-4AAE-B0BC-568B42F38CAC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E11BD511-5FC1-4AAE-B0BC-568B42F38CAC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7130,7 +7131,7 @@
         <xdr:cNvPr id="1026" name="矩形 1025">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D237414-6FB4-4515-A139-BDC68DD1120B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D237414-6FB4-4515-A139-BDC68DD1120B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7204,7 +7205,7 @@
         <xdr:cNvPr id="1027" name="矩形 1026">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AABD083-AC0B-4F56-9468-CBB183B885F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4AABD083-AC0B-4F56-9468-CBB183B885F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7278,7 +7279,7 @@
         <xdr:cNvPr id="1028" name="直接箭头连接符 1027">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F44C233-3DA2-46AA-9831-B80220012B10}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F44C233-3DA2-46AA-9831-B80220012B10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7334,7 +7335,7 @@
         <xdr:cNvPr id="1031" name="直接箭头连接符 1030">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E4805B7-D22B-47FE-ADD7-682D67E30D27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E4805B7-D22B-47FE-ADD7-682D67E30D27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7390,7 +7391,7 @@
         <xdr:cNvPr id="1034" name="直接箭头连接符 1033">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33A70A0D-6E1B-41D7-86C4-E31F6AB227E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{33A70A0D-6E1B-41D7-86C4-E31F6AB227E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7446,7 +7447,7 @@
         <xdr:cNvPr id="1051" name="连接符: 肘形 1050">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E4011E0-0F52-4E07-BF35-40F0CD74A30D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E4011E0-0F52-4E07-BF35-40F0CD74A30D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7504,7 +7505,7 @@
         <xdr:cNvPr id="201" name="连接符: 肘形 200">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D58D035A-FAFD-4849-BCC8-D93FE49DE051}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D58D035A-FAFD-4849-BCC8-D93FE49DE051}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7562,7 +7563,7 @@
         <xdr:cNvPr id="402" name="连接符: 肘形 401">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9009441-C310-4F71-9362-397702574D20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A9009441-C310-4F71-9362-397702574D20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7618,7 +7619,7 @@
         <xdr:cNvPr id="449" name="连接符: 肘形 448">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DF6E693-A783-450E-989F-835E71B8DBA2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DF6E693-A783-450E-989F-835E71B8DBA2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7674,7 +7675,7 @@
         <xdr:cNvPr id="658" name="直接箭头连接符 657">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD15B26A-1F7D-42CA-8915-7B1200F63988}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD15B26A-1F7D-42CA-8915-7B1200F63988}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7730,7 +7731,7 @@
         <xdr:cNvPr id="779" name="矩形 778">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{958E6F2E-0767-40EA-B35F-0A52E6111261}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{958E6F2E-0767-40EA-B35F-0A52E6111261}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7804,7 +7805,7 @@
         <xdr:cNvPr id="780" name="直接箭头连接符 779">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F5ED019-38FE-41DB-990E-B9746FD33617}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F5ED019-38FE-41DB-990E-B9746FD33617}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7860,7 +7861,7 @@
         <xdr:cNvPr id="860" name="矩形 859">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F1EC7A3-32F6-4C43-8C32-1E12E21E524F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7F1EC7A3-32F6-4C43-8C32-1E12E21E524F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7934,7 +7935,7 @@
         <xdr:cNvPr id="861" name="矩形 860">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A412B61-788A-46E5-A0F6-838F5E455516}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A412B61-788A-46E5-A0F6-838F5E455516}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8008,7 +8009,7 @@
         <xdr:cNvPr id="862" name="直接箭头连接符 861">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{013F1B8C-7AB5-49D3-B2A8-D0C941C5E3A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{013F1B8C-7AB5-49D3-B2A8-D0C941C5E3A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8064,7 +8065,7 @@
         <xdr:cNvPr id="865" name="直接箭头连接符 864">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92A9413F-188F-4F88-8A94-3A0DF23ECBD4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92A9413F-188F-4F88-8A94-3A0DF23ECBD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8120,7 +8121,7 @@
         <xdr:cNvPr id="1106" name="矩形 1105">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48C96752-B2A5-418E-AC12-999970161EA8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{48C96752-B2A5-418E-AC12-999970161EA8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8194,7 +8195,7 @@
         <xdr:cNvPr id="1130" name="连接符: 肘形 1129">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26F7C6D8-D993-4D25-A477-C5D6B9D37427}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26F7C6D8-D993-4D25-A477-C5D6B9D37427}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8252,7 +8253,7 @@
         <xdr:cNvPr id="1152" name="直接箭头连接符 1151">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B02CF89-6DF0-492C-A781-632AC5905992}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7B02CF89-6DF0-492C-A781-632AC5905992}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8308,7 +8309,7 @@
         <xdr:cNvPr id="1191" name="连接符: 肘形 1190">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D35FD0-9157-4269-8BE7-5DF243004B5D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73D35FD0-9157-4269-8BE7-5DF243004B5D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8366,7 +8367,7 @@
         <xdr:cNvPr id="1204" name="连接符: 肘形 1203">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37710F1B-B18D-4949-AE31-C3695BAF53A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37710F1B-B18D-4949-AE31-C3695BAF53A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8424,7 +8425,7 @@
         <xdr:cNvPr id="1515" name="连接符: 肘形 1514">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8896EF20-8F81-4B00-A2BB-A396E704E556}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8896EF20-8F81-4B00-A2BB-A396E704E556}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8480,7 +8481,7 @@
         <xdr:cNvPr id="1518" name="连接符: 肘形 1517">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C5B3E91-C676-4BAA-A6C0-000059927418}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C5B3E91-C676-4BAA-A6C0-000059927418}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8538,7 +8539,7 @@
         <xdr:cNvPr id="1532" name="连接符: 肘形 1531">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{443C47DC-2101-400F-9A3E-B09D739AEE95}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{443C47DC-2101-400F-9A3E-B09D739AEE95}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8585,6 +8586,2748 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形: 圆角 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE72AFDD-F2C5-4459-A303-182244F8D972}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3514725" y="581025"/>
+          <a:ext cx="847725" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Future</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形: 剪去顶角 221">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D16DDF9-B3AB-4F9B-8528-EE84EDEAF2DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4181475" y="1609725"/>
+          <a:ext cx="1000125" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ForkJoinTask</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E177C91F-F96D-4BD1-B03B-870DD329FF99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2219325" y="1695451"/>
+          <a:ext cx="1371600" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CompletableFuture</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形: 圆角 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE72AFDD-F2C5-4459-A303-182244F8D972}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="1304925"/>
+          <a:ext cx="1228725" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CompletionStage</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="连接符: 肘形 740">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6E120D3-7585-4D17-BA48-CDDF1F688AFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1790700" y="1423988"/>
+          <a:ext cx="428625" cy="366713"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>509588</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="连接符: 肘形 740">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6E120D3-7585-4D17-BA48-CDDF1F688AFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4102894" y="654844"/>
+          <a:ext cx="914400" cy="1243012"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 43229"/>
+            <a:gd name="adj2" fmla="val 118391"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="矩形: 剪去顶角 221">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D16DDF9-B3AB-4F9B-8528-EE84EDEAF2DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4105275" y="2200275"/>
+          <a:ext cx="1123950" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>RecursiveTask</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>566738</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直接箭头连接符 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A2C0EEC-B9C2-4920-8BE6-C06019815892}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="1"/>
+          <a:endCxn id="17" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4667250" y="1857375"/>
+          <a:ext cx="14288" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="矩形: 圆角 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE72AFDD-F2C5-4459-A303-182244F8D972}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9972675" y="504825"/>
+          <a:ext cx="847725" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Runnable</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="矩形: 圆角 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE72AFDD-F2C5-4459-A303-182244F8D972}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9277350" y="1676400"/>
+          <a:ext cx="1257300" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>RunnableFuture</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="连接符: 肘形 740">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6E120D3-7585-4D17-BA48-CDDF1F688AFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="34" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4362450" y="700088"/>
+          <a:ext cx="5543550" cy="976312"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>109539</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="连接符: 肘形 740">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6E120D3-7585-4D17-BA48-CDDF1F688AFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="2"/>
+          <a:endCxn id="34" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="10022682" y="616743"/>
+          <a:ext cx="942975" cy="1176338"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="矩形: 圆角 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE72AFDD-F2C5-4459-A303-182244F8D972}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10982325" y="514350"/>
+          <a:ext cx="847725" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Callable</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="矩形: 圆角 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE72AFDD-F2C5-4459-A303-182244F8D972}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12715875" y="495299"/>
+          <a:ext cx="1257300" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AsyncOperation</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="矩形: 剪去顶角 221">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D16DDF9-B3AB-4F9B-8528-EE84EDEAF2DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11639550" y="1381125"/>
+          <a:ext cx="1590675" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AbstractAsyncOperation</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>90489</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="连接符: 肘形 740">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6E120D3-7585-4D17-BA48-CDDF1F688AFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="47" idx="2"/>
+          <a:endCxn id="48" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="12565857" y="602456"/>
+          <a:ext cx="647701" cy="909637"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>433389</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>90489</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="连接符: 肘形 740">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6E120D3-7585-4D17-BA48-CDDF1F688AFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="45" idx="2"/>
+          <a:endCxn id="48" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="11601451" y="547687"/>
+          <a:ext cx="638175" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>509589</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="连接符: 肘形 740">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6E120D3-7585-4D17-BA48-CDDF1F688AFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="4" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3278982" y="1131094"/>
+          <a:ext cx="971551" cy="347663"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="矩形: 剪去顶角 221">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D16DDF9-B3AB-4F9B-8528-EE84EDEAF2DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5743575" y="1619250"/>
+          <a:ext cx="1000125" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>FutureAdapter</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>509589</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="105" name="连接符: 肘形 740">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6E120D3-7585-4D17-BA48-CDDF1F688AFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="104" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4879182" y="-121444"/>
+          <a:ext cx="923925" cy="2805112"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 43299"/>
+            <a:gd name="adj2" fmla="val 108149"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="矩形: 圆角 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE72AFDD-F2C5-4459-A303-182244F8D972}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7296150" y="1609725"/>
+          <a:ext cx="1200150" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ListenableFuture</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>509588</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="119" name="连接符: 肘形 740">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6E120D3-7585-4D17-BA48-CDDF1F688AFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="113" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5762625" y="-1004887"/>
+          <a:ext cx="909638" cy="4557712"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 43455"/>
+            <a:gd name="adj2" fmla="val 105016"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="187" name="矩形: 圆角 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE72AFDD-F2C5-4459-A303-182244F8D972}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7477125" y="4619625"/>
+          <a:ext cx="847725" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Executor</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="188" name="矩形: 圆角 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE72AFDD-F2C5-4459-A303-182244F8D972}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3000375" y="5162550"/>
+          <a:ext cx="1152525" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ExecutorService</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>147638</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="189" name="直接箭头连接符 188">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A2C0EEC-B9C2-4920-8BE6-C06019815892}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="187" idx="2"/>
+          <a:endCxn id="188" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3576638" y="4857750"/>
+          <a:ext cx="4324350" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="194" name="矩形: 圆角 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE72AFDD-F2C5-4459-A303-182244F8D972}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10848975" y="5200650"/>
+          <a:ext cx="1152525" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TaskExecutor</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>452438</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="195" name="直接箭头连接符 194">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A2C0EEC-B9C2-4920-8BE6-C06019815892}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="187" idx="2"/>
+          <a:endCxn id="194" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7900988" y="4857750"/>
+          <a:ext cx="3524250" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="200" name="矩形: 剪去顶角 221">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D16DDF9-B3AB-4F9B-8528-EE84EDEAF2DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="6019800"/>
+          <a:ext cx="1619250" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AbstractExecutorService</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="203" name="矩形: 圆角 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE72AFDD-F2C5-4459-A303-182244F8D972}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4371975" y="6038850"/>
+          <a:ext cx="1771650" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ScheduledExecutorService</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>147638</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="204" name="直接箭头连接符 203">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A2C0EEC-B9C2-4920-8BE6-C06019815892}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="188" idx="2"/>
+          <a:endCxn id="200" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2524125" y="5400675"/>
+          <a:ext cx="1052513" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>147638</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="207" name="直接箭头连接符 206">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A2C0EEC-B9C2-4920-8BE6-C06019815892}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="188" idx="2"/>
+          <a:endCxn id="203" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3576638" y="5400675"/>
+          <a:ext cx="1681162" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="211" name="矩形 210">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E177C91F-F96D-4BD1-B03B-870DD329FF99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561974" y="6896100"/>
+          <a:ext cx="1724025" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DelegatedExecutorService</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="212" name="矩形 211">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E177C91F-F96D-4BD1-B03B-870DD329FF99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="7267575"/>
+          <a:ext cx="1724025" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ExecutorServiceAdapter</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="213" name="矩形 212">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E177C91F-F96D-4BD1-B03B-870DD329FF99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1638300" y="7505700"/>
+          <a:ext cx="1724025" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ForkJoinPool</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="214" name="矩形 213">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E177C91F-F96D-4BD1-B03B-870DD329FF99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1819275" y="7800975"/>
+          <a:ext cx="1724025" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ThreadPoolExecutor</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="215" name="连接符: 肘形 740">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6E120D3-7585-4D17-BA48-CDDF1F688AFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="200" idx="1"/>
+          <a:endCxn id="211" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1659731" y="6031706"/>
+          <a:ext cx="628650" cy="1100138"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>176214</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="218" name="连接符: 肘形 740">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6E120D3-7585-4D17-BA48-CDDF1F688AFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="200" idx="1"/>
+          <a:endCxn id="212" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1535907" y="6279356"/>
+          <a:ext cx="1000125" cy="976312"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>442913</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="219" name="连接符: 肘形 740">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6E120D3-7585-4D17-BA48-CDDF1F688AFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="200" idx="0"/>
+          <a:endCxn id="213" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2500313" y="6143625"/>
+          <a:ext cx="833437" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -27429"/>
+            <a:gd name="adj2" fmla="val 54545"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>623888</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="220" name="连接符: 肘形 740">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6E120D3-7585-4D17-BA48-CDDF1F688AFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="200" idx="0"/>
+          <a:endCxn id="214" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2681288" y="6143625"/>
+          <a:ext cx="652462" cy="1657350"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -35037"/>
+            <a:gd name="adj2" fmla="val 53736"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="249" name="矩形 248">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E177C91F-F96D-4BD1-B03B-870DD329FF99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8753475" y="5953126"/>
+          <a:ext cx="1400175" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SyncTaskExecutor</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="250" name="矩形: 圆角 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE72AFDD-F2C5-4459-A303-182244F8D972}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12353925" y="5934075"/>
+          <a:ext cx="1381125" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AsyncTaskExecutor</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -8601,7 +11344,7 @@
         <xdr:cNvPr id="2" name="矩形: 圆角 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E207A3F5-3AA1-48F7-BCAA-83A2784E1EB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E207A3F5-3AA1-48F7-BCAA-83A2784E1EB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8675,7 +11418,7 @@
         <xdr:cNvPr id="3" name="矩形: 圆角 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17D5C442-2879-4C83-8F9C-A7DC11BF09AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17D5C442-2879-4C83-8F9C-A7DC11BF09AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8749,7 +11492,7 @@
         <xdr:cNvPr id="4" name="矩形: 剪去顶角 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26444FA5-FEA2-4E8F-97A1-94D2343B0E39}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26444FA5-FEA2-4E8F-97A1-94D2343B0E39}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8823,7 +11566,7 @@
         <xdr:cNvPr id="5" name="连接符: 肘形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67D115E1-1518-4688-95C3-2027474E9F7E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{67D115E1-1518-4688-95C3-2027474E9F7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8881,7 +11624,7 @@
         <xdr:cNvPr id="8" name="连接符: 肘形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4D5C1F3-0B25-4327-AF2E-B306E242452D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4D5C1F3-0B25-4327-AF2E-B306E242452D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8939,7 +11682,7 @@
         <xdr:cNvPr id="11" name="矩形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C690A0E7-A9BF-4478-83AC-7C0F2478EFDB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C690A0E7-A9BF-4478-83AC-7C0F2478EFDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9013,7 +11756,7 @@
         <xdr:cNvPr id="12" name="直接箭头连接符 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B47DFB1-32DB-4ED8-B243-BFB71982B0B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2B47DFB1-32DB-4ED8-B243-BFB71982B0B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9054,7 +11797,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9074,7 +11817,7 @@
         <xdr:cNvPr id="3" name="矩形: 剪去顶角 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9149,7 +11892,7 @@
         <xdr:cNvPr id="15" name="矩形: 剪去顶角 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9224,7 +11967,7 @@
         <xdr:cNvPr id="16" name="矩形: 剪去顶角 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9298,7 +12041,7 @@
         <xdr:cNvPr id="17" name="矩形: 剪去顶角 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9372,7 +12115,7 @@
         <xdr:cNvPr id="30" name="直接箭头连接符 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9428,7 +12171,7 @@
         <xdr:cNvPr id="33" name="直接箭头连接符 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9484,7 +12227,7 @@
         <xdr:cNvPr id="34" name="直接箭头连接符 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9540,7 +12283,7 @@
         <xdr:cNvPr id="64" name="矩形: 剪去顶角 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000040000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9614,7 +12357,7 @@
         <xdr:cNvPr id="68" name="直接箭头连接符 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000044000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000044000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9670,7 +12413,7 @@
         <xdr:cNvPr id="74" name="矩形: 剪去顶角 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9747,7 +12490,7 @@
         <xdr:cNvPr id="75" name="直接箭头连接符 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9803,7 +12546,7 @@
         <xdr:cNvPr id="78" name="直接箭头连接符 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9859,7 +12602,7 @@
         <xdr:cNvPr id="79" name="直接箭头连接符 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9915,7 +12658,7 @@
         <xdr:cNvPr id="93" name="矩形: 剪去顶角 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00005D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9989,7 +12732,7 @@
         <xdr:cNvPr id="94" name="直接箭头连接符 93">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00005E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10045,7 +12788,7 @@
         <xdr:cNvPr id="98" name="矩形: 剪去顶角 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000062000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000062000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10119,7 +12862,7 @@
         <xdr:cNvPr id="99" name="直接箭头连接符 98">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000063000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000063000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10175,7 +12918,7 @@
         <xdr:cNvPr id="102" name="直接箭头连接符 101">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000066000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000066000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10231,7 +12974,7 @@
         <xdr:cNvPr id="110" name="矩形 109">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00006E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10302,7 +13045,7 @@
         <xdr:cNvPr id="111" name="直接箭头连接符 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00006F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10358,7 +13101,7 @@
         <xdr:cNvPr id="115" name="直接箭头连接符 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000073000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000073000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10414,7 +13157,7 @@
         <xdr:cNvPr id="120" name="矩形 119">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000078000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000078000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10485,7 +13228,7 @@
         <xdr:cNvPr id="121" name="直接箭头连接符 120">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000079000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000079000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10541,7 +13284,7 @@
         <xdr:cNvPr id="63" name="图片 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10585,7 +13328,7 @@
         <xdr:cNvPr id="65" name="图片 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000041000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000041000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10629,7 +13372,7 @@
         <xdr:cNvPr id="66" name="图片 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000042000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10673,7 +13416,7 @@
         <xdr:cNvPr id="31" name="图片 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10717,7 +13460,7 @@
         <xdr:cNvPr id="32" name="图片 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10761,7 +13504,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10805,7 +13548,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10849,7 +13592,7 @@
         <xdr:cNvPr id="7" name="图片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10893,7 +13636,7 @@
         <xdr:cNvPr id="8" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10937,7 +13680,7 @@
         <xdr:cNvPr id="9" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10966,7 +13709,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10986,7 +13729,7 @@
         <xdr:cNvPr id="2" name="矩形: 剪去顶角 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11046,7 +13789,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11066,7 +13809,7 @@
         <xdr:cNvPr id="2" name="流程图: 可选过程 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11140,7 +13883,7 @@
         <xdr:cNvPr id="3" name="矩形: 剪去顶角 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11211,7 +13954,7 @@
         <xdr:cNvPr id="4" name="矩形: 剪去顶角 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11282,7 +14025,7 @@
         <xdr:cNvPr id="5" name="矩形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11353,7 +14096,7 @@
         <xdr:cNvPr id="6" name="矩形: 剪去顶角 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11427,7 +14170,7 @@
         <xdr:cNvPr id="7" name="矩形: 剪去顶角 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11501,7 +14244,7 @@
         <xdr:cNvPr id="8" name="矩形: 剪去顶角 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11575,7 +14318,7 @@
         <xdr:cNvPr id="9" name="直接箭头连接符 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11631,7 +14374,7 @@
         <xdr:cNvPr id="10" name="矩形: 剪去顶角 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11690,7 +14433,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11710,7 +14453,7 @@
         <xdr:cNvPr id="2" name="矩形: 剪去顶角 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11784,7 +14527,7 @@
         <xdr:cNvPr id="3" name="矩形: 剪去顶角 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11858,7 +14601,7 @@
         <xdr:cNvPr id="4" name="直接箭头连接符 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11899,7 +14642,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11919,7 +14662,7 @@
         <xdr:cNvPr id="2" name="矩形: 剪去顶角 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11990,7 +14733,7 @@
         <xdr:cNvPr id="3" name="矩形: 剪去顶角 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12061,7 +14804,7 @@
         <xdr:cNvPr id="4" name="矩形: 剪去顶角 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12132,7 +14875,7 @@
         <xdr:cNvPr id="5" name="矩形: 剪去顶角 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12203,7 +14946,7 @@
         <xdr:cNvPr id="6" name="矩形: 剪去顶角 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12274,7 +15017,7 @@
         <xdr:cNvPr id="7" name="直接箭头连接符 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12330,7 +15073,7 @@
         <xdr:cNvPr id="8" name="直接箭头连接符 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12386,7 +15129,7 @@
         <xdr:cNvPr id="9" name="直接箭头连接符 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12442,7 +15185,7 @@
         <xdr:cNvPr id="10" name="直接箭头连接符 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12483,7 +15226,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -12503,7 +15246,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12547,7 +15290,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12591,7 +15334,7 @@
         <xdr:cNvPr id="4" name="矩形: 剪去顶角 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12665,7 +15408,7 @@
         <xdr:cNvPr id="6" name="矩形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12736,7 +15479,7 @@
         <xdr:cNvPr id="8" name="直接箭头连接符 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12792,7 +15535,7 @@
         <xdr:cNvPr id="9" name="直接箭头连接符 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12848,7 +15591,7 @@
         <xdr:cNvPr id="21" name="矩形 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13241,11 +15984,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="S48" sqref="S48"/>
+    <sheetView showGridLines="0" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13254,15 +15997,32 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13272,13 +16032,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="5.75" style="3" customWidth="1"/>
     <col min="3" max="3" width="41.625" style="3" bestFit="1" customWidth="1"/>
@@ -13288,7 +16064,7 @@
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:6">
       <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
@@ -13305,7 +16081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -13318,7 +16094,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -13331,7 +16107,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6">
       <c r="C5" s="5"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
@@ -13339,7 +16115,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6">
       <c r="C6" s="5"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
@@ -13349,7 +16125,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6">
       <c r="C7" s="5"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
@@ -13357,7 +16133,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6">
       <c r="C8" s="5"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
@@ -13365,7 +16141,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6">
       <c r="C9" s="5"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
@@ -13373,7 +16149,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6">
       <c r="C10" s="5"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
@@ -13381,7 +16157,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6">
       <c r="C11" s="5"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
@@ -13389,7 +16165,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6">
       <c r="C12" s="5"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
@@ -13397,7 +16173,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6">
       <c r="C13" s="5"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
@@ -13405,7 +16181,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6">
       <c r="C14" s="5"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
@@ -13413,7 +16189,7 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6">
       <c r="C15" s="5"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
@@ -13421,7 +16197,7 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:6">
       <c r="C16" s="5"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
@@ -13429,7 +16205,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:6">
       <c r="C17" s="5"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
@@ -13437,7 +16213,7 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:6">
       <c r="C18" s="5"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
@@ -13445,7 +16221,7 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:6">
       <c r="C19" s="6"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
@@ -13453,7 +16229,7 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:6">
       <c r="C20" s="4" t="s">
         <v>8</v>
       </c>
@@ -13463,7 +16239,7 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:6">
       <c r="C21" s="5"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
@@ -13473,7 +16249,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:6">
       <c r="C22" s="5"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
@@ -13483,7 +16259,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:6">
       <c r="C23" s="5"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
@@ -13491,7 +16267,7 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:6">
       <c r="C24" s="6"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
@@ -13499,7 +16275,7 @@
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:6">
       <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
@@ -13511,91 +16287,91 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:6">
       <c r="C26" s="7"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:6">
       <c r="C27" s="7"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:6">
       <c r="C28" s="7"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:6">
       <c r="C29" s="7"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:6">
       <c r="C30" s="7"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:6">
       <c r="C31" s="7"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:6">
       <c r="C32" s="7"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:6">
       <c r="C33" s="7"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:6">
       <c r="C34" s="7"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:6">
       <c r="C35" s="7"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:6">
       <c r="C36" s="7"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:6">
       <c r="C37" s="7"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:6">
       <c r="C38" s="7"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:6">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:6">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -13613,7 +16389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -13621,7 +16397,7 @@
       <selection activeCell="P204" sqref="P204"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13630,7 +16406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -13638,23 +16414,7 @@
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13667,10 +16427,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13683,10 +16443,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13698,15 +16458,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/spring.xlsx
+++ b/spring.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="225" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="225"/>
   </bookViews>
   <sheets>
     <sheet name="UML" sheetId="8" r:id="rId1"/>
     <sheet name="UML-thread" sheetId="10" r:id="rId2"/>
-    <sheet name="UML-READER" sheetId="9" r:id="rId3"/>
+    <sheet name="UML-reader" sheetId="9" r:id="rId3"/>
     <sheet name="invoke" sheetId="7" r:id="rId4"/>
     <sheet name="IOC" sheetId="1" r:id="rId5"/>
     <sheet name="BeanRegistry" sheetId="5" r:id="rId6"/>
@@ -15984,8 +15984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G34" workbookViewId="0">
+      <selection activeCell="X50" sqref="X50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16018,8 +16018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16035,7 +16035,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/spring.xlsx
+++ b/spring.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\github\wl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JAVA\work\github\wl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -162,8 +162,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,7 +322,7 @@
         <xdr:cNvPr id="2" name="矩形: 剪去顶角 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95E15875-D3FF-423C-81C3-8810878762FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -382,7 +382,7 @@
         <xdr:cNvPr id="3" name="矩形: 圆角 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE72AFDD-F2C5-4459-A303-182244F8D972}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -456,7 +456,7 @@
         <xdr:cNvPr id="4" name="矩形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49C42014-EF19-4E90-A054-1B182F6B748A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -516,7 +516,7 @@
         <xdr:cNvPr id="5" name="矩形: 圆角 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{88B55E0F-9097-4C98-B3F8-05C544A730B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -594,7 +594,7 @@
         <xdr:cNvPr id="6" name="矩形: 圆角 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2295367-659C-4CFF-B01D-D94182207F14}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -665,7 +665,7 @@
         <xdr:cNvPr id="7" name="矩形: 圆角 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{899A0720-AB99-4722-BCDB-486EE642846D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -736,7 +736,7 @@
         <xdr:cNvPr id="8" name="矩形: 圆角 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{62C28AC4-7A6C-4636-A721-480688A5E5A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -814,7 +814,7 @@
         <xdr:cNvPr id="9" name="矩形: 圆角 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{579E860A-DABF-4FED-A773-20942E9480F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -892,7 +892,7 @@
         <xdr:cNvPr id="10" name="矩形: 圆角 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2099BF60-4FF9-44B0-B48E-C074393D4795}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -966,7 +966,7 @@
         <xdr:cNvPr id="12" name="直接箭头连接符 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E690217C-9601-4818-90B2-5E8C08D9F785}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1022,7 +1022,7 @@
         <xdr:cNvPr id="13" name="直接箭头连接符 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2F3A8038-1C17-45AF-8F60-51C4DC14CF99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1078,7 +1078,7 @@
         <xdr:cNvPr id="17" name="直接箭头连接符 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ABC8E1E3-324F-46FD-B2E7-85ED9B86CE1E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1134,7 +1134,7 @@
         <xdr:cNvPr id="18" name="直接箭头连接符 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{08391340-1786-4E40-9203-CEBAAFA94CE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1190,7 +1190,7 @@
         <xdr:cNvPr id="19" name="直接箭头连接符 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C12DA565-88C0-432A-99E5-E5CC446BFA28}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1246,7 +1246,7 @@
         <xdr:cNvPr id="20" name="直接箭头连接符 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DB151931-AD4E-4C5E-B8B0-537D2D01AA37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1299,7 +1299,7 @@
         <xdr:cNvPr id="47" name="矩形: 圆角 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7553116D-0ACB-43B2-A0AA-D56C860F30EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1373,7 +1373,7 @@
         <xdr:cNvPr id="52" name="矩形: 圆角 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8F5181FA-4789-4D49-973A-043585405490}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1444,7 +1444,7 @@
         <xdr:cNvPr id="54" name="直接箭头连接符 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7FDDFF03-EEF4-495C-B1A7-F058235446BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1500,7 +1500,7 @@
         <xdr:cNvPr id="57" name="直接箭头连接符 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{94942A3A-B5CC-4669-ADA5-E11A6A67B3B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1556,7 +1556,7 @@
         <xdr:cNvPr id="61" name="矩形: 圆角 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F1573FE-0BF4-4BF7-B106-D882C504064A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1627,7 +1627,7 @@
         <xdr:cNvPr id="63" name="矩形: 圆角 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4258E007-4881-4255-8928-DBE5A568A05A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1698,7 +1698,7 @@
         <xdr:cNvPr id="64" name="直接箭头连接符 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF4AA2D7-6FE7-43D0-B613-3D9D61C5FD6A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1754,7 +1754,7 @@
         <xdr:cNvPr id="67" name="直接箭头连接符 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{57E7A432-60E4-46D0-B1E3-4568C733834E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1810,7 +1810,7 @@
         <xdr:cNvPr id="90" name="矩形: 圆角 89">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AB6DC0C0-6D7B-479B-82A2-1294D7AAF38D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1884,7 +1884,7 @@
         <xdr:cNvPr id="91" name="矩形: 圆角 90">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E0D5235B-69AB-4671-AD91-C8104CDF0668}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1958,7 +1958,7 @@
         <xdr:cNvPr id="111" name="矩形: 圆角 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0049CA95-814A-4FF0-A995-9F16D32930FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2032,7 +2032,7 @@
         <xdr:cNvPr id="129" name="矩形: 圆角 128">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1CC23C70-7B2A-4E2E-89A2-1AD7FB23E94B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000081000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2110,7 +2110,7 @@
         <xdr:cNvPr id="130" name="直接箭头连接符 129">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE1C02BA-0971-453F-B2AD-37B6CAB4106C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2166,7 +2166,7 @@
         <xdr:cNvPr id="218" name="矩形 217">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E177C91F-F96D-4BD1-B03B-870DD329FF99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2240,7 +2240,7 @@
         <xdr:cNvPr id="219" name="矩形: 剪去顶角 218">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{94724472-07CE-47F6-B17F-EFFAC7A84B63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DB000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2314,7 +2314,7 @@
         <xdr:cNvPr id="220" name="矩形: 剪去顶角 219">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2A37ADD7-F3E5-4F32-9B31-012978051F82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2388,7 +2388,7 @@
         <xdr:cNvPr id="221" name="矩形: 剪去顶角 220">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79D30B0C-B987-4274-804F-0727AC0267C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DD000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2462,7 +2462,7 @@
         <xdr:cNvPr id="222" name="矩形: 剪去顶角 221">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D16DDF9-B3AB-4F9B-8528-EE84EDEAF2DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DE000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2536,7 +2536,7 @@
         <xdr:cNvPr id="223" name="矩形 222">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D82ED435-94BA-4E32-926D-B3C92B78E387}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DF000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2614,7 +2614,7 @@
         <xdr:cNvPr id="245" name="矩形: 圆角 244">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{510C1918-1A03-4A8E-B10B-630CD3E0C9E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F5000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2692,7 +2692,7 @@
         <xdr:cNvPr id="246" name="直接箭头连接符 245">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{22D06859-3300-4872-8929-BA139A9F03E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2748,7 +2748,7 @@
         <xdr:cNvPr id="263" name="直接箭头连接符 262">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B718375-DA74-470A-991A-FC4446F97A94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2804,7 +2804,7 @@
         <xdr:cNvPr id="266" name="直接箭头连接符 265">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A8A1D98-90F8-44ED-9779-692D487B9F3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2860,7 +2860,7 @@
         <xdr:cNvPr id="269" name="矩形: 圆角 268">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4DC55EEC-ADA0-4E2C-A444-F6734282D33F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2938,7 +2938,7 @@
         <xdr:cNvPr id="270" name="直接箭头连接符 269">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{77045E4E-0DA0-4043-86C8-91F5EA1585B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2994,7 +2994,7 @@
         <xdr:cNvPr id="273" name="矩形: 圆角 272">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C6BA6A9-2B58-458E-8833-95B3B8093E44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3072,7 +3072,7 @@
         <xdr:cNvPr id="275" name="直接箭头连接符 274">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{67E95CA3-0D71-4171-A97E-DFC00994C260}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3128,7 +3128,7 @@
         <xdr:cNvPr id="279" name="矩形: 圆角 278">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29DE0293-D941-4990-B5BC-42F38D4085A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3206,7 +3206,7 @@
         <xdr:cNvPr id="280" name="直接箭头连接符 279">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A73D1B61-428A-476C-9DFC-517C9306D970}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3262,7 +3262,7 @@
         <xdr:cNvPr id="286" name="直接箭头连接符 285">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A2C0EEC-B9C2-4920-8BE6-C06019815892}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3318,7 +3318,7 @@
         <xdr:cNvPr id="290" name="直接箭头连接符 289">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{71687FD3-5A55-49A7-8AD4-EE4F72C1A158}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3374,7 +3374,7 @@
         <xdr:cNvPr id="307" name="矩形 306">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0DAB50E-B184-487D-8CC0-12E6B0821AB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3448,7 +3448,7 @@
         <xdr:cNvPr id="308" name="直接箭头连接符 307">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F8A9AC07-4D5C-4291-A93D-4FAE300002B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3504,7 +3504,7 @@
         <xdr:cNvPr id="349" name="矩形: 剪去顶角 348">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D005BAE-B7C7-45F4-8CAC-532CA08CBCED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3575,7 +3575,7 @@
         <xdr:cNvPr id="351" name="直接箭头连接符 350">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BC9E6F73-9A5C-4249-A3F0-B7CFC3A747EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005F010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3631,7 +3631,7 @@
         <xdr:cNvPr id="354" name="直接箭头连接符 353">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F77B0B39-580C-4052-BA80-82EF2F997560}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000062010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3687,7 +3687,7 @@
         <xdr:cNvPr id="357" name="矩形: 圆角 356">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0CF8657-FBE9-4CDD-B60C-D6BCB06DA218}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3761,7 +3761,7 @@
         <xdr:cNvPr id="386" name="矩形: 圆角 385">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7C0D6949-4AEC-413C-B37F-DF8FC4460078}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3832,7 +3832,7 @@
         <xdr:cNvPr id="387" name="直接箭头连接符 386">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{847580BC-7DBC-4F4C-8DF4-D2E263145EEA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000083010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3888,7 +3888,7 @@
         <xdr:cNvPr id="424" name="直接箭头连接符 423">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{38BE21D3-7362-4403-9468-9D5B64C54F49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A8010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3944,7 +3944,7 @@
         <xdr:cNvPr id="501" name="矩形: 圆角 500">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{114DFEE6-6A41-45A4-AFBC-AB0C4953BFE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F5010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4016,7 +4016,7 @@
         <xdr:cNvPr id="542" name="矩形: 剪去顶角 541">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AACA730A-4E51-4329-9DF4-E497476487DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E020000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4087,7 +4087,7 @@
         <xdr:cNvPr id="549" name="矩形: 圆角 548">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A8C7A5A-9B5A-48D6-B14F-1E50204DCA32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025020000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4161,7 +4161,7 @@
         <xdr:cNvPr id="551" name="矩形 550">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F30B862D-22E8-487B-8D4B-CCE0F0F104AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027020000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4235,7 +4235,7 @@
         <xdr:cNvPr id="552" name="矩形 551">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{215158FE-1407-4446-8A80-C678C35471FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028020000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4309,7 +4309,7 @@
         <xdr:cNvPr id="553" name="直接箭头连接符 552">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6CF9298-D9E5-4837-B30B-28BFE43ABD84}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029020000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4365,7 +4365,7 @@
         <xdr:cNvPr id="568" name="直接箭头连接符 567">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7F97DACE-3A39-4DA4-B31B-91651A9A19E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038020000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4421,7 +4421,7 @@
         <xdr:cNvPr id="573" name="矩形: 剪去顶角 572">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{62A4178C-02B3-411F-B40C-D386AA75CC92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D020000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4499,7 +4499,7 @@
         <xdr:cNvPr id="574" name="直接箭头连接符 573">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{442C9B50-8A48-4713-9AAF-B3B6A163F89E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E020000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4555,7 +4555,7 @@
         <xdr:cNvPr id="579" name="直接箭头连接符 578">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64830A96-C14E-4C0E-8D0D-8F8312937299}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043020000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4611,7 +4611,7 @@
         <xdr:cNvPr id="622" name="直接箭头连接符 621">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{62F32B22-58AF-4276-99A9-7093856CD2A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E020000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4667,7 +4667,7 @@
         <xdr:cNvPr id="700" name="矩形 699">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F10523B5-8C9B-4766-9B60-E8F9220BFACF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BC020000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4741,7 +4741,7 @@
         <xdr:cNvPr id="710" name="直接箭头连接符 709">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B08C601F-1658-4085-BECB-81C2174A999B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C6020000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4797,7 +4797,7 @@
         <xdr:cNvPr id="99" name="矩形 98">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{03D29434-B28F-4D4B-8264-F5816F57329B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4871,7 +4871,7 @@
         <xdr:cNvPr id="100" name="直接箭头连接符 99">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{160D43F7-DA12-49FD-8059-9CA72F8135B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4927,7 +4927,7 @@
         <xdr:cNvPr id="34" name="连接符: 肘形 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F58112E7-6539-4791-B2EF-C03CFA481B94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4983,7 +4983,7 @@
         <xdr:cNvPr id="113" name="连接符: 肘形 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47A2A9A2-6F00-4AA3-8C73-69C0E7B442BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000071000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5039,7 +5039,7 @@
         <xdr:cNvPr id="117" name="连接符: 肘形 116">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3BB859DD-60DD-4B4E-874D-A9344EE149BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000075000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5097,7 +5097,7 @@
         <xdr:cNvPr id="123" name="连接符: 肘形 122">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{562516C3-329D-40E7-A2A0-AD33184EE97A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5155,7 +5155,7 @@
         <xdr:cNvPr id="127" name="连接符: 肘形 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8CFAF20E-6C0F-4D8C-AEEC-F1DA471400D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5211,7 +5211,7 @@
         <xdr:cNvPr id="131" name="连接符: 肘形 130">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{09AB82BF-37A5-4236-AE69-B215E52804AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000083000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5267,7 +5267,7 @@
         <xdr:cNvPr id="147" name="连接符: 肘形 146">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD867E60-C32E-43D8-B3EC-6628ECEFB94B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000093000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5323,7 +5323,7 @@
         <xdr:cNvPr id="188" name="矩形 187">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D7E9829-11FC-4669-9374-A949FEE04777}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5397,7 +5397,7 @@
         <xdr:cNvPr id="225" name="矩形: 圆角 224">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D8BA5493-E4F9-48CD-BBE0-563AF8386534}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5471,7 +5471,7 @@
         <xdr:cNvPr id="226" name="连接符: 肘形 225">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D60FCDF-F077-4EF9-BDA9-AE3DC591BD28}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5529,7 +5529,7 @@
         <xdr:cNvPr id="228" name="矩形 227">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A319D03F-AA84-4A1C-9F9F-B840482162ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5603,7 +5603,7 @@
         <xdr:cNvPr id="233" name="矩形 232">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF748A6C-F28A-40DE-8B31-146FF0534336}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5677,7 +5677,7 @@
         <xdr:cNvPr id="240" name="矩形 239">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3603F5EC-67B9-4EF5-91BF-2D0340014A0B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5751,7 +5751,7 @@
         <xdr:cNvPr id="241" name="矩形 240">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA3A36EA-5FDF-4876-A9B5-E932B7D4FAD3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5825,7 +5825,7 @@
         <xdr:cNvPr id="242" name="矩形 241">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D9BAD16E-6625-4FCE-ADEE-6E408F8C7B4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5899,7 +5899,7 @@
         <xdr:cNvPr id="250" name="连接符: 肘形 249">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2A3E03DF-D2C8-42D0-80CB-C76E1C65ADE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000FA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5955,7 +5955,7 @@
         <xdr:cNvPr id="252" name="矩形: 圆角 251">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{40624122-1CC3-4C66-9904-7D729F712A3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000FC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6033,7 +6033,7 @@
         <xdr:cNvPr id="337" name="连接符: 肘形 336">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{080E2180-B080-411A-AE0C-24498AABA715}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6089,7 +6089,7 @@
         <xdr:cNvPr id="367" name="连接符: 肘形 366">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{13DCB2BC-D546-4357-8767-01F5AA8E5569}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6145,7 +6145,7 @@
         <xdr:cNvPr id="391" name="连接符: 肘形 390">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEA0B285-C4D0-4F46-B711-DE3F78366BED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000087010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6203,7 +6203,7 @@
         <xdr:cNvPr id="394" name="连接符: 肘形 393">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F3CE202-27AF-40FB-B5FB-BD68ABE0E30B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008A010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6261,7 +6261,7 @@
         <xdr:cNvPr id="406" name="连接符: 肘形 405">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E82F0260-29CB-4911-8FD4-46B432F5CDC7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000096010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6319,7 +6319,7 @@
         <xdr:cNvPr id="448" name="连接符: 肘形 447">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5735BC96-1F0D-4189-9B8A-943F993EB278}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C0010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6377,7 +6377,7 @@
         <xdr:cNvPr id="482" name="连接符: 肘形 481">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0500474E-6C82-4A8C-99F3-039CAF55ABA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E2010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6435,7 +6435,7 @@
         <xdr:cNvPr id="589" name="矩形: 圆角 588">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73A362AC-12A5-42CE-999B-DAF270DD25E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D020000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6510,7 +6510,7 @@
         <xdr:cNvPr id="596" name="矩形 595">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B84F864E-1E10-4B07-BA5F-DCF58683E3E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054020000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6584,7 +6584,7 @@
         <xdr:cNvPr id="597" name="连接符: 肘形 596">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2064D1C1-8194-44CF-93FC-77EB76DA6970}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055020000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6640,7 +6640,7 @@
         <xdr:cNvPr id="602" name="连接符: 肘形 601">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C94F17D-AA1F-4B40-8903-692FEA854653}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A020000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6696,7 +6696,7 @@
         <xdr:cNvPr id="720" name="矩形 719">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7B3C9C6B-E054-40BB-B341-356CC8E94D7D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D0020000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6770,7 +6770,7 @@
         <xdr:cNvPr id="741" name="连接符: 肘形 740">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6E120D3-7585-4D17-BA48-CDDF1F688AFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E5020000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6826,7 +6826,7 @@
         <xdr:cNvPr id="745" name="连接符: 肘形 744">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49D8C179-7DCB-4DEF-93B8-134E12646861}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E9020000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6882,7 +6882,7 @@
         <xdr:cNvPr id="753" name="连接符: 肘形 752">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B0CC3950-49CA-4D95-B541-CA7425085B86}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F1020000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6940,7 +6940,7 @@
         <xdr:cNvPr id="767" name="连接符: 肘形 766">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E3DB9EC-7436-401F-8A31-CD7376880DA3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000FF020000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6998,7 +6998,7 @@
         <xdr:cNvPr id="781" name="连接符: 肘形 780">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73A5726B-01F7-4273-97D0-0277E3745149}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D030000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7056,7 +7056,7 @@
         <xdr:cNvPr id="978" name="矩形: 剪去顶角 977">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E11BD511-5FC1-4AAE-B0BC-568B42F38CAC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D2030000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7131,7 +7131,7 @@
         <xdr:cNvPr id="1026" name="矩形 1025">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D237414-6FB4-4515-A139-BDC68DD1120B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7205,7 +7205,7 @@
         <xdr:cNvPr id="1027" name="矩形 1026">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4AABD083-AC0B-4F56-9468-CBB183B885F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7279,7 +7279,7 @@
         <xdr:cNvPr id="1028" name="直接箭头连接符 1027">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F44C233-3DA2-46AA-9831-B80220012B10}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7335,7 +7335,7 @@
         <xdr:cNvPr id="1031" name="直接箭头连接符 1030">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E4805B7-D22B-47FE-ADD7-682D67E30D27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7391,7 +7391,7 @@
         <xdr:cNvPr id="1034" name="直接箭头连接符 1033">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{33A70A0D-6E1B-41D7-86C4-E31F6AB227E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7447,7 +7447,7 @@
         <xdr:cNvPr id="1051" name="连接符: 肘形 1050">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E4011E0-0F52-4E07-BF35-40F0CD74A30D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7505,7 +7505,7 @@
         <xdr:cNvPr id="201" name="连接符: 肘形 200">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D58D035A-FAFD-4849-BCC8-D93FE49DE051}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7563,7 +7563,7 @@
         <xdr:cNvPr id="402" name="连接符: 肘形 401">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A9009441-C310-4F71-9362-397702574D20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000092010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7619,7 +7619,7 @@
         <xdr:cNvPr id="449" name="连接符: 肘形 448">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DF6E693-A783-450E-989F-835E71B8DBA2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C1010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7675,7 +7675,7 @@
         <xdr:cNvPr id="658" name="直接箭头连接符 657">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD15B26A-1F7D-42CA-8915-7B1200F63988}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000092020000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7731,7 +7731,7 @@
         <xdr:cNvPr id="779" name="矩形 778">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{958E6F2E-0767-40EA-B35F-0A52E6111261}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B030000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7805,7 +7805,7 @@
         <xdr:cNvPr id="780" name="直接箭头连接符 779">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F5ED019-38FE-41DB-990E-B9746FD33617}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C030000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7861,7 +7861,7 @@
         <xdr:cNvPr id="860" name="矩形 859">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7F1EC7A3-32F6-4C43-8C32-1E12E21E524F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C030000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7935,7 +7935,7 @@
         <xdr:cNvPr id="861" name="矩形 860">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A412B61-788A-46E5-A0F6-838F5E455516}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D030000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8009,7 +8009,7 @@
         <xdr:cNvPr id="862" name="直接箭头连接符 861">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{013F1B8C-7AB5-49D3-B2A8-D0C941C5E3A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E030000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8065,7 +8065,7 @@
         <xdr:cNvPr id="865" name="直接箭头连接符 864">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92A9413F-188F-4F88-8A94-3A0DF23ECBD4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061030000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8121,7 +8121,7 @@
         <xdr:cNvPr id="1106" name="矩形 1105">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{48C96752-B2A5-418E-AC12-999970161EA8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8195,7 +8195,7 @@
         <xdr:cNvPr id="1130" name="连接符: 肘形 1129">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26F7C6D8-D993-4D25-A477-C5D6B9D37427}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8253,7 +8253,7 @@
         <xdr:cNvPr id="1152" name="直接箭头连接符 1151">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7B02CF89-6DF0-492C-A781-632AC5905992}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8309,7 +8309,7 @@
         <xdr:cNvPr id="1191" name="连接符: 肘形 1190">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73D35FD0-9157-4269-8BE7-5DF243004B5D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A7040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8367,7 +8367,7 @@
         <xdr:cNvPr id="1204" name="连接符: 肘形 1203">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37710F1B-B18D-4949-AE31-C3695BAF53A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B4040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8425,7 +8425,7 @@
         <xdr:cNvPr id="1515" name="连接符: 肘形 1514">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8896EF20-8F81-4B00-A2BB-A396E704E556}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000EB050000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8481,7 +8481,7 @@
         <xdr:cNvPr id="1518" name="连接符: 肘形 1517">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C5B3E91-C676-4BAA-A6C0-000059927418}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000EE050000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8539,7 +8539,7 @@
         <xdr:cNvPr id="1532" name="连接符: 肘形 1531">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{443C47DC-2101-400F-9A3E-B09D739AEE95}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000FC050000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8602,7 +8602,7 @@
         <xdr:cNvPr id="2" name="矩形: 圆角 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE72AFDD-F2C5-4459-A303-182244F8D972}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8642,7 +8642,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -8676,7 +8676,7 @@
         <xdr:cNvPr id="3" name="矩形: 剪去顶角 221">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D16DDF9-B3AB-4F9B-8528-EE84EDEAF2DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8716,7 +8716,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -8750,7 +8750,7 @@
         <xdr:cNvPr id="4" name="矩形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E177C91F-F96D-4BD1-B03B-870DD329FF99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8790,7 +8790,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -8824,7 +8824,7 @@
         <xdr:cNvPr id="5" name="矩形: 圆角 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE72AFDD-F2C5-4459-A303-182244F8D972}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8864,7 +8864,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -8898,7 +8898,7 @@
         <xdr:cNvPr id="11" name="连接符: 肘形 740">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6E120D3-7585-4D17-BA48-CDDF1F688AFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8956,7 +8956,7 @@
         <xdr:cNvPr id="14" name="连接符: 肘形 740">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6E120D3-7585-4D17-BA48-CDDF1F688AFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9015,7 +9015,7 @@
         <xdr:cNvPr id="17" name="矩形: 剪去顶角 221">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D16DDF9-B3AB-4F9B-8528-EE84EDEAF2DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9055,7 +9055,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -9089,7 +9089,7 @@
         <xdr:cNvPr id="18" name="直接箭头连接符 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A2C0EEC-B9C2-4920-8BE6-C06019815892}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9145,7 +9145,7 @@
         <xdr:cNvPr id="33" name="矩形: 圆角 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE72AFDD-F2C5-4459-A303-182244F8D972}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9185,7 +9185,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -9219,7 +9219,7 @@
         <xdr:cNvPr id="34" name="矩形: 圆角 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE72AFDD-F2C5-4459-A303-182244F8D972}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9259,7 +9259,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -9293,7 +9293,7 @@
         <xdr:cNvPr id="38" name="连接符: 肘形 740">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6E120D3-7585-4D17-BA48-CDDF1F688AFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9349,7 +9349,7 @@
         <xdr:cNvPr id="42" name="连接符: 肘形 740">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6E120D3-7585-4D17-BA48-CDDF1F688AFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9407,7 +9407,7 @@
         <xdr:cNvPr id="45" name="矩形: 圆角 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE72AFDD-F2C5-4459-A303-182244F8D972}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9447,7 +9447,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -9481,7 +9481,7 @@
         <xdr:cNvPr id="47" name="矩形: 圆角 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE72AFDD-F2C5-4459-A303-182244F8D972}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9521,7 +9521,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -9555,7 +9555,7 @@
         <xdr:cNvPr id="48" name="矩形: 剪去顶角 221">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D16DDF9-B3AB-4F9B-8528-EE84EDEAF2DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9595,7 +9595,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -9629,7 +9629,7 @@
         <xdr:cNvPr id="49" name="连接符: 肘形 740">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6E120D3-7585-4D17-BA48-CDDF1F688AFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9687,7 +9687,7 @@
         <xdr:cNvPr id="52" name="连接符: 肘形 740">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6E120D3-7585-4D17-BA48-CDDF1F688AFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9745,7 +9745,7 @@
         <xdr:cNvPr id="64" name="连接符: 肘形 740">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6E120D3-7585-4D17-BA48-CDDF1F688AFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9801,7 +9801,7 @@
         <xdr:cNvPr id="104" name="矩形: 剪去顶角 221">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D16DDF9-B3AB-4F9B-8528-EE84EDEAF2DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000068000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9841,7 +9841,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -9875,7 +9875,7 @@
         <xdr:cNvPr id="105" name="连接符: 肘形 740">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6E120D3-7585-4D17-BA48-CDDF1F688AFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000069000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9934,7 +9934,7 @@
         <xdr:cNvPr id="113" name="矩形: 圆角 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE72AFDD-F2C5-4459-A303-182244F8D972}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000071000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9974,7 +9974,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -10008,7 +10008,7 @@
         <xdr:cNvPr id="119" name="连接符: 肘形 740">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6E120D3-7585-4D17-BA48-CDDF1F688AFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000077000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10052,22 +10052,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="187" name="矩形: 圆角 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE72AFDD-F2C5-4459-A303-182244F8D972}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000BB000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10075,8 +10075,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7477125" y="4619625"/>
-          <a:ext cx="847725" cy="238125"/>
+          <a:off x="7534275" y="4333875"/>
+          <a:ext cx="847725" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -10107,7 +10107,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -10126,22 +10126,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="188" name="矩形: 圆角 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE72AFDD-F2C5-4459-A303-182244F8D972}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000BC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10149,8 +10149,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3000375" y="5162550"/>
-          <a:ext cx="1152525" cy="238125"/>
+          <a:off x="2847975" y="5400675"/>
+          <a:ext cx="1152525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -10181,7 +10181,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -10199,23 +10199,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>147638</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>681038</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>357188</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>414338</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="189" name="直接箭头连接符 188">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A2C0EEC-B9C2-4920-8BE6-C06019815892}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000BD000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10226,8 +10226,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3576638" y="4857750"/>
-          <a:ext cx="4324350" cy="304800"/>
+          <a:off x="3424238" y="4591050"/>
+          <a:ext cx="4533900" cy="809625"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10256,14 +10256,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10271,7 +10271,7 @@
         <xdr:cNvPr id="194" name="矩形: 圆角 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE72AFDD-F2C5-4459-A303-182244F8D972}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000C2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10279,8 +10279,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10848975" y="5200650"/>
-          <a:ext cx="1152525" cy="238125"/>
+          <a:off x="10544175" y="5124450"/>
+          <a:ext cx="1152525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -10311,7 +10311,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -10330,14 +10330,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>357188</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>414338</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>452438</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:colOff>147638</xdr:colOff>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10345,7 +10345,7 @@
         <xdr:cNvPr id="195" name="直接箭头连接符 194">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A2C0EEC-B9C2-4920-8BE6-C06019815892}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000C3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10356,8 +10356,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7900988" y="4857750"/>
-          <a:ext cx="3524250" cy="342900"/>
+          <a:off x="7958138" y="4591050"/>
+          <a:ext cx="3162300" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10387,13 +10387,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10401,7 +10401,7 @@
         <xdr:cNvPr id="200" name="矩形: 剪去顶角 221">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D16DDF9-B3AB-4F9B-8528-EE84EDEAF2DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000C8000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10441,7 +10441,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -10459,23 +10459,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="203" name="矩形: 圆角 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE72AFDD-F2C5-4459-A303-182244F8D972}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000CB000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10483,8 +10483,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4371975" y="6038850"/>
-          <a:ext cx="1771650" cy="238125"/>
+          <a:off x="3886200" y="6324600"/>
+          <a:ext cx="1771650" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -10515,7 +10515,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -10535,13 +10535,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>147638</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>681038</xdr:colOff>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10549,7 +10549,7 @@
         <xdr:cNvPr id="204" name="直接箭头连接符 203">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A2C0EEC-B9C2-4920-8BE6-C06019815892}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000CC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10560,8 +10560,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2524125" y="5400675"/>
-          <a:ext cx="1052513" cy="619125"/>
+          <a:off x="2524125" y="5648325"/>
+          <a:ext cx="900113" cy="704850"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10589,23 +10589,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>147638</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>681038</xdr:colOff>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="207" name="直接箭头连接符 206">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A2C0EEC-B9C2-4920-8BE6-C06019815892}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000CF000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10616,8 +10616,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3576638" y="5400675"/>
-          <a:ext cx="1681162" cy="638175"/>
+          <a:off x="3424238" y="5648325"/>
+          <a:ext cx="1347787" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10647,13 +10647,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>561974</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10661,7 +10661,7 @@
         <xdr:cNvPr id="211" name="矩形 210">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E177C91F-F96D-4BD1-B03B-870DD329FF99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000D3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10701,7 +10701,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -10721,13 +10721,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10735,7 +10735,7 @@
         <xdr:cNvPr id="212" name="矩形 211">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E177C91F-F96D-4BD1-B03B-870DD329FF99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000D4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10775,7 +10775,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -10795,13 +10795,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10809,7 +10809,7 @@
         <xdr:cNvPr id="213" name="矩形 212">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E177C91F-F96D-4BD1-B03B-870DD329FF99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000D5000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10849,7 +10849,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -10869,13 +10869,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10883,7 +10883,7 @@
         <xdr:cNvPr id="214" name="矩形 213">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E177C91F-F96D-4BD1-B03B-870DD329FF99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000D6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10923,7 +10923,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -10943,13 +10943,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>52387</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10957,7 +10957,7 @@
         <xdr:cNvPr id="215" name="连接符: 肘形 740">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6E120D3-7585-4D17-BA48-CDDF1F688AFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000D7000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11001,13 +11001,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>176214</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>466726</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11015,7 +11015,7 @@
         <xdr:cNvPr id="218" name="连接符: 肘形 740">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6E120D3-7585-4D17-BA48-CDDF1F688AFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000DA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11059,13 +11059,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>442913</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11073,7 +11073,7 @@
         <xdr:cNvPr id="219" name="连接符: 肘形 740">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6E120D3-7585-4D17-BA48-CDDF1F688AFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000DB000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11118,13 +11118,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>623888</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11132,7 +11132,7 @@
         <xdr:cNvPr id="220" name="连接符: 肘形 740">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6E120D3-7585-4D17-BA48-CDDF1F688AFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000DC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11175,23 +11175,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="249" name="矩形 248">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E177C91F-F96D-4BD1-B03B-870DD329FF99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000F9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11199,8 +11199,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8753475" y="5953126"/>
-          <a:ext cx="1400175" cy="171450"/>
+          <a:off x="9163050" y="5667376"/>
+          <a:ext cx="1400175" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11231,7 +11231,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -11249,23 +11249,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="250" name="矩形: 圆角 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE72AFDD-F2C5-4459-A303-182244F8D972}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000FA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11273,8 +11273,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12353925" y="5934075"/>
-          <a:ext cx="1381125" cy="238125"/>
+          <a:off x="12058650" y="5629275"/>
+          <a:ext cx="1381125" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -11305,7 +11305,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -11321,6 +11321,2734 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="矩形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC7809D6-6209-41E3-A109-386C1CF472AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="5486400"/>
+          <a:ext cx="1819275" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ConcurrentExecutorAdapter</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>185738</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>414338</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直接箭头连接符 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A77A4E44-151C-47F4-934D-5BA4FFC0031E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="187" idx="2"/>
+          <a:endCxn id="43" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5672138" y="4591050"/>
+          <a:ext cx="2286000" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="矩形 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C6AC74A-650A-4AFA-85D6-B61C40CC80E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7010400" y="5514975"/>
+          <a:ext cx="1819275" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ConcurrentExecutorAdapter</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>376238</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>414338</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直接箭头连接符 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2FE3D24-E3D7-47E7-B0AD-A10F211CED76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="187" idx="2"/>
+          <a:endCxn id="50" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7920038" y="4591050"/>
+          <a:ext cx="38100" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>261938</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>147638</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直接箭头连接符 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A897260A-7789-470A-AD1B-94A4BC6FAB5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="194" idx="2"/>
+          <a:endCxn id="249" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9863138" y="5372100"/>
+          <a:ext cx="1257300" cy="295276"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>147638</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>404813</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="直接箭头连接符 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F129B3DB-2739-4980-9A1E-21B43A54DB4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="194" idx="2"/>
+          <a:endCxn id="250" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11120438" y="5372100"/>
+          <a:ext cx="1628775" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="矩形: 圆角 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E45E9E1A-AA97-4209-91AB-C16D2E57ED27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10115551" y="6467475"/>
+          <a:ext cx="1876424" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AsyncListenableTaskExecutor</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="矩形: 圆角 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4081C058-238A-4FB4-9637-F01C0DB071E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13239750" y="6477000"/>
+          <a:ext cx="1685925" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SchedulingTaskExecutor</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>80963</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>404813</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="直接箭头连接符 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7A499B6-528B-42B1-A26A-B6C34655C34F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="250" idx="2"/>
+          <a:endCxn id="65" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11053763" y="5886450"/>
+          <a:ext cx="1695450" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>404813</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>366713</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="直接箭头连接符 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0E613EA-C599-4082-B909-851467A2C1BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="250" idx="2"/>
+          <a:endCxn id="66" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12749213" y="5886450"/>
+          <a:ext cx="1333500" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="矩形 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A73B87D-4E10-464F-8969-3C2BB2C6D488}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7372351" y="7429500"/>
+          <a:ext cx="1619250" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ConcurrentTaskExecutor</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>628649</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="矩形 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{094B527F-9854-46EE-AA5F-0613C434FA00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7172324" y="6829425"/>
+          <a:ext cx="1685925" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SimpleAsyncTaskExecutor</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="矩形 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18648269-2752-4E40-8F69-024D77B9D44E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7696200" y="8105775"/>
+          <a:ext cx="2066925" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SimpleThreadPoolTaskExecutor</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="矩形 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{377C14DE-6F9D-41AC-904B-32FA59A1792B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8324850" y="8591549"/>
+          <a:ext cx="1476375" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TaskExecutorAdapter</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="矩形 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE0954E-40D0-431E-B8D3-7D555BBAE9B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15516225" y="7581900"/>
+          <a:ext cx="1628775" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ThreadPoolTaskExecutor</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="矩形 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC7D21E6-E34D-49AE-98D3-2310D3124EFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7105650" y="6353174"/>
+          <a:ext cx="1819275" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CustomizableThreadCreator</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>471487</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>471488</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="114" name="直接箭头连接符 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FFC4FCC-00F7-4BFE-A886-08424CFD1392}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="112" idx="2"/>
+          <a:endCxn id="86" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8015287" y="6553199"/>
+          <a:ext cx="1" cy="276226"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>628649</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="122" name="连接符: 肘形 740">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A102C705-CF7A-4CDD-A52F-25F6B06725D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="65" idx="1"/>
+          <a:endCxn id="86" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="8858249" y="6596063"/>
+          <a:ext cx="1257302" cy="328612"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="156" name="矩形: 剪去顶角 221">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61EEB05E-294D-40D8-BD56-5E2B990019F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17049750" y="6353175"/>
+          <a:ext cx="1971675" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ExecutorConfigurationSupport</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>80964</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="163" name="连接符: 肘形 740">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12491962-662C-4E4B-AF42-6E33A00DD2A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="65" idx="2"/>
+          <a:endCxn id="89" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="12796838" y="4981575"/>
+          <a:ext cx="976313" cy="4462462"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="216" name="矩形 215">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{454076EB-75A8-4398-8476-3FEC286B646C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16468725" y="8048625"/>
+          <a:ext cx="1685925" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ThreadPoolTaskScheduler</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>366713</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="474" name="连接符: 肘形 740">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F861445-FC7B-44CD-9A6B-5D5473978CEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="66" idx="2"/>
+          <a:endCxn id="89" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="14316075" y="6500813"/>
+          <a:ext cx="966788" cy="1433512"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>80963</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="580" name="直接箭头连接符 579">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29D588DE-B7C1-4DC0-AC6A-B8F3688A7669}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="65" idx="2"/>
+          <a:endCxn id="85" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8991601" y="6724650"/>
+          <a:ext cx="2062162" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>500063</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>80963</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="600" name="直接箭头连接符 599">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{653385AD-8C05-4E5B-9E4C-554C57149686}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="65" idx="2"/>
+          <a:endCxn id="87" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8729663" y="6724650"/>
+          <a:ext cx="2324100" cy="1381125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>500063</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>366713</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="608" name="直接箭头连接符 607">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7412192A-6F87-4FB5-827F-3697B866393B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="66" idx="2"/>
+          <a:endCxn id="87" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8729663" y="6734175"/>
+          <a:ext cx="5353050" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>366713</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="611" name="直接箭头连接符 610">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8298D37C-3E76-4123-8F37-1FA5BA0EA404}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="66" idx="2"/>
+          <a:endCxn id="85" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8991601" y="6734175"/>
+          <a:ext cx="5091112" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>557213</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>204788</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="663" name="连接符: 肘形 740">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CBEAD64-03F9-44D9-ADEB-639594A0A39D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="156" idx="1"/>
+          <a:endCxn id="89" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="16697326" y="6243638"/>
+          <a:ext cx="971550" cy="1704975"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="709" name="矩形: 圆角 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{825B2498-025F-459B-B6EB-D6E6572820CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5953125" y="8858250"/>
+          <a:ext cx="1133475" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>InitializingBean</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="710" name="矩形: 圆角 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{284C3CD6-EC94-4A03-9023-A03EB38D83A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6038850" y="7877175"/>
+          <a:ext cx="1133475" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DisposableBean</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="711" name="直接箭头连接符 710">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{598F62C3-E456-4EC2-A043-8EA65B551F7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="709" idx="3"/>
+          <a:endCxn id="87" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7086600" y="8220075"/>
+          <a:ext cx="609600" cy="766763"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="714" name="直接箭头连接符 713">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A7DE838-8B26-4796-9F88-4941031A2A06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="710" idx="3"/>
+          <a:endCxn id="87" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7172325" y="8005763"/>
+          <a:ext cx="523875" cy="214312"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>80963</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="724" name="直接箭头连接符 723">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7383E949-EA40-40F5-B0C3-01A4C4DF0B9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="65" idx="2"/>
+          <a:endCxn id="88" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9801225" y="6724650"/>
+          <a:ext cx="1252538" cy="1985962"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>166689</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>204789</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="729" name="连接符: 肘形 740">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD373DE3-0147-4B91-A3D5-B926EBE05F0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="156" idx="1"/>
+          <a:endCxn id="216" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="16954501" y="6967537"/>
+          <a:ext cx="1438275" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>80963</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="737" name="连接符: 肘形 740">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E57AF1B2-E952-4D5C-A2D1-FA1FC3EF96FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="65" idx="2"/>
+          <a:endCxn id="216" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="13039725" y="4738688"/>
+          <a:ext cx="1443038" cy="5414962"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="748" name="连接符: 肘形 740">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E34F7E3-FCDC-4CAC-BEAD-E67FEC5079AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="66" idx="1"/>
+          <a:endCxn id="216" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1" flipV="1">
+          <a:off x="13239749" y="6605588"/>
+          <a:ext cx="3228975" cy="1562100"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -7080"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="751" name="矩形: 圆角 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D2A011F-B4B3-47AF-A49E-0E0D8DCA8B9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18516600" y="8515350"/>
+          <a:ext cx="1133475" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TaskScheduler</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="752" name="连接符: 肘形 740">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8495F716-E693-40CB-BDE2-E90E7B5A65DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="751" idx="1"/>
+          <a:endCxn id="216" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="18154650" y="8167688"/>
+          <a:ext cx="361950" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="755" name="矩形 754">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A7CFE5A-7346-45F1-9155-2D9A9C1C8FB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12734925" y="9153525"/>
+          <a:ext cx="1866900" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>WorkManagerTaskExecutor</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="756" name="矩形: 剪去顶角 221">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACE211FC-D425-4D5B-9E23-196F439D3EFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12658725" y="8534400"/>
+          <a:ext cx="1971675" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>JndiLocatorSupport</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>614363</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="757" name="直接箭头连接符 756">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBE270EF-4D56-4820-8297-FE7F79F1A55E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="756" idx="1"/>
+          <a:endCxn id="755" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13644563" y="8791575"/>
+          <a:ext cx="23812" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="795" name="连接符: 肘形 740">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC7745BD-ACE3-48DE-9C19-D96A45242ACB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="65" idx="3"/>
+          <a:endCxn id="755" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11991975" y="6596063"/>
+          <a:ext cx="742950" cy="2676525"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="798" name="连接符: 肘形 740">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1464172B-F18C-469A-8361-DD4AB30DFFF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="66" idx="3"/>
+          <a:endCxn id="755" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14601825" y="6605588"/>
+          <a:ext cx="323850" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -70588"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>347664</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="809" name="连接符: 肘形 740">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DE057A2-D2C0-47A2-9B65-116BAC0BE296}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="709" idx="2"/>
+          <a:endCxn id="755" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="9548813" y="6086475"/>
+          <a:ext cx="157163" cy="6215062"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11344,7 +14072,7 @@
         <xdr:cNvPr id="2" name="矩形: 圆角 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E207A3F5-3AA1-48F7-BCAA-83A2784E1EB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11418,7 +14146,7 @@
         <xdr:cNvPr id="3" name="矩形: 圆角 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17D5C442-2879-4C83-8F9C-A7DC11BF09AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11492,7 +14220,7 @@
         <xdr:cNvPr id="4" name="矩形: 剪去顶角 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26444FA5-FEA2-4E8F-97A1-94D2343B0E39}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11566,7 +14294,7 @@
         <xdr:cNvPr id="5" name="连接符: 肘形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{67D115E1-1518-4688-95C3-2027474E9F7E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11624,7 +14352,7 @@
         <xdr:cNvPr id="8" name="连接符: 肘形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4D5C1F3-0B25-4327-AF2E-B306E242452D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11682,7 +14410,7 @@
         <xdr:cNvPr id="11" name="矩形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C690A0E7-A9BF-4478-83AC-7C0F2478EFDB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11756,7 +14484,7 @@
         <xdr:cNvPr id="12" name="直接箭头连接符 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2B47DFB1-32DB-4ED8-B243-BFB71982B0B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11817,7 +14545,7 @@
         <xdr:cNvPr id="3" name="矩形: 剪去顶角 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11892,7 +14620,7 @@
         <xdr:cNvPr id="15" name="矩形: 剪去顶角 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11967,7 +14695,7 @@
         <xdr:cNvPr id="16" name="矩形: 剪去顶角 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12041,7 +14769,7 @@
         <xdr:cNvPr id="17" name="矩形: 剪去顶角 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12115,7 +14843,7 @@
         <xdr:cNvPr id="30" name="直接箭头连接符 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12171,7 +14899,7 @@
         <xdr:cNvPr id="33" name="直接箭头连接符 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12227,7 +14955,7 @@
         <xdr:cNvPr id="34" name="直接箭头连接符 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12283,7 +15011,7 @@
         <xdr:cNvPr id="64" name="矩形: 剪去顶角 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000040000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12357,7 +15085,7 @@
         <xdr:cNvPr id="68" name="直接箭头连接符 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000044000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000044000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12413,7 +15141,7 @@
         <xdr:cNvPr id="74" name="矩形: 剪去顶角 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12490,7 +15218,7 @@
         <xdr:cNvPr id="75" name="直接箭头连接符 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12546,7 +15274,7 @@
         <xdr:cNvPr id="78" name="直接箭头连接符 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00004E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12602,7 +15330,7 @@
         <xdr:cNvPr id="79" name="直接箭头连接符 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12658,7 +15386,7 @@
         <xdr:cNvPr id="93" name="矩形: 剪去顶角 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00005D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12732,7 +15460,7 @@
         <xdr:cNvPr id="94" name="直接箭头连接符 93">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00005E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12788,7 +15516,7 @@
         <xdr:cNvPr id="98" name="矩形: 剪去顶角 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000062000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000062000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12862,7 +15590,7 @@
         <xdr:cNvPr id="99" name="直接箭头连接符 98">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000063000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000063000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12918,7 +15646,7 @@
         <xdr:cNvPr id="102" name="直接箭头连接符 101">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000066000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000066000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12974,7 +15702,7 @@
         <xdr:cNvPr id="110" name="矩形 109">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00006E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13045,7 +15773,7 @@
         <xdr:cNvPr id="111" name="直接箭头连接符 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00006F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13101,7 +15829,7 @@
         <xdr:cNvPr id="115" name="直接箭头连接符 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000073000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000073000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13157,7 +15885,7 @@
         <xdr:cNvPr id="120" name="矩形 119">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000078000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000078000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13228,7 +15956,7 @@
         <xdr:cNvPr id="121" name="直接箭头连接符 120">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000079000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000079000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13284,7 +16012,7 @@
         <xdr:cNvPr id="63" name="图片 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00003F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13328,7 +16056,7 @@
         <xdr:cNvPr id="65" name="图片 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000041000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000041000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13372,7 +16100,7 @@
         <xdr:cNvPr id="66" name="图片 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000042000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13416,7 +16144,7 @@
         <xdr:cNvPr id="31" name="图片 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13460,7 +16188,7 @@
         <xdr:cNvPr id="32" name="图片 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13504,7 +16232,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13548,7 +16276,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13592,7 +16320,7 @@
         <xdr:cNvPr id="7" name="图片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13636,7 +16364,7 @@
         <xdr:cNvPr id="8" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13680,7 +16408,7 @@
         <xdr:cNvPr id="9" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13729,7 +16457,7 @@
         <xdr:cNvPr id="2" name="矩形: 剪去顶角 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13809,7 +16537,7 @@
         <xdr:cNvPr id="2" name="流程图: 可选过程 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13883,7 +16611,7 @@
         <xdr:cNvPr id="3" name="矩形: 剪去顶角 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13954,7 +16682,7 @@
         <xdr:cNvPr id="4" name="矩形: 剪去顶角 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14025,7 +16753,7 @@
         <xdr:cNvPr id="5" name="矩形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14096,7 +16824,7 @@
         <xdr:cNvPr id="6" name="矩形: 剪去顶角 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14170,7 +16898,7 @@
         <xdr:cNvPr id="7" name="矩形: 剪去顶角 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14244,7 +16972,7 @@
         <xdr:cNvPr id="8" name="矩形: 剪去顶角 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14318,7 +17046,7 @@
         <xdr:cNvPr id="9" name="直接箭头连接符 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14374,7 +17102,7 @@
         <xdr:cNvPr id="10" name="矩形: 剪去顶角 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14453,7 +17181,7 @@
         <xdr:cNvPr id="2" name="矩形: 剪去顶角 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14527,7 +17255,7 @@
         <xdr:cNvPr id="3" name="矩形: 剪去顶角 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14601,7 +17329,7 @@
         <xdr:cNvPr id="4" name="直接箭头连接符 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14662,7 +17390,7 @@
         <xdr:cNvPr id="2" name="矩形: 剪去顶角 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14733,7 +17461,7 @@
         <xdr:cNvPr id="3" name="矩形: 剪去顶角 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14804,7 +17532,7 @@
         <xdr:cNvPr id="4" name="矩形: 剪去顶角 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14875,7 +17603,7 @@
         <xdr:cNvPr id="5" name="矩形: 剪去顶角 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14946,7 +17674,7 @@
         <xdr:cNvPr id="6" name="矩形: 剪去顶角 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15017,7 +17745,7 @@
         <xdr:cNvPr id="7" name="直接箭头连接符 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15073,7 +17801,7 @@
         <xdr:cNvPr id="8" name="直接箭头连接符 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15129,7 +17857,7 @@
         <xdr:cNvPr id="9" name="直接箭头连接符 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15185,7 +17913,7 @@
         <xdr:cNvPr id="10" name="直接箭头连接符 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15246,7 +17974,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15290,7 +18018,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15334,7 +18062,7 @@
         <xdr:cNvPr id="4" name="矩形: 剪去顶角 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15408,7 +18136,7 @@
         <xdr:cNvPr id="6" name="矩形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15479,7 +18207,7 @@
         <xdr:cNvPr id="8" name="直接箭头连接符 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15535,7 +18263,7 @@
         <xdr:cNvPr id="9" name="直接箭头连接符 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15591,7 +18319,7 @@
         <xdr:cNvPr id="21" name="矩形 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15984,11 +18712,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G34" workbookViewId="0">
-      <selection activeCell="X50" sqref="X50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16005,7 +18733,7 @@
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16018,11 +18746,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView showGridLines="0" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16038,7 +18766,7 @@
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16054,7 +18782,7 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="5.75" style="3" customWidth="1"/>
     <col min="3" max="3" width="41.625" style="3" bestFit="1" customWidth="1"/>
@@ -16064,7 +18792,7 @@
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
@@ -16081,7 +18809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -16094,7 +18822,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -16107,7 +18835,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C5" s="5"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
@@ -16115,7 +18843,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C6" s="5"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
@@ -16125,7 +18853,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C7" s="5"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
@@ -16133,7 +18861,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C8" s="5"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
@@ -16141,7 +18869,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C9" s="5"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
@@ -16149,7 +18877,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C10" s="5"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
@@ -16157,7 +18885,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C11" s="5"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
@@ -16165,7 +18893,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C12" s="5"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
@@ -16173,7 +18901,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C13" s="5"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
@@ -16181,7 +18909,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C14" s="5"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
@@ -16189,7 +18917,7 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C15" s="5"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
@@ -16197,7 +18925,7 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C16" s="5"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
@@ -16205,7 +18933,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="3:6">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C17" s="5"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
@@ -16213,7 +18941,7 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="3:6">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C18" s="5"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
@@ -16221,7 +18949,7 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="3:6">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C19" s="6"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
@@ -16229,7 +18957,7 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="3:6">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C20" s="4" t="s">
         <v>8</v>
       </c>
@@ -16239,7 +18967,7 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="3:6">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C21" s="5"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
@@ -16249,7 +18977,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="3:6">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C22" s="5"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
@@ -16259,7 +18987,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="3:6">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C23" s="5"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
@@ -16267,7 +18995,7 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="3:6">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C24" s="6"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
@@ -16275,7 +19003,7 @@
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="3:6">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
@@ -16287,91 +19015,91 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="3:6">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C26" s="7"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="3:6">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C27" s="7"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="3:6">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C28" s="7"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="3:6">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C29" s="7"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="3:6">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C30" s="7"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="3:6">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C31" s="7"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="3:6">
+    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C32" s="7"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="3:6">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C33" s="7"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="3:6">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C34" s="7"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="3:6">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C35" s="7"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="3:6">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C36" s="7"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="3:6">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C37" s="7"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="3:6">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C38" s="7"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="3:6">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="3:6">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -16397,7 +19125,7 @@
       <selection activeCell="P204" sqref="P204"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16414,7 +19142,7 @@
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16430,7 +19158,7 @@
       <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16446,7 +19174,7 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16462,7 +19190,7 @@
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
